--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="939">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -626,9 +626,6 @@
     <t>*Zonneveld &amp; Pospelova (2015)</t>
   </si>
   <si>
-    <t>*Granulate wall</t>
-  </si>
-  <si>
     <t>*Wall smooth to granular.</t>
   </si>
   <si>
@@ -824,88 +821,25 @@
     <t>*Smooth wall.</t>
   </si>
   <si>
-    <t>*Tabulation complete or partly missing.</t>
-  </si>
-  <si>
-    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septa smooth, low, robust of equal height.</t>
-  </si>
-  <si>
     <t>*No processes on triple junctions.</t>
   </si>
   <si>
-    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septa smooth, regularly curved.</t>
-  </si>
-  <si>
-    <t>*Tabulation (except on ventral side) complete.</t>
-  </si>
-  <si>
-    <t>*Apical protrusion can be present</t>
-  </si>
-  <si>
-    <t>*Microgranulate wall, except on sulcus.</t>
-  </si>
-  <si>
-    <t>*Tabulation complete.</t>
-  </si>
-  <si>
-    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septal walls separte irregularly, notably at triple junctions. Septa irregularly curved.</t>
-  </si>
-  <si>
-    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septa smooth. Low septa between 5 and 10 um.</t>
-  </si>
-  <si>
     <t>*Tabulation reflected.</t>
   </si>
   <si>
-    <t>*Smooth to chagrinate wall.</t>
-  </si>
-  <si>
-    <t>*Smooth to chagrinate wall. Wall very thin.</t>
-  </si>
-  <si>
-    <t>*Septa of equal length. Septa smooth.</t>
-  </si>
-  <si>
-    <t>*Septa of equal height high septa more than 1/3 of inner body. Septa have striae, irregularly curved.</t>
-  </si>
-  <si>
-    <t>*Microgranular cyst wall.</t>
-  </si>
-  <si>
-    <t>*Septa of equal height high septa more than 1/3 of inner body.  Smooth septa, very high.</t>
-  </si>
-  <si>
     <t>*Cingulum reflected by one septum only.</t>
   </si>
   <si>
-    <t>*Septa of variable height. Septa irregular.</t>
-  </si>
-  <si>
     <t>*Scabrate cyst wall.</t>
   </si>
   <si>
-    <t>*Apical boss</t>
-  </si>
-  <si>
     <t>*No intratabular ridges.</t>
   </si>
   <si>
-    <t>*Septa of variable height. Smooth cavate septa. Irregular.</t>
-  </si>
-  <si>
-    <t>*Intratabular ridges present.</t>
-  </si>
-  <si>
     <t>*Cyst wall finely granular.</t>
   </si>
   <si>
     <t>*Septa of variable height. Solid septa, irregular.</t>
-  </si>
-  <si>
-    <t>*Septa of variable height. Septa smooth. Higher at triple junctions.</t>
-  </si>
-  <si>
-    <t>*Small apical boss</t>
   </si>
   <si>
     <t>*Processes on triple junctions.</t>
@@ -2832,6 +2766,183 @@
   </si>
   <si>
     <t>**1 to 4 um. (length)</t>
+  </si>
+  <si>
+    <t>*Small apical boss **Ovoidal, with small apical protuberance.</t>
+  </si>
+  <si>
+    <t>*Smooth wall **Finely granulate surface.</t>
+  </si>
+  <si>
+    <t>*Tabulation reflected. **Sutural septa express tabulation fully over most of the cyst. But are weakly developed or absent in sulcal area.</t>
+  </si>
+  <si>
+    <t>*Septa of variable height. Septa smooth. Higher at triple junctions.  **Most septa become higher gradually towards the gonal junctions, forming a conspicuous point where they merge.</t>
+  </si>
+  <si>
+    <t>**Formed by loss of precingular plate 3".</t>
+  </si>
+  <si>
+    <t>**32 to 35 um.</t>
+  </si>
+  <si>
+    <t>**By its small size and spiky coalescence of the septa.</t>
+  </si>
+  <si>
+    <t>*Transparent **Pale</t>
+  </si>
+  <si>
+    <t>**Spherical</t>
+  </si>
+  <si>
+    <t>*Smooth to chagrinate wall. Wall very thin. **Thin smooth wall, appears membranous and can be wrinkled, especially at the bases of the sutural septa.</t>
+  </si>
+  <si>
+    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septa smooth. Low septa between 5 and 10 um. **Septa are thin and solid with a smooth surface, can have slightly undulating distal margins. Absent in the apical area, and poorly developed in the ventral area.</t>
+  </si>
+  <si>
+    <t>**Shallow</t>
+  </si>
+  <si>
+    <t>**49 to 63 um. (including crests)</t>
+  </si>
+  <si>
+    <t>**By its pale appearance and thin, often folded membranous wall. Folds caused by crumpling of the cyst, frequently make it difficult to discern the gonyalacacean tabulation as outlined by the sutural septa.</t>
+  </si>
+  <si>
+    <t>*Apical protrusion can be present **Ovoidal</t>
+  </si>
+  <si>
+    <t>*Microgranulate wall, except on sulcus. **Finely granulate surface. An apical protuberance is often present.</t>
+  </si>
+  <si>
+    <t>*Tabulation complete. **Tabulation well expressed by sutural septa over most of the cyst but weakly developed or absent in the sulcal area.</t>
+  </si>
+  <si>
+    <t>*Septa of equal length. Septa smooth. **The crest height is more or less constant over the c yst surace.</t>
+  </si>
+  <si>
+    <t>**28 to 31 um. (length)</t>
+  </si>
+  <si>
+    <t>**Differs from I. sphaericum in its smaller size, more elongate central body, and reduced expression of tabulation in the ventral area.</t>
+  </si>
+  <si>
+    <t>**Ovoidal</t>
+  </si>
+  <si>
+    <t>*Smooth wall. **Smooth to weakly finely granulate.</t>
+  </si>
+  <si>
+    <t>*Tabulation (except on ventral side) complete. **Well expressed by low suturla septa of uniform height over most of the cyst except in the ventral area.</t>
+  </si>
+  <si>
+    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septa smooth, low, robust of equal height. **Septa are characteristically absent from the lower cingular margin where it meets the sulcus. Have smooth distal margins.</t>
+  </si>
+  <si>
+    <t>**47 to 65 um. (length)</t>
+  </si>
+  <si>
+    <t>**Differs from I. sphaericum by the straight and smooth contact between the septa and cyst surface, and reduced tabulation in the ventral region.</t>
+  </si>
+  <si>
+    <t>**Ovoidal to elongate.</t>
+  </si>
+  <si>
+    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septa smooth, regularly curved. **Suturocavate crenulate septa of uniform height except in the sulcal area where they may be lower.</t>
+  </si>
+  <si>
+    <t>**24 to 34 um. (diameter)</t>
+  </si>
+  <si>
+    <t>*Tabulation complete or partly missing. **The tabulation is well expressed by the crenulate septa over most of the cyst, but may be significantly reduced in the ventral area. Septa height (2 to 4 um.)</t>
+  </si>
+  <si>
+    <t>*Granulate wall. **Finely and faintly granulate surface.</t>
+  </si>
+  <si>
+    <t>**Spherical to ovoidal. A pronounced apical protuberance is often present.</t>
+  </si>
+  <si>
+    <t>**Well expresed by low sutural septa of approximately uniform height over the central body, including the sulcal area.</t>
+  </si>
+  <si>
+    <t>*Septa of equal length, height of septa less than 1/3 of inner body. Septal walls separte irregularly, notably at triple junctions. Septa irregularly curved. **Both cingular margins bear septa where they meet the sulcus. Bases of septa form somewhat coarse, irregular-looking lines on the central body surface.</t>
+  </si>
+  <si>
+    <t>**41 to 57 um. (diameter)</t>
+  </si>
+  <si>
+    <t>**Similar to I. patulum and paradoxum</t>
+  </si>
+  <si>
+    <t>*Apical protrusion can be present **Ovoidal.</t>
+  </si>
+  <si>
+    <t>*Microgranular cyst wall. **Faintly and finely granulate surface.</t>
+  </si>
+  <si>
+    <t>*Tabulation partly reflected. **Expressed incompletely by the septa on both dorsal and ventral surfaces.</t>
+  </si>
+  <si>
+    <t>**26 to 38 um.</t>
+  </si>
+  <si>
+    <t>*Septa of equal height high septa more than 1/3 of inner body. Septa have striae, irregularly curved. **Relatively high sutural septa have fine radial striae and are of more or less constant height all over the cyst except in ventral area. (Septa height : 5 to 10 um.)</t>
+  </si>
+  <si>
+    <t>*Septa of variable height. Smooth cavate septa. Irregular. **Heigh is low (1.3 to 2.4 um.) except around the antapical plate 1", where the septa is higher (2.3 to 4.3 um.).</t>
+  </si>
+  <si>
+    <t>*Intratabular ridges present. **Expressed by the sutural septa delineates it.</t>
+  </si>
+  <si>
+    <t>**Precingular.</t>
+  </si>
+  <si>
+    <t>*Apical boss **Subpsherical to ellipsoidal ambitus. Epicyst has a smooth rounded apex with an apical boss. Finely granulated. Sometimes with scattered granulare.</t>
+  </si>
+  <si>
+    <t>**34 to 39.4 um. (length including apical boss).</t>
+  </si>
+  <si>
+    <t>**Mertens et al., 2017 *Zonneveld &amp; Pospelova (2015)</t>
+  </si>
+  <si>
+    <t>*Apical boss **Subspherical with a pronounced apical protuberance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**47 x 75 um. </t>
+  </si>
+  <si>
+    <t>*Septa of variable height. Septa irregular. **Sutural suturocavate septa are more or less well developed., smooth to finely ornamented of variable height, with raised bosses in gonal and intergonal positions. Show a proximal cavation and are indented distally. Height: 3 to 11 um.</t>
+  </si>
+  <si>
+    <t>**By the cavateness of its septa. The rate of open space between the inner part of the septa and the innner cell wall can vary greatly from very pronounced over the complete septa to only present at the triple junctions. Always smooth to finely ornamented, without ruptures and holes, can be easily distinguished from I. caspienense by the lack of low intertabular ridges that are characteristic for the latter species.</t>
+  </si>
+  <si>
+    <t>**Ovoid</t>
+  </si>
+  <si>
+    <t>*Transparent  **Pale thin wall</t>
+  </si>
+  <si>
+    <t>*Smooth to chagrinate wall. **Smooth to chagrinate surface.</t>
+  </si>
+  <si>
+    <t>**Difficult to determine due to flattening of sutural crests against cyst body.</t>
+  </si>
+  <si>
+    <t>**Shallow and bordered by sutural septa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**47 to 53 um. </t>
+  </si>
+  <si>
+    <t>*Septa of equal height high septa more than 1/3 of inner body.  Smooth septa, very high. **Sutural septa are membranous and high (similar to the central body diameter), with smooth distal margins. Height of septa: 19 to 25 um.</t>
+  </si>
+  <si>
+    <t>**The septa of this species are often so high that you can not see its inner body. You can easily miss it in a slide since it very thin adn transparent. Hard to observe the archeopyle. Differs from I. pallidum by the reflection of the cingulum by one septum only.</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +3009,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2925,13 +3036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2963,7 +3068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2994,9 +3099,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3037,7 +3139,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3323,22 +3434,24 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="63.85546875" style="9" customWidth="1"/>
-    <col min="7" max="12" width="30.7109375" style="9" customWidth="1"/>
+    <col min="7" max="9" width="30.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="30.7109375" style="9" customWidth="1"/>
     <col min="13" max="13" width="58.28515625" style="9" customWidth="1"/>
     <col min="14" max="14" width="42.5703125" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="12"/>
+    <col min="15" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3355,13 +3468,13 @@
         <v>181</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>189</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>182</v>
@@ -3385,2059 +3498,2143 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E8" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>790</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="N32" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E36" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="N42" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L48" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M48" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="H49" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="K52" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="N56" s="24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="25" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="N57" s="24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="L58" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="M58" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="N58" s="24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="E59" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C60" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D60" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="E60" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C61" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>873</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>892</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="E61" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="G61" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="18" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="H61" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
@@ -5446,18 +5643,18 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -5465,16 +5662,16 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5483,58 +5680,58 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5543,154 +5740,154 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-    </row>
-    <row r="68" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+    </row>
+    <row r="68" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-    </row>
-    <row r="71" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+    </row>
+    <row r="71" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -5699,171 +5896,171 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="F72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-    </row>
-    <row r="74" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+    </row>
+    <row r="74" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-    </row>
-    <row r="76" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+    </row>
+    <row r="76" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-    </row>
-    <row r="77" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+    </row>
+    <row r="77" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -5872,87 +6069,87 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-    </row>
-    <row r="80" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+    </row>
+    <row r="80" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-    </row>
-    <row r="81" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+    </row>
+    <row r="81" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
@@ -5961,18 +6158,18 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -5980,100 +6177,100 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-    </row>
-    <row r="85" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+    </row>
+    <row r="85" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -6082,15 +6279,15 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
@@ -6099,18 +6296,18 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -6118,184 +6315,184 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+    <row r="88" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-    </row>
-    <row r="89" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+    </row>
+    <row r="89" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16" t="s">
+      <c r="B90" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,7 +6513,7 @@
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>86</v>
       </c>
@@ -6324,22 +6521,22 @@
         <v>190</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -6347,275 +6544,275 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C99" s="16" t="s">
+      <c r="B99" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16" t="s">
+      <c r="G99" s="15"/>
+      <c r="H99" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
     </row>
     <row r="104" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>196</v>
@@ -6625,11 +6822,11 @@
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -6649,15 +6846,15 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
@@ -6668,127 +6865,127 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+    <row r="106" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="F106" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+      <c r="B106" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="E107" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="F107" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="H107" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20" t="s">
+      <c r="B107" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="H107" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="N108" s="19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
-      <c r="N107" s="20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="H108" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="N108" s="20" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="16" t="s">
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6797,21 +6994,21 @@
         <v>101</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -6830,7 +7027,7 @@
         <v>190</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>191</v>
@@ -6839,7 +7036,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -6888,14 +7085,14 @@
         <v>190</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -6939,7 +7136,7 @@
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -7017,11 +7214,11 @@
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -7037,13 +7234,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
@@ -7051,7 +7248,7 @@
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>197</v>
@@ -7069,13 +7266,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
@@ -7083,7 +7280,7 @@
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I120" s="8" t="s">
         <v>197</v>
@@ -7114,1102 +7311,1102 @@
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
+    <row r="122" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C122" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="E122" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="F122" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H122" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="I122" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="L122" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="M122" s="20"/>
-      <c r="N122" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+      <c r="C122" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="L122" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="16"/>
-    </row>
-    <row r="124" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+    </row>
+    <row r="124" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-    </row>
-    <row r="125" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+    </row>
+    <row r="125" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="16"/>
-    </row>
-    <row r="126" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15" t="s">
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+    </row>
+    <row r="126" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="16"/>
-    </row>
-    <row r="127" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+    </row>
+    <row r="127" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="16"/>
-    </row>
-    <row r="128" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+    </row>
+    <row r="128" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-    </row>
-    <row r="129" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+    </row>
+    <row r="129" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="N129" s="19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+    </row>
+    <row r="131" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="J132" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="K132" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="N132" s="19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+    </row>
+    <row r="134" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+    </row>
+    <row r="135" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+    </row>
+    <row r="136" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="G136" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="N136" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="N137" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="N138" s="19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="I139" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="N139" s="19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="N141" s="19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+    </row>
+    <row r="143" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="D129" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="F129" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="I129" s="20"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="N129" s="20" t="s">
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-    </row>
-    <row r="131" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16" t="s">
+      <c r="N143" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="N144" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="16" t="s">
+      <c r="C145" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="I145" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="N145" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="N146" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="F147" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="N147" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="J148" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="K148" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="N148" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="E132" s="20" t="s">
-        <v>662</v>
-      </c>
-      <c r="F132" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="G132" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="H132" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="I132" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="J132" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="K132" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="N132" s="20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="16"/>
-    </row>
-    <row r="134" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-    </row>
-    <row r="135" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
-      <c r="M135" s="16"/>
-      <c r="N135" s="16"/>
-    </row>
-    <row r="136" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B136" s="20" t="s">
+    <row r="150" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="N150" s="19" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="F151" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="J151" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="N151" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="N152" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="G153" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="N153" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="E136" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="F136" s="20" t="s">
+    </row>
+    <row r="154" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="J154" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="K154" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="N154" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="N156" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="G136" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="H136" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="I136" s="20"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="N136" s="20" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20" t="s">
-        <v>680</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>681</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="F137" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="L137" s="20"/>
-      <c r="M137" s="20" t="s">
-        <v>686</v>
-      </c>
-      <c r="N137" s="20" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="E138" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="F138" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20" t="s">
-        <v>631</v>
-      </c>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="N138" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="F139" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="G139" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="H139" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="I139" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="N139" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="F141" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="L141" s="20"/>
-      <c r="M141" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="N141" s="20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="16"/>
-      <c r="L142" s="16"/>
-      <c r="M142" s="16"/>
-      <c r="N142" s="16"/>
-    </row>
-    <row r="143" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>705</v>
-      </c>
-      <c r="F143" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="G143" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="N143" s="20" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="E144" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="F144" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="G144" s="20" t="s">
-        <v>701</v>
-      </c>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="J144" s="20"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="N144" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>708</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="F145" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="G145" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="H145" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="I145" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="J145" s="20"/>
-      <c r="K145" s="20" t="s">
-        <v>710</v>
-      </c>
-      <c r="L145" s="20"/>
-      <c r="M145" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="N145" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20" t="s">
-        <v>713</v>
-      </c>
-      <c r="E146" s="20" t="s">
-        <v>715</v>
-      </c>
-      <c r="F146" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="G146" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20" t="s">
-        <v>717</v>
-      </c>
-      <c r="N146" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>718</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>719</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="F147" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="G147" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="H147" s="20" t="s">
-        <v>723</v>
-      </c>
-      <c r="I147" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20" t="s">
-        <v>721</v>
-      </c>
-      <c r="L147" s="20"/>
-      <c r="M147" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="N147" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>728</v>
-      </c>
-      <c r="E148" s="20" t="s">
-        <v>734</v>
-      </c>
-      <c r="F148" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="G148" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="H148" s="20" t="s">
-        <v>733</v>
-      </c>
-      <c r="I148" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="J148" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="K148" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="N148" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="K149" s="16"/>
-      <c r="L149" s="16"/>
-      <c r="M149" s="16"/>
-      <c r="N149" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="E150" s="20" t="s">
-        <v>738</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>744</v>
-      </c>
-      <c r="G150" s="20" t="s">
-        <v>739</v>
-      </c>
-      <c r="H150" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="I150" s="20" t="s">
-        <v>737</v>
-      </c>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="N150" s="20" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="F151" s="20" t="s">
-        <v>749</v>
-      </c>
-      <c r="G151" s="20" t="s">
-        <v>748</v>
-      </c>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="J151" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="K151" s="20"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="N151" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="E152" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="F152" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="L152" s="20"/>
-      <c r="M152" s="20" t="s">
-        <v>758</v>
-      </c>
-      <c r="N152" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="D153" s="20" t="s">
+    </row>
+    <row r="157" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="E153" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="F153" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="G153" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="H153" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="I153" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="N153" s="20" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="D154" s="20" t="s">
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="E154" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="F154" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="G154" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="H154" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="I154" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="J154" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="K154" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="N154" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
-      <c r="N155" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="E156" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="F156" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="G156" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="H156" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="I156" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20" t="s">
-        <v>782</v>
-      </c>
-      <c r="N156" s="20" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>784</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="F157" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="N157" s="20" t="s">
-        <v>697</v>
+      <c r="N157" s="19" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,27 +8414,27 @@
         <v>149</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -8287,17 +8484,17 @@
         <v>152</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -8391,20 +8588,20 @@
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E166" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="F166" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
@@ -8421,18 +8618,18 @@
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
@@ -8445,24 +8642,24 @@
         <v>159</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -8477,11 +8674,11 @@
         <v>160</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
@@ -8591,7 +8788,7 @@
         <v>166</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="8" t="s">
@@ -8599,11 +8796,11 @@
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
@@ -8641,7 +8838,7 @@
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
@@ -8650,7 +8847,7 @@
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -8793,11 +8990,11 @@
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
@@ -8819,11 +9016,11 @@
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
@@ -8837,7 +9034,7 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
+      <c r="A187" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N186"/>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="943">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -693,12 +693,6 @@
   </si>
   <si>
     <t>*Without spines/processes.</t>
-  </si>
-  <si>
-    <t>*Cingulum hangs over hypocyst.</t>
-  </si>
-  <si>
-    <t>*Peridinioid cyst form. Enlarged epicyst. Antapical protrusions can have thickened wall.</t>
   </si>
   <si>
     <t>*Without spines/processes</t>
@@ -2943,6 +2937,24 @@
   </si>
   <si>
     <t>**The septa of this species are often so high that you can not see its inner body. You can easily miss it in a slide since it very thin adn transparent. Hard to observe the archeopyle. Differs from I. pallidum by the reflection of the cingulum by one septum only.</t>
+  </si>
+  <si>
+    <t>*Cingulum hangs over hypocyst. **Cingulum broad equatorially, hypocyst very small, usually dorsoventrally compressed, with or without antapical horns.</t>
+  </si>
+  <si>
+    <t>*Peridinioid cyst form. Enlarged epicyst. Antapical protrusions can have thickened wall. **Peridinioid with large epicyst and small hypocyst. Epicyst domed or conoical with or without an apical horn or apical wall thickening. Polar view circular to reniform.</t>
+  </si>
+  <si>
+    <t>**Wall thin, smooth or lightly ornamented.</t>
+  </si>
+  <si>
+    <t>**Intercalary.</t>
+  </si>
+  <si>
+    <t>**31 to 56 um. (length), 37 to 80 um. (lateral width), 45 um. (dorsoventral width), 9 to 15 um. (archeopyle height), 14-27 um. (archeopyle width), length of antapical horns (10 to 21 um.)</t>
+  </si>
+  <si>
+    <t>*Zonneveld &amp; Pospelova (2015) **Mertens et al., 2019.</t>
   </si>
 </sst>
 </file>
@@ -3434,8 +3446,8 @@
   <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,13 +3480,13 @@
         <v>181</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>189</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>182</v>
@@ -3503,20 +3515,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3524,10 +3536,10 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,22 +3547,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>360</v>
-      </c>
       <c r="F3" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -3558,10 +3570,10 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3569,22 +3581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -3593,7 +3605,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3601,22 +3613,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>370</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -3625,7 +3637,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3633,22 +3645,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>374</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -3657,7 +3669,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,31 +3677,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,22 +3709,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -3720,10 +3732,10 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3731,22 +3743,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="F9" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>386</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -3755,7 +3767,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,25 +3775,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>784</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="G10" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>785</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>787</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -3789,7 +3801,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,25 +3809,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>790</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>791</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>792</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -3823,7 +3835,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,25 +3843,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="G12" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>796</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>799</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>798</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -3857,31 +3869,31 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>803</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>805</v>
-      </c>
       <c r="H13" s="24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -3889,7 +3901,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3897,25 +3909,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>807</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="G14" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>808</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>809</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>810</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -3923,89 +3935,89 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>815</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>817</v>
-      </c>
       <c r="D15" s="24" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>192</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="M15" s="24" t="s">
         <v>820</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>822</v>
-      </c>
       <c r="N15" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="I16" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="N16" s="24" t="s">
         <v>827</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4013,43 +4025,43 @@
         <v>12</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E17" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="M17" s="24" t="s">
         <v>837</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>840</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>839</v>
-      </c>
       <c r="N17" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4057,23 +4069,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E18" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>831</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>834</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="H18" s="24" t="s">
         <v>833</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>835</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -4081,7 +4093,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4089,37 +4101,37 @@
         <v>14</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D19" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="F19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>771</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>772</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>773</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,23 +4139,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>783</v>
-      </c>
       <c r="F20" s="24" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>197</v>
@@ -4153,7 +4165,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4164,22 +4176,22 @@
         <v>190</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>192</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24" t="s">
@@ -4188,10 +4200,10 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,22 +4214,22 @@
         <v>190</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>192</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24" t="s">
@@ -4227,7 +4239,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,22 +4250,22 @@
         <v>190</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>192</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24" t="s">
@@ -4263,7 +4275,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4274,20 +4286,20 @@
         <v>190</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>192</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24" t="s">
@@ -4297,7 +4309,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4309,17 +4321,17 @@
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>401</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>403</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>192</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24" t="s">
@@ -4329,7 +4341,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4337,83 +4349,83 @@
         <v>21</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D26" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>843</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>845</v>
-      </c>
       <c r="J26" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>190</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="N27" s="24" t="s">
         <v>855</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>853</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>858</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>856</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4421,39 +4433,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>211</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4461,57 +4473,57 @@
         <v>23</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>868</v>
-      </c>
       <c r="F29" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -4519,7 +4531,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4527,25 +4539,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>874</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="G31" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>875</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>873</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>878</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>877</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -4553,7 +4565,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4561,21 +4573,21 @@
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>406</v>
-      </c>
       <c r="D32" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>407</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>212</v>
@@ -4584,10 +4596,10 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4598,13 +4610,13 @@
         <v>190</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D33" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>409</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>411</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -4614,10 +4626,10 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4628,28 +4640,28 @@
         <v>190</v>
       </c>
       <c r="C34" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>417</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4660,18 +4672,18 @@
         <v>190</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -4679,7 +4691,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4690,32 +4702,32 @@
         <v>190</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>297</v>
-      </c>
       <c r="H36" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4726,32 +4738,32 @@
         <v>190</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F37" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>341</v>
-      </c>
       <c r="I37" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4762,22 +4774,22 @@
         <v>190</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E38" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>298</v>
-      </c>
       <c r="H38" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -4785,7 +4797,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,22 +4808,22 @@
         <v>190</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F39" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>313</v>
-      </c>
       <c r="H39" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -4819,7 +4831,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4830,22 +4842,22 @@
         <v>190</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G40" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>327</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>329</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -4853,7 +4865,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,19 +4876,19 @@
         <v>190</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F41" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>301</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>303</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>209</v>
@@ -4887,7 +4899,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,32 +4910,32 @@
         <v>190</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,32 +4946,32 @@
         <v>190</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4967,39 +4979,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>213</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L44" s="24"/>
       <c r="M44" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,28 +5022,28 @@
         <v>190</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5039,21 +5051,21 @@
         <v>39</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>213</v>
@@ -5064,21 +5076,21 @@
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>191</v>
@@ -5089,7 +5101,7 @@
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>213</v>
@@ -5101,7 +5113,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5109,21 +5121,21 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="D48" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>448</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>450</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I48" s="24" t="s">
         <v>213</v>
@@ -5136,10 +5148,10 @@
         <v>217</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5147,39 +5159,39 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C49" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="J49" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>880</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>885</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>884</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>883</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5187,35 +5199,35 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,35 +5235,35 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C51" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>917</v>
       </c>
-      <c r="D51" s="24" t="s">
-        <v>916</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>919</v>
-      </c>
       <c r="F51" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I51" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="J51" s="24" t="s">
         <v>918</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>920</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,43 +5271,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>887</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="D52" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="K52" s="24" t="s">
         <v>889</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>888</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>892</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>884</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>890</v>
-      </c>
-      <c r="K52" s="24" t="s">
+      <c r="L52" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="M52" s="24" t="s">
         <v>891</v>
       </c>
-      <c r="L52" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>893</v>
-      </c>
       <c r="N52" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5303,43 +5315,43 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C53" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="J53" s="24" t="s">
         <v>895</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>894</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>898</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>884</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>896</v>
-      </c>
-      <c r="J53" s="24" t="s">
+      <c r="K53" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="M53" s="24" t="s">
         <v>897</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>899</v>
-      </c>
       <c r="N53" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5347,37 +5359,37 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G54" s="24"/>
       <c r="H54" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5385,35 +5397,35 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D55" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="E55" s="24" t="s">
         <v>906</v>
       </c>
-      <c r="E55" s="24" t="s">
-        <v>908</v>
-      </c>
       <c r="F55" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5421,37 +5433,37 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="25" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -5459,37 +5471,37 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5497,41 +5509,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G58" s="24"/>
       <c r="H58" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,19 +5554,19 @@
         <v>190</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F59" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G59" s="24" t="s">
         <v>315</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>317</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>201</v>
@@ -5565,7 +5577,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,19 +5588,19 @@
         <v>190</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E60" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>323</v>
-      </c>
       <c r="G60" s="24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
@@ -5597,7 +5609,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
       <c r="N60" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5608,19 +5620,19 @@
         <v>190</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>201</v>
@@ -5631,47 +5643,53 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
+      <c r="C62" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2" t="s">
-        <v>198</v>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5680,12 +5698,12 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5693,33 +5711,33 @@
         <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5727,11 +5745,11 @@
         <v>56</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5740,12 +5758,12 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5754,28 +5772,28 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5802,32 +5820,32 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5836,28 +5854,28 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5883,11 +5901,11 @@
         <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -5896,12 +5914,12 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,32 +5927,32 @@
         <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,28 +5979,28 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6027,28 +6045,28 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,11 +6074,11 @@
         <v>69</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -6069,12 +6087,12 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6118,35 +6136,35 @@
         <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6158,7 +6176,7 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
@@ -6182,35 +6200,35 @@
         <v>74</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6237,28 +6255,28 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6266,11 +6284,11 @@
         <v>77</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -6279,12 +6297,12 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6296,7 +6314,7 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -6307,7 +6325,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -6338,35 +6356,35 @@
         <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,18 +6392,18 @@
         <v>81</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
@@ -6401,32 +6419,32 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6434,35 +6452,35 @@
         <v>83</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6472,27 +6490,27 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6521,22 +6539,22 @@
         <v>190</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -6544,7 +6562,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6552,35 +6570,35 @@
         <v>87</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,35 +6606,35 @@
         <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="I97" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,35 +6642,35 @@
         <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="I98" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6660,21 +6678,21 @@
         <v>90</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>191</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
@@ -6690,35 +6708,35 @@
         <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="I100" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6727,32 +6745,32 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6761,32 +6779,32 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="G102" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="I102" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6812,7 +6830,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>196</v>
@@ -6822,11 +6840,11 @@
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -6870,19 +6888,19 @@
         <v>97</v>
       </c>
       <c r="B106" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C106" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="D106" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="F106" s="19" t="s">
         <v>596</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>598</v>
       </c>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
@@ -6892,7 +6910,7 @@
       <c r="L106" s="19"/>
       <c r="M106" s="19"/>
       <c r="N106" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6900,23 +6918,23 @@
         <v>98</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="19"/>
@@ -6926,7 +6944,7 @@
       <c r="L107" s="19"/>
       <c r="M107" s="19"/>
       <c r="N107" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6934,35 +6952,35 @@
         <v>99</v>
       </c>
       <c r="B108" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>586</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>588</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>191</v>
       </c>
       <c r="E108" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="H108" s="19" t="s">
         <v>590</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="G108" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>592</v>
       </c>
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
       <c r="K108" s="19"/>
       <c r="L108" s="19"/>
       <c r="M108" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="109" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6994,21 +7012,21 @@
         <v>101</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -7234,13 +7252,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
@@ -7248,7 +7266,7 @@
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>197</v>
@@ -7266,13 +7284,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
@@ -7280,7 +7298,7 @@
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I120" s="8" t="s">
         <v>197</v>
@@ -7319,36 +7337,36 @@
         <v>190</v>
       </c>
       <c r="C122" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="F122" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H122" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="E122" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>347</v>
-      </c>
       <c r="I122" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J122" s="19"/>
       <c r="K122" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M122" s="19"/>
       <c r="N122" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,33 +7482,33 @@
         <v>120</v>
       </c>
       <c r="B129" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="E129" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="C129" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>644</v>
-      </c>
       <c r="F129" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G129" s="19"/>
       <c r="H129" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
       <c r="L129" s="19"/>
       <c r="M129" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N129" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7516,7 +7534,7 @@
         <v>122</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15" t="s">
@@ -7524,7 +7542,7 @@
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
@@ -7543,38 +7561,38 @@
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="D132" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="E132" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="I132" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="E132" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="F132" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="H132" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="I132" s="19" t="s">
-        <v>638</v>
-      </c>
       <c r="J132" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L132" s="19"/>
       <c r="M132" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7636,37 +7654,37 @@
         <v>127</v>
       </c>
       <c r="B136" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="C136" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="E136" s="19" t="s">
+      <c r="F136" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="G136" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="H136" s="19" t="s">
         <v>653</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="H136" s="19" t="s">
-        <v>655</v>
       </c>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
       <c r="K136" s="19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L136" s="19"/>
       <c r="M136" s="19" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N136" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7675,32 +7693,32 @@
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="E137" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="D137" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="E137" s="19" t="s">
+      <c r="F137" s="19" t="s">
         <v>660</v>
-      </c>
-      <c r="F137" s="19" t="s">
-        <v>662</v>
       </c>
       <c r="G137" s="19"/>
       <c r="H137" s="19" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
       <c r="K137" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L137" s="19"/>
       <c r="M137" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7708,35 +7726,35 @@
         <v>129</v>
       </c>
       <c r="B138" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="C138" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>607</v>
-      </c>
       <c r="E138" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G138" s="19"/>
       <c r="H138" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I138" s="19"/>
       <c r="J138" s="19"/>
       <c r="K138" s="19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L138" s="19"/>
       <c r="M138" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7744,37 +7762,37 @@
         <v>130</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D139" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H139" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="E139" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="F139" s="19" t="s">
+      <c r="I139" s="19" t="s">
         <v>616</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="H139" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="I139" s="19" t="s">
-        <v>618</v>
       </c>
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="19"/>
       <c r="M139" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7783,28 +7801,28 @@
       </c>
       <c r="B140" s="19"/>
       <c r="C140" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="H140" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I140" s="19"/>
       <c r="J140" s="19"/>
       <c r="K140" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L140" s="19"/>
       <c r="M140" s="19"/>
       <c r="N140" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7812,33 +7830,33 @@
         <v>132</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C141" s="19"/>
       <c r="D141" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="E141" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="E141" s="19" t="s">
-        <v>628</v>
-      </c>
       <c r="F141" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G141" s="19"/>
       <c r="H141" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I141" s="19"/>
       <c r="J141" s="19"/>
       <c r="K141" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L141" s="19"/>
       <c r="M141" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7846,15 +7864,15 @@
         <v>133</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C142" s="15"/>
       <c r="D142" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E142" s="15"/>
       <c r="F142" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
@@ -7871,32 +7889,32 @@
       </c>
       <c r="B143" s="19"/>
       <c r="C143" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D143" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="F143" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="E143" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="F143" s="19" t="s">
-        <v>669</v>
-      </c>
       <c r="G143" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J143" s="19"/>
       <c r="K143" s="19"/>
       <c r="L143" s="19"/>
       <c r="M143" s="19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7904,35 +7922,35 @@
         <v>135</v>
       </c>
       <c r="B144" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="F144" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="G144" s="19" t="s">
         <v>677</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>678</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>679</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J144" s="19"/>
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
       <c r="M144" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7940,39 +7958,39 @@
         <v>136</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E145" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="G145" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="F145" s="19" t="s">
+      <c r="H145" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="I145" s="19" t="s">
         <v>685</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="H145" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="I145" s="19" t="s">
-        <v>687</v>
       </c>
       <c r="J145" s="19"/>
       <c r="K145" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L145" s="19"/>
       <c r="M145" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7980,33 +7998,33 @@
         <v>137</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C146" s="19"/>
       <c r="D146" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="E146" s="19" t="s">
-        <v>693</v>
-      </c>
       <c r="F146" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
       <c r="J146" s="19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K146" s="19"/>
       <c r="L146" s="19"/>
       <c r="M146" s="19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8014,39 +8032,39 @@
         <v>138</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C147" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="F147" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="D147" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="E147" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="F147" s="19" t="s">
+      <c r="G147" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="H147" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="I147" s="19" t="s">
         <v>698</v>
-      </c>
-      <c r="G147" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="H147" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="I147" s="19" t="s">
-        <v>700</v>
       </c>
       <c r="J147" s="19"/>
       <c r="K147" s="19" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L147" s="19"/>
       <c r="M147" s="19" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8054,41 +8072,41 @@
         <v>139</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C148" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>711</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="J148" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="D148" s="19" t="s">
-        <v>706</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>712</v>
-      </c>
-      <c r="F148" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="H148" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="I148" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="J148" s="19" t="s">
+      <c r="K148" s="19" t="s">
         <v>707</v>
-      </c>
-      <c r="K148" s="19" t="s">
-        <v>709</v>
       </c>
       <c r="L148" s="19"/>
       <c r="M148" s="19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,21 +8114,21 @@
         <v>140</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E149" s="15"/>
       <c r="F149" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
       <c r="J149" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K149" s="15"/>
       <c r="L149" s="15"/>
@@ -8125,34 +8143,34 @@
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="F150" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="D150" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>722</v>
-      </c>
       <c r="G150" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="H150" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="H150" s="19" t="s">
-        <v>719</v>
-      </c>
       <c r="I150" s="19" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
       <c r="M150" s="19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8160,37 +8178,37 @@
         <v>142</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E151" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="F151" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="F151" s="19" t="s">
-        <v>727</v>
-      </c>
       <c r="G151" s="19" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
       <c r="M151" s="19" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8198,35 +8216,35 @@
         <v>143</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D152" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="F152" s="19" t="s">
         <v>730</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="F152" s="19" t="s">
-        <v>732</v>
       </c>
       <c r="G152" s="19"/>
       <c r="H152" s="19" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
       <c r="K152" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L152" s="19"/>
       <c r="M152" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N152" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8235,34 +8253,34 @@
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="G153" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="D153" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="E153" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="F153" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="G153" s="19" t="s">
-        <v>740</v>
-      </c>
       <c r="H153" s="19" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J153" s="19"/>
       <c r="K153" s="19"/>
       <c r="L153" s="19"/>
       <c r="M153" s="19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8270,41 +8288,41 @@
         <v>145</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C154" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="F154" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="J154" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="D154" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="E154" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="F154" s="19" t="s">
+      <c r="K154" s="19" t="s">
         <v>746</v>
-      </c>
-      <c r="G154" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="I154" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="J154" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="K154" s="19" t="s">
-        <v>748</v>
       </c>
       <c r="L154" s="19"/>
       <c r="M154" s="19" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="155" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8312,23 +8330,23 @@
         <v>146</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K155" s="19"/>
       <c r="L155" s="19"/>
@@ -8342,37 +8360,37 @@
         <v>147</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C156" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="G156" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="D156" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="E156" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="G156" s="19" t="s">
+      <c r="H156" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="I156" s="19" t="s">
         <v>757</v>
-      </c>
-      <c r="H156" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="I156" s="19" t="s">
-        <v>759</v>
       </c>
       <c r="J156" s="19"/>
       <c r="K156" s="19"/>
       <c r="L156" s="19"/>
       <c r="M156" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8380,33 +8398,33 @@
         <v>148</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D157" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="F157" s="19" t="s">
         <v>761</v>
-      </c>
-      <c r="E157" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>763</v>
       </c>
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
       <c r="I157" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J157" s="19"/>
       <c r="K157" s="19"/>
       <c r="L157" s="19"/>
       <c r="M157" s="19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8414,27 +8432,27 @@
         <v>149</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -8484,17 +8502,17 @@
         <v>152</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -8588,20 +8606,20 @@
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F166" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
@@ -8618,18 +8636,18 @@
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
@@ -8642,24 +8660,24 @@
         <v>159</v>
       </c>
       <c r="B168" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
@@ -8674,11 +8692,11 @@
         <v>160</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
@@ -8788,7 +8806,7 @@
         <v>166</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="8" t="s">
@@ -8796,11 +8814,11 @@
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
@@ -8838,7 +8856,7 @@
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
@@ -8847,7 +8865,7 @@
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
@@ -8990,11 +9008,11 @@
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E185" s="8"/>
       <c r="F185" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
@@ -9016,11 +9034,11 @@
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E186" s="8"/>
       <c r="F186" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$180</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="997">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -200,21 +200,12 @@
     <t>Lejeunecysta attenuata</t>
   </si>
   <si>
-    <t>Lejeunecysta beinenensis</t>
-  </si>
-  <si>
     <t>Lejeunecysta catomus</t>
   </si>
   <si>
-    <t>Lejeunecysta cinctoria</t>
-  </si>
-  <si>
     <t>Lejeunecysta communis</t>
   </si>
   <si>
-    <t>Lejeunecysta convexa</t>
-  </si>
-  <si>
     <t>Lejeunecysta cowiei</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>Lejeunecysta granosa</t>
   </si>
   <si>
-    <t>Lejeunecysta hatterasensis</t>
-  </si>
-  <si>
     <t>Lejeunecysta hyalina</t>
   </si>
   <si>
@@ -242,9 +230,6 @@
     <t>Lejeunecysta lata</t>
   </si>
   <si>
-    <t>Lejeunecysta longistriatum</t>
-  </si>
-  <si>
     <t>Lejeunecysta marieae</t>
   </si>
   <si>
@@ -254,9 +239,6 @@
     <t>Lejeunecysta paratenella</t>
   </si>
   <si>
-    <t>Lejeunecysta  psuchra</t>
-  </si>
-  <si>
     <t>Lejeunecysta pulchra</t>
   </si>
   <si>
@@ -264,9 +246,6 @@
   </si>
   <si>
     <t>Lejeunecysta sabrina</t>
-  </si>
-  <si>
-    <t>Lejeunecysta striaospinosum</t>
   </si>
   <si>
     <t>Lingulodinium machaerophorum</t>
@@ -1481,45 +1460,9 @@
     <t>*Dark brown</t>
   </si>
   <si>
-    <t>*Well expressed.</t>
-  </si>
-  <si>
-    <t>*Deflandroid. Apical horn pointed. Lateral horns small to absent. Antapical horns separated, pointed.</t>
-  </si>
-  <si>
     <t>*Beige</t>
   </si>
   <si>
-    <t>*Rhomboidal. Apical horn small solid tip. Lateral horn small solid tips. Antapical horns small solid tip, connected.</t>
-  </si>
-  <si>
-    <t>*Not expressed.</t>
-  </si>
-  <si>
-    <t>*Deflandroid. Apical horn hollow, very pointed. Lateral horns absent. Antapical horns closely spaced together, connected.</t>
-  </si>
-  <si>
-    <t>*Well expressed</t>
-  </si>
-  <si>
-    <t>*Rounded. Apical horn rounded. Lateral horns rounded. Antapical horns rounded and connected.</t>
-  </si>
-  <si>
-    <t>*Not expressed</t>
-  </si>
-  <si>
-    <t>*Deflandroid. Apical horn relatively long, solid tip. Lateral horns absent. Antapical horns separated, slender, pointed.</t>
-  </si>
-  <si>
-    <t>*Very wide.</t>
-  </si>
-  <si>
-    <t>*Rhomboidal. Apical horn small solid tips. Lateral horns small solid tips. Antapical horns small solid tip, disconnected. Pentagonal outline.</t>
-  </si>
-  <si>
-    <t>*Involves an iso- to slighltly lati-deltaform second intercalary plate that is often adnate.</t>
-  </si>
-  <si>
     <t>*Only indicated by the archeopyle.</t>
   </si>
   <si>
@@ -1610,27 +1553,9 @@
     <t>*Premaor, 2016</t>
   </si>
   <si>
-    <t xml:space="preserve">*Cavate of pentagonal outline, dorsoventrally compression. Symmetric epicyst and hypocyst. Short apical horns, short and symmetric antapical horns. </t>
-  </si>
-  <si>
-    <t>*Finely scabrate to smooth</t>
-  </si>
-  <si>
-    <t>*Ornamented by short spinules.</t>
-  </si>
-  <si>
-    <t>Spinules: 0.5 to 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Cavate of pentagonal outline, dorsoventrally compression. Symmetric epicyst and hypocyst.Conic epicyst with trapezoidal hypocyst. Short apical horns, solid distal tips. Short and symmetric antapical horns with solid distal tips. Large antapical depression </t>
   </si>
   <si>
-    <t>57 (W) x 60 (L)</t>
-  </si>
-  <si>
-    <t>72 (W) x 66 (L)</t>
-  </si>
-  <si>
     <t>86 (W) x 76 (L)</t>
   </si>
   <si>
@@ -1638,12 +1563,6 @@
   </si>
   <si>
     <t>*Cavate with outline rounded, pentagonal with dorsoventral compression, epicyst rounded with apical boss, hypocyst and epicyst symmetric. Antpical horns, two. Depression antapical absent.</t>
-  </si>
-  <si>
-    <t>*Smooth to finely granulated.</t>
-  </si>
-  <si>
-    <t>*43 to 81 (W) x 51 to 74 (L)</t>
   </si>
   <si>
     <t>*Cavate with subpentagonal outline with dorsoventral compression. Round, symmetric epicyst and hypocyst, short apical horn and short antapical horns. Large antapical depression.</t>
@@ -2956,12 +2875,255 @@
   <si>
     <t>*Zonneveld &amp; Pospelova (2015) **Mertens et al., 2019.</t>
   </si>
+  <si>
+    <t>*Deflandroid. Apical horn pointed. Lateral horns small to absent. Antapical horns separated, pointed. **Sub pentagonal with very angular aspect. Epicyst are slightly convex to slightly concave, those of the hypocyst are straight to concave.</t>
+  </si>
+  <si>
+    <t>**Thin. Distinctive granulate. Strong, straight, longitudinal thickenings run from the cingulum to the apex and to the antapex on both the dorsal and ventral surfaces of the cyst.</t>
+  </si>
+  <si>
+    <t>**Intercalary, 2a, isodeltaform. Operculum always attached at the posterior edge, being only slightly dislodged within the archeopyle margin.</t>
+  </si>
+  <si>
+    <t>**Indicated only by the archeopyle, cingulum, sometimes sulcus.</t>
+  </si>
+  <si>
+    <t>*Well expressed. **Delineated by well-developed and aligned folds in the cyst wall.</t>
+  </si>
+  <si>
+    <t>**Often marked by a shallow depression on the ventrael surface of the hypocyst.</t>
+  </si>
+  <si>
+    <t>**53 to 116 um (length), 61 to 109 um. (width), 15 to 36 um. (archeopyle length), 22 to 41 um. (archeopyle width).</t>
+  </si>
+  <si>
+    <t>**Very angular, pentagonal shape, acuminate antapical horns with solid tips. Granulate sculpturing, and strong, straight folds.</t>
+  </si>
+  <si>
+    <t>*Bijl et al., 2017 **Clowes et al., 2016</t>
+  </si>
+  <si>
+    <t>**Thin, smooth, usually with scattered folds, wrinkles, or lineations. Apical horn is relatively long and tapered whereas the antapical horns are scarcely developed and represented usually by a solid papilla at each end of the flat base approximately 20 um. wide.</t>
+  </si>
+  <si>
+    <t>*Deflandroid. Apical horn hollow, very pointed. Lateral horns absent. Antapical horns closely spaced together, connected.  **Elongate pentagonal, epicyst generally somewhat longer than hypocyst. Sides of both cyst are concave. Apex is pointed whereas the antapex is blunt with a relatively narrow flat base.</t>
+  </si>
+  <si>
+    <t>**Intercalary, 2a, difficult to observe. Apparently narrow and elongate.</t>
+  </si>
+  <si>
+    <t>*Well expressed. **Faintly prominent and marked by a smooth membranous fold or folds in the autophragm on both the dorsal and ventral surfaces.</t>
+  </si>
+  <si>
+    <t>**103 to 127 um. (length), 46 to 78 um. (width).</t>
+  </si>
+  <si>
+    <t>**Marked on the ventral surface by a break in the cingular fold and usually bordered by a faint lineation.</t>
+  </si>
+  <si>
+    <t>**By its elongate attenuated shape, concave margins and narrow blunt antapex.</t>
+  </si>
+  <si>
+    <t>*Deflandroid. Apical horn relatively long, solid tip. Lateral horns absent. Antapical horns separated, slender, pointed. **Prominente apical horn.</t>
+  </si>
+  <si>
+    <t>*Very wide. **Frequent cingular folding.</t>
+  </si>
+  <si>
+    <t>**60 to 80 um. (length), 70 to 100 um. (width)</t>
+  </si>
+  <si>
+    <t>**In possessing a conspicuously inflated epicyst with strongly convex sides widening to the cingulum, usually making the cyst markedly wider than long. Epitract and hypotract are approximately equal in height.</t>
+  </si>
+  <si>
+    <t>*Rhomboidal. Apical horn small solid tip. Lateral horn small solid tips. Antapical horns small solid tip, connected. **Pentagonal to subrounded, relatively shortened and extremely broad, so that polar orientations are as common as dorso-ventral, epicys and hypocys approximately equal in height. Shallow posterior concavity etween antapical horns. The sides of the epicyst are straight to slightly convex.</t>
+  </si>
+  <si>
+    <t>**Thin (&lt;1 to 1.5 um.), smooth and devoid of sculpturing.</t>
+  </si>
+  <si>
+    <t>**Intercalary, 2a, iso to eurydeltaform and tipically quite rounded.</t>
+  </si>
+  <si>
+    <t>**Only indicated by the archeopyle, cingulum and sometimes sulcus.</t>
+  </si>
+  <si>
+    <t>*Not expressed. **Strongly marked by parallel smooth folds. Slight excavation is sometimes visible.</t>
+  </si>
+  <si>
+    <t>**Visible in polar view.</t>
+  </si>
+  <si>
+    <t>**58 to 96 um. (length), 74 to 118 um. (width). 20 to 30 um. (archeopyle length) 28 to 42 um. (archeopyle width).</t>
+  </si>
+  <si>
+    <t>**Large size and broad aspect, distinguish it from other L. species. L. katatonos is wider than tall (than L. globosa)..</t>
+  </si>
+  <si>
+    <t>**Thin. Scabrate to verrucate, with sculptural elements ranging in size from 1 to 2 um. both in diameter and elevation above the cyst surface.</t>
+  </si>
+  <si>
+    <t>*Rounded. Apical horn rounded. Lateral horns rounded. Antapical horns rounded and connected. **Subcircular to elliptical or sub-pentagonal. Epicyst sides are convex, whereas those of the hypocyst are slightly concave to convex. Horns: Short, well rounded, and broad-based apical and antapical horns are usually present, but may be so poorly developed that the cysts are nearly circular in shape.</t>
+  </si>
+  <si>
+    <t>*Dark brown **Dark papilla may be present on tip of each horn.</t>
+  </si>
+  <si>
+    <t>**Intercalary, 2a, iso-to slightly eurydeltaform.</t>
+  </si>
+  <si>
+    <t>**Inidicated only by the archeopyle, cingulum and sometimes a visible sulcus.</t>
+  </si>
+  <si>
+    <t>*Not expressed. **Partially delineated by aligned sculptural elements and short folds in the cyst wall.</t>
+  </si>
+  <si>
+    <t>**60 to 95 um. (length), 65 to 90 um. (width), 12 to 15 um. (archeopyle length), 19 to 27 um. (archeopyle width).</t>
+  </si>
+  <si>
+    <t>**Generally well rounded, rotund outline, poorly developed apical and tntapical horns, and dsitinctive scabrate to verrucate or pustulate surface sculpture. L. epidoma have distinct surface. L. diversiforma and hyalina are simillar, but its sculpturing differs from these species. L. diversiforma has a smooth to microgranular or striate autophragm. L hyalina bears distinctive thin vertical folds and fine granules.</t>
+  </si>
+  <si>
+    <t>*Thin and psilate.</t>
+  </si>
+  <si>
+    <t>*Rhomboidal. Apical horn small solid tips. Lateral horns small solid tips. Antapical horns small solid tip, disconnected. Pentagonal outline. Antapex characterised by two separate, relatively long, slender horns that distally taper into a pointed tip. Wall of these pointed tips is thicker, with solid ends of horns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Involves an iso- to slighltly lati-deltaform second intercalary plate that is often adnate. </t>
+  </si>
+  <si>
+    <t>*Not expressed. Marked by a set of parallel flanges along the lateral sides of the cysts, yet is absent on the dorsal and ventral sides.</t>
+  </si>
+  <si>
+    <t>Lejeunecysta beninensis</t>
+  </si>
+  <si>
+    <t>*Premaor, 2016 **Biffi 1983</t>
+  </si>
+  <si>
+    <t>**Differs from L. diversiforma in having the epicyst tipically smaller than the hypocyst and having the antapical horns always very short, conical and sometimes ending in a sharp, solid spine.</t>
+  </si>
+  <si>
+    <t>*Light to dark brown.</t>
+  </si>
+  <si>
+    <t>*Ovoidal to pentagontal, peridinioid cyst of autophragm, with some thickeing at the apex and atntapex. Epicyst hemispheroidal with a prominent rounded apex and low to high, rounded shoulders that delineate the apical area. Hypocyst spheroidal, but not generally as large as the epicyst, with two antapical horns the left of which is usually the larger. Horns are variable in morphology from being low, rounded to conspicuously shouldered high rounded to actue cones., apical tongue present.</t>
+  </si>
+  <si>
+    <t>*70 um. (length), 64 um. (breadth).</t>
+  </si>
+  <si>
+    <t>*Enlarged standard hexa, loss of the 2a paraplate.</t>
+  </si>
+  <si>
+    <t>*Harland 1991</t>
+  </si>
+  <si>
+    <t>*By its consistently developed shoulders and broad paracingulum.</t>
+  </si>
+  <si>
+    <t>*Hexa (2a), free operculum</t>
+  </si>
+  <si>
+    <t>**Differs from L. fallax in having a thinner autocyst wall, hypocyst sides slightly concave rather than straight, a distinct apical horn, and the epicyst and hypocyst length approximately equal. L. communis never has pericoels. Differs from L. diversiforma in having a distinct apical horn and straight rather than convex epicyst sides.</t>
+  </si>
+  <si>
+    <t>*57 (W) x 60 (L)/**81 x 80/60-95 x 50-85</t>
+  </si>
+  <si>
+    <t>*Biffi, 1983</t>
+  </si>
+  <si>
+    <t>*Differs from L. hyalina in having a epicyst which is generally somewhat longer than the hypocyst, wheras in L. hyalina it is equal or somewhat shorter, and in lacking the characteristic longitudinal striations of L. hyalina. Epicyst sides are slightly concave in L. fallax and slightly convex in L. hyalina.            Difffers from L. acuminata in having a smooth rather than granulate wall, blunter apical horn and less well developed spines on the antapical horns. Being generally smaller than L. acuminata.</t>
+  </si>
+  <si>
+    <t>*Compressed dorsoventrally with pentagonal ambitus. Apex acuminate. Two antapical horns short, conical, pointed to slightly rounded. Antapical depression shallow.</t>
+  </si>
+  <si>
+    <t>*Covered with low granules.</t>
+  </si>
+  <si>
+    <t>*Indented, expressed by two transverse, echinate ridges. Sometimes this area is slightly inflated.</t>
+  </si>
+  <si>
+    <t>*When evident, marked by absence of ornamentation.</t>
+  </si>
+  <si>
+    <t>*Hexa archeopyle formed by loss of intercalary 2a, symmetrically situated on middorsal line, extending almost to paracingulum.</t>
+  </si>
+  <si>
+    <t>*85 um. (length), 94 um. (breadth).</t>
+  </si>
+  <si>
+    <t>*Differs from L. spatiosa in having a paracingulum bordered by two rows of spinules. Similar to L. lata but the presence of the ornamentation features and the echinate paracingulum are sufficient to separate the two species.</t>
+  </si>
+  <si>
+    <t>*Smooth to finely granulated. **Smooth, slightly punctate</t>
+  </si>
+  <si>
+    <t>**Continuous, marked by transverse folds.</t>
+  </si>
+  <si>
+    <t>*43 to 81 (W) x 51 to 74 (L)//**68 x 67 um. (L x W)</t>
+  </si>
+  <si>
+    <t>**Characterized by its rounded pentagonal ambitus by having two antapical protrusions rather than two developed antapical horns, and does not resemble any other described species.</t>
+  </si>
+  <si>
+    <t>*Compressed dorsoventrally with pentagonal ambitus. Epicyst and hypocyst lengths approximately equal. Epicyst conical, with rounded to slightly acuminate apex. Hypocyst trapezoidal with two short, pointed antapical horns. Antapical depression low. Cyst sides straight to slightly convex.</t>
+  </si>
+  <si>
+    <t>*Laevigate</t>
+  </si>
+  <si>
+    <t>*Continuous, expressed by two transverse parallel ridges, sometimes slightly denticular.</t>
+  </si>
+  <si>
+    <t>**Hexa archeopyle (2a)</t>
+  </si>
+  <si>
+    <t>*109 um. x 128 um. (L x W)</t>
+  </si>
+  <si>
+    <t>*Differs from L. spatitosa in having a laevigate autphragm. From L. fallax in having shorter antapical horns, a low antapical depression, the epicyst-hypocyst lengths approximately equal and in being larger in size. L. hyalina differs in having a wide deeply excavate paracingulum and a prominent apical horn. Larger</t>
+  </si>
+  <si>
+    <t>*Biffi 1983</t>
+  </si>
+  <si>
+    <t>*Smooth **Laevigate</t>
+  </si>
+  <si>
+    <t>**More or less marked by transverse folds, paracingular crests absent.</t>
+  </si>
+  <si>
+    <t>**L communis in having convex rather than straight epicyst sides, shorter antapical horns and in being relatively more elongate. Differs from L. diversifoma in having a more distinct apical horn in being more elongate with the epicyst flanks strongly convex and the hypocyst flanks concave. Pericoel has never been observed.</t>
+  </si>
+  <si>
+    <t>**Wall thin, smooth.</t>
+  </si>
+  <si>
+    <t>*Cingulum reflected. **Thickened ridges marking a narrow excavated circular cingulm.</t>
+  </si>
+  <si>
+    <t>**Intercalary elongated posterior/anteriorly</t>
+  </si>
+  <si>
+    <t>*Peridinioid cyst form. Antapical and apical protrusions have thickened wall. No striae present. **With two pointed solid tipped antapical horns.</t>
+  </si>
+  <si>
+    <t>**By its small cingulum, thickened wall, at the apical horn and two antapical horns. Cingulum depressed. Has smooth rather than denticular cingular ridges of L paratenella. No spines, ridges or striae are present on the cyst wall.</t>
+  </si>
+  <si>
+    <t>*Indiscirneble.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3016,6 +3178,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3080,7 +3258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3162,6 +3340,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3443,19 +3627,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="63.85546875" style="9" customWidth="1"/>
     <col min="7" max="9" width="30.7109375" style="9" customWidth="1"/>
@@ -3468,46 +3652,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3515,20 +3699,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3536,10 +3720,10 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3547,22 +3731,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -3570,10 +3754,10 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,22 +3765,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -3605,7 +3789,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3613,22 +3797,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -3637,7 +3821,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,22 +3829,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -3669,7 +3853,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,31 +3861,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3709,22 +3893,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E8" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>377</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>384</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -3732,10 +3916,10 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3743,22 +3927,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -3767,7 +3951,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3775,25 +3959,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>782</v>
+        <v>755</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>783</v>
+        <v>756</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>786</v>
+        <v>759</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>787</v>
+        <v>760</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>785</v>
+        <v>758</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -3801,7 +3985,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3809,25 +3993,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>782</v>
+        <v>755</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>788</v>
+        <v>761</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>791</v>
+        <v>764</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>789</v>
+        <v>762</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>792</v>
+        <v>765</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -3835,7 +4019,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3843,25 +4027,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>793</v>
+        <v>766</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>794</v>
+        <v>767</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>795</v>
+        <v>768</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>796</v>
+        <v>769</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -3869,31 +4053,31 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>801</v>
+        <v>774</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -3901,7 +4085,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3909,25 +4093,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -3935,89 +4119,89 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4025,43 +4209,43 @@
         <v>12</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>838</v>
+        <v>811</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,23 +4253,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -4093,7 +4277,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4101,37 +4285,37 @@
         <v>14</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>768</v>
+        <v>741</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>774</v>
+        <v>747</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24" t="s">
-        <v>775</v>
+        <v>748</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>776</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4139,33 +4323,33 @@
         <v>15</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>779</v>
+        <v>752</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>781</v>
+        <v>754</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>778</v>
+        <v>751</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24" t="s">
-        <v>780</v>
+        <v>753</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24" t="s">
-        <v>776</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,37 +4357,37 @@
         <v>16</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,35 +4395,35 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G22" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>391</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4247,35 +4431,35 @@
         <v>18</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4283,33 +4467,33 @@
         <v>19</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4317,31 +4501,31 @@
         <v>20</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4349,83 +4533,83 @@
         <v>21</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>846</v>
+        <v>819</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>856</v>
+        <v>829</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,39 +4617,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>857</v>
+        <v>830</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>862</v>
+        <v>835</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>859</v>
+        <v>832</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24" t="s">
-        <v>860</v>
+        <v>833</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4473,57 +4657,57 @@
         <v>23</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24" t="s">
-        <v>864</v>
+        <v>837</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24" t="s">
-        <v>867</v>
+        <v>840</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>868</v>
+        <v>841</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -4531,7 +4715,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4539,25 +4723,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -4565,7 +4749,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,33 +4757,33 @@
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4607,16 +4791,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -4626,10 +4810,10 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4637,31 +4821,31 @@
         <v>27</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4669,21 +4853,21 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -4691,7 +4875,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4699,35 +4883,35 @@
         <v>29</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4735,35 +4919,35 @@
         <v>30</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,25 +4955,25 @@
         <v>31</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -4797,7 +4981,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,25 +4989,25 @@
         <v>32</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -4831,7 +5015,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4839,25 +5023,25 @@
         <v>33</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -4865,7 +5049,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4873,25 +5057,25 @@
         <v>34</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -4899,7 +5083,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,35 +5091,35 @@
         <v>35</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4943,35 +5127,35 @@
         <v>36</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,39 +5163,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L44" s="24"/>
       <c r="M44" s="24" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5019,31 +5203,31 @@
         <v>38</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5051,69 +5235,69 @@
         <v>39</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J46" s="24"/>
       <c r="K46" s="24" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="24" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J47" s="24"/>
       <c r="K47" s="24" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5121,37 +5305,37 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J48" s="24"/>
       <c r="K48" s="24" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5159,39 +5343,39 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,35 +5383,35 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5235,35 +5419,35 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>914</v>
+        <v>887</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>917</v>
+        <v>890</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>918</v>
+        <v>891</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,43 +5455,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>886</v>
+        <v>859</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>888</v>
+        <v>861</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="M52" s="24" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5315,43 +5499,43 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>893</v>
+        <v>866</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>892</v>
+        <v>865</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>894</v>
+        <v>867</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5359,37 +5543,37 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>898</v>
+        <v>871</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>902</v>
+        <v>875</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G54" s="24"/>
       <c r="H54" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>900</v>
+        <v>873</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>901</v>
+        <v>874</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24" t="s">
-        <v>903</v>
+        <v>876</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5397,35 +5581,35 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,37 +5617,37 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>912</v>
+        <v>885</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24" t="s">
-        <v>913</v>
+        <v>886</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="25" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,37 +5655,37 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>925</v>
+        <v>898</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>927</v>
+        <v>900</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24" t="s">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5509,41 +5693,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>929</v>
+        <v>902</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G58" s="24"/>
       <c r="H58" s="24" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>932</v>
+        <v>905</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>933</v>
+        <v>906</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>936</v>
+        <v>909</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5551,25 +5735,25 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
@@ -5577,7 +5761,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5585,22 +5769,22 @@
         <v>52</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
@@ -5609,7 +5793,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
       <c r="N60" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,25 +5801,25 @@
         <v>53</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -5643,7 +5827,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5651,1169 +5835,1347 @@
         <v>54</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>941</v>
+        <v>914</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="L63" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="M63" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="N63" s="24" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24" t="s">
+        <v>954</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="N64" s="24" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="N65" s="24" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="N66" s="24" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="25" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="N67" s="24" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>967</v>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="N68" s="24" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="N69" s="24" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="F70" s="24"/>
+      <c r="H70" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="L70" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="25" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24" t="s">
+        <v>969</v>
+      </c>
+      <c r="N71" s="24" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="29" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28" t="s">
+        <v>977</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>979</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28" t="s">
+        <v>978</v>
+      </c>
+      <c r="L72" s="28"/>
+      <c r="M72" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="N72" s="28" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="M73" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="N73" s="24" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="E75" s="24" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="L75" s="24" t="s">
+        <v>941</v>
+      </c>
+      <c r="M75" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="N75" s="24" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>981</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="N76" s="24" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="L77" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24" t="s">
+        <v>992</v>
+      </c>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24" t="s">
+        <v>995</v>
+      </c>
+      <c r="N78" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K79" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-    </row>
-    <row r="68" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-    </row>
-    <row r="71" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="80" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24" t="s">
+        <v>988</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="H72" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-    </row>
-    <row r="74" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-    </row>
-    <row r="76" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-    </row>
-    <row r="77" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-    </row>
-    <row r="80" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="I80" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="N80" s="24" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="25" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-    </row>
-    <row r="81" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="N81" s="24" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2" t="s">
+      <c r="B82" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2" t="s">
-        <v>198</v>
+      <c r="E82" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>475</v>
+        <v>234</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="H83" s="2" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="I83" s="2"/>
-      <c r="J83" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>477</v>
-      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="M83" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="N83" s="2" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
+      <c r="F84" s="15" t="s">
+        <v>269</v>
+      </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
+      <c r="I84" s="15" t="s">
+        <v>270</v>
+      </c>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
+      <c r="N84" s="15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="85" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
-        <v>499</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
+      <c r="M85" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="N85" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="D86" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="M86" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="N86" s="2" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>221</v>
+        <v>518</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="I87" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="J87" s="2"/>
-      <c r="K87" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
+      <c r="M87" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="N87" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
     </row>
     <row r="89" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>519</v>
+        <v>285</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>522</v>
+        <v>184</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>521</v>
+        <v>325</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>523</v>
+        <v>326</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="2"/>
+      <c r="N89" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="N89" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15" t="s">
-        <v>198</v>
+      <c r="I90" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="C91" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2" t="s">
-        <v>530</v>
-      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>537</v>
+        <v>244</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>535</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="2" t="s">
-        <v>534</v>
-      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2" t="s">
+      <c r="G94" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
+      <c r="I94" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="95" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>292</v>
+        <v>552</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>308</v>
+        <v>544</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>307</v>
+        <v>556</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I95" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
-        <v>290</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="I96" s="2" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+    </row>
+    <row r="98" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="B98" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="C102" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="D102" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="F102" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="G102" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="N102" s="19" t="s">
         <v>560</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B103" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="D103" s="15" t="s">
+        <v>212</v>
+      </c>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
@@ -6823,28 +7185,30 @@
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
+      <c r="N103" s="15" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="104" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -6852,27 +7216,27 @@
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
       <c r="N104" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C105" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="D105" s="8" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
-        <v>203</v>
-      </c>
+      <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
@@ -6880,282 +7244,264 @@
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="G107" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="H107" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="D108" s="19" t="s">
+      <c r="B109" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E108" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="G108" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="H108" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="N108" s="19" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+    </row>
+    <row r="110" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="8" t="s">
-        <v>256</v>
-      </c>
+      <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
-      <c r="N110" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I112" s="8"/>
-      <c r="J112" s="8" t="s">
-        <v>194</v>
-      </c>
+      <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
       <c r="N112" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="H113" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
+      <c r="H114" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
+      <c r="N114" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="115" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -7163,233 +7509,193 @@
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
-      <c r="N115" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="N115" s="8"/>
+    </row>
+    <row r="116" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G116" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="L116" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+    </row>
+    <row r="118" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+    </row>
+    <row r="119" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+    </row>
+    <row r="120" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+    </row>
+    <row r="121" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+    </row>
+    <row r="122" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+    </row>
+    <row r="123" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="I122" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="L122" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
+      <c r="B123" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="N123" s="19" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="124" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -7407,13 +7713,19 @@
     </row>
     <row r="125" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
+      <c r="D125" s="15" t="s">
+        <v>213</v>
+      </c>
       <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
+      <c r="F125" s="15" t="s">
+        <v>233</v>
+      </c>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
@@ -7421,29 +7733,53 @@
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
       <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-    </row>
-    <row r="126" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
+      <c r="N125" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="J126" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="K126" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="N126" s="19" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="127" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -7461,7 +7797,7 @@
     </row>
     <row r="128" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -7477,993 +7813,957 @@
       <c r="M128" s="15"/>
       <c r="N128" s="15"/>
     </row>
-    <row r="129" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+    <row r="129" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+    </row>
+    <row r="130" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="F129" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="N129" s="19" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="B130" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="N130" s="19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-    </row>
-    <row r="131" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15" t="s">
-        <v>198</v>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="N131" s="19" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="132" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B132" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>576</v>
+      </c>
       <c r="C132" s="19" t="s">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>633</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="G132" s="19"/>
       <c r="H132" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="I132" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="J132" s="19" t="s">
-        <v>631</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
       <c r="K132" s="19" t="s">
-        <v>630</v>
+        <v>579</v>
       </c>
       <c r="L132" s="19"/>
       <c r="M132" s="19" t="s">
-        <v>639</v>
+        <v>584</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H133" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="N133" s="19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-    </row>
-    <row r="134" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
+      <c r="B134" s="19"/>
+      <c r="C134" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-    </row>
-    <row r="135" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="B135" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="N135" s="19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
-    </row>
-    <row r="136" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="F136" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="H136" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="N136" s="19" t="s">
-        <v>654</v>
-      </c>
+      <c r="B136" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
     </row>
     <row r="137" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="19" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="I137" s="19"/>
+        <v>640</v>
+      </c>
+      <c r="G137" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19" t="s">
+        <v>636</v>
+      </c>
       <c r="J137" s="19"/>
-      <c r="K137" s="19" t="s">
-        <v>659</v>
-      </c>
+      <c r="K137" s="19"/>
       <c r="L137" s="19"/>
       <c r="M137" s="19" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>604</v>
+        <v>648</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="I138" s="19"/>
+        <v>649</v>
+      </c>
+      <c r="G138" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19" t="s">
+        <v>644</v>
+      </c>
       <c r="J138" s="19"/>
-      <c r="K138" s="19" t="s">
-        <v>606</v>
-      </c>
+      <c r="K138" s="19"/>
       <c r="L138" s="19"/>
       <c r="M138" s="19" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>584</v>
+        <v>234</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>292</v>
+        <v>652</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>612</v>
+        <v>653</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>306</v>
+        <v>655</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="I139" s="19" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
+      <c r="K139" s="19" t="s">
+        <v>659</v>
+      </c>
       <c r="L139" s="19"/>
       <c r="M139" s="19" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19" t="s">
-        <v>620</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19" t="s">
-        <v>622</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G140" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="H140" s="19"/>
       <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19" t="s">
-        <v>619</v>
-      </c>
+      <c r="J140" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="K140" s="19"/>
       <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
+      <c r="M140" s="19" t="s">
+        <v>666</v>
+      </c>
       <c r="N140" s="19" t="s">
-        <v>411</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="C141" s="19"/>
+        <v>234</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>667</v>
+      </c>
       <c r="D141" s="19" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G141" s="19"/>
+        <v>669</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>674</v>
+      </c>
       <c r="H141" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="I141" s="19"/>
+        <v>672</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>671</v>
+      </c>
       <c r="J141" s="19"/>
       <c r="K141" s="19" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="L141" s="19"/>
       <c r="M141" s="19" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="F142" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="J142" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="K142" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="N142" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B142" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
-    </row>
-    <row r="143" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="E143" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="F143" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="G143" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="N143" s="19" t="s">
-        <v>669</v>
+      <c r="B143" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>670</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B144" s="19"/>
       <c r="C144" s="19" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="H144" s="19"/>
+        <v>688</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>690</v>
+      </c>
       <c r="I144" s="19" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="J144" s="19"/>
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
       <c r="M144" s="19" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>684</v>
+        <v>278</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="H145" s="19" t="s">
-        <v>687</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="H145" s="19"/>
       <c r="I145" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19" t="s">
-        <v>686</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="J145" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="K145" s="19"/>
       <c r="L145" s="19"/>
       <c r="M145" s="19" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C146" s="19"/>
+        <v>234</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>702</v>
+      </c>
       <c r="D146" s="19" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G146" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H146" s="19"/>
+        <v>703</v>
+      </c>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19" t="s">
+        <v>705</v>
+      </c>
       <c r="I146" s="19"/>
-      <c r="J146" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="K146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19" t="s">
+        <v>704</v>
+      </c>
       <c r="L146" s="19"/>
       <c r="M146" s="19" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>241</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B147" s="19"/>
       <c r="C147" s="19" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="J147" s="19"/>
-      <c r="K147" s="19" t="s">
-        <v>697</v>
-      </c>
+      <c r="K147" s="19"/>
       <c r="L147" s="19"/>
       <c r="M147" s="19" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="J148" s="19" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="K148" s="19" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="L148" s="19"/>
       <c r="M148" s="19" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-      <c r="N149" s="15" t="s">
-        <v>198</v>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B150" s="19"/>
+        <v>140</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>234</v>
+      </c>
       <c r="C150" s="19" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
       <c r="M150" s="19" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>716</v>
+        <v>646</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>285</v>
+        <v>732</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="G151" s="19" t="s">
-        <v>724</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="G151" s="19"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="J151" s="19" t="s">
-        <v>284</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="J151" s="19"/>
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
       <c r="M151" s="19" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B152" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="F152" s="19" t="s">
-        <v>730</v>
-      </c>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="N152" s="19" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+    </row>
+    <row r="154" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="E153" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="F153" s="19" t="s">
-        <v>741</v>
-      </c>
-      <c r="G153" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="H153" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="I153" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="N153" s="19" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+    </row>
+    <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B154" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="E154" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="F154" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="G154" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="I154" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="J154" s="19" t="s">
-        <v>745</v>
-      </c>
-      <c r="K154" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="N154" s="19" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
+      <c r="B155" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B155" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D155" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="18" t="s">
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
+    </row>
+    <row r="157" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="E156" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="G156" s="19" t="s">
-        <v>755</v>
-      </c>
-      <c r="H156" s="19" t="s">
-        <v>751</v>
-      </c>
-      <c r="I156" s="19" t="s">
-        <v>757</v>
-      </c>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="N156" s="19" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>759</v>
-      </c>
-      <c r="E157" s="19" t="s">
-        <v>763</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>761</v>
-      </c>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19" t="s">
-        <v>764</v>
-      </c>
-      <c r="N157" s="19" t="s">
-        <v>673</v>
-      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
     </row>
     <row r="158" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>274</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
-      <c r="I158" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="J158" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
-      <c r="N158" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="N158" s="8"/>
     </row>
     <row r="159" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -8481,75 +8781,105 @@
     </row>
     <row r="160" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B160" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
+      <c r="D160" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
+      <c r="K160" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
-      <c r="N160" s="8"/>
+      <c r="N160" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="161" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>281</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C161" s="8"/>
       <c r="D161" s="8" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
+      <c r="K161" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
       <c r="N161" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
+      <c r="F162" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
+      <c r="H162" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
-      <c r="N162" s="8"/>
+      <c r="N162" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="163" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B163" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+      <c r="D163" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
@@ -8559,11 +8889,13 @@
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
+      <c r="N163" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="164" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -8581,7 +8913,7 @@
     </row>
     <row r="165" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -8599,121 +8931,89 @@
     </row>
     <row r="166" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
-      <c r="K166" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="8"/>
-      <c r="N166" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="N166" s="8"/>
     </row>
     <row r="167" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B167" s="8"/>
       <c r="C167" s="8"/>
-      <c r="D167" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="D167" s="8"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
-      <c r="K167" s="8" t="s">
-        <v>235</v>
-      </c>
+      <c r="K167" s="8"/>
       <c r="L167" s="8"/>
       <c r="M167" s="8"/>
-      <c r="N167" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="N167" s="8"/>
     </row>
     <row r="168" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>243</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="F168" s="8"/>
       <c r="G168" s="8"/>
-      <c r="H168" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I168" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="8"/>
-      <c r="N168" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="N168" s="8"/>
     </row>
     <row r="169" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
+      <c r="F169" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
+      <c r="H169" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
       <c r="N169" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -8731,25 +9031,33 @@
     </row>
     <row r="171" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B171" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
+      <c r="D171" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
+      <c r="K171" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
+      <c r="N171" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="172" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -8767,7 +9075,7 @@
     </row>
     <row r="173" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -8785,7 +9093,7 @@
     </row>
     <row r="174" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -8803,35 +9111,25 @@
     </row>
     <row r="175" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>241</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B175" s="8"/>
       <c r="C175" s="8"/>
-      <c r="D175" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="D175" s="8"/>
       <c r="E175" s="8"/>
-      <c r="F175" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="F175" s="8"/>
       <c r="G175" s="8"/>
-      <c r="H175" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="H175" s="8"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
-      <c r="N175" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="N175" s="8"/>
     </row>
     <row r="176" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -8849,33 +9147,25 @@
     </row>
     <row r="177" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B177" s="8"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="8" t="s">
-        <v>227</v>
-      </c>
+      <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
-      <c r="K177" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="K177" s="8"/>
       <c r="L177" s="8"/>
       <c r="M177" s="8"/>
-      <c r="N177" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="N177" s="8"/>
     </row>
     <row r="178" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -8893,13 +9183,19 @@
     </row>
     <row r="179" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B179" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+      <c r="D179" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
+      <c r="F179" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -8907,17 +9203,25 @@
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
-      <c r="N179" s="8"/>
+      <c r="N179" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="180" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B180" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
+      <c r="D180" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
+      <c r="F180" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -8925,137 +9229,15 @@
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
-      <c r="N180" s="8"/>
-    </row>
-    <row r="181" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="8"/>
-    </row>
-    <row r="182" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8"/>
-    </row>
-    <row r="183" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
-      <c r="N183" s="8"/>
-    </row>
-    <row r="184" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="8"/>
-    </row>
-    <row r="185" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
-      <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="8"/>
-      <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="12"/>
+      <c r="N180" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N186"/>
+  <autoFilter ref="A1:N180"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1005">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -834,9 +834,6 @@
   </si>
   <si>
     <t>*Spherical. With antapical protrusion</t>
-  </si>
-  <si>
-    <t>*Distally connected process with a pair of trabeculae.</t>
   </si>
   <si>
     <t>*Tabulation reflected by trabeculae only.</t>
@@ -3117,6 +3114,33 @@
   </si>
   <si>
     <t>*Indiscirneble.</t>
+  </si>
+  <si>
+    <t>**Smooth to faintly granulate.</t>
+  </si>
+  <si>
+    <t>**Ovoidal . Small apical protuberance.</t>
+  </si>
+  <si>
+    <t>*Distally connected process with a pair of trabeculae. **Smooth and exclusively gonal. Shafts hollow, slender and have distal trifurcations. The distal tips of the furcations are themselves bifurcate, allowing parallel pais of riibon-like trabeculae, each about 1 to 1.5 um. wide, to connect with adjacent processe, so the trabecule follow the configuration of the plate sutures.</t>
+  </si>
+  <si>
+    <t>*Precingular (3")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**27 to 42 </t>
+  </si>
+  <si>
+    <t>**11 to 23 (length)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Spiniferites ramosus, the latter can also have trabeculae that connect the tips of several processes but these trabeculae are thread-like rather than ribbon-like, and seldomly ocuur between the tips of all processes. N. rigida differs mainly in having a trabeculae with a subrounded to subtriangular cross section and solid processes. N. lemniscata differs in apparently having ocassonal intergonal as well as gonal processes. </t>
+  </si>
+  <si>
+    <t>*Zonneveld &amp; Pospelova (2015) **Van Nieuwenhove (2020)</t>
+  </si>
+  <si>
+    <t>*Wrenn (1955)</t>
   </si>
 </sst>
 </file>
@@ -3630,8 +3654,8 @@
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,13 +3688,13 @@
         <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>182</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>175</v>
@@ -3699,20 +3723,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3720,10 +3744,10 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3731,22 +3755,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>350</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>351</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -3754,10 +3778,10 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,22 +3789,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -3789,7 +3813,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,22 +3821,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>360</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -3821,7 +3845,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,22 +3853,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>364</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>365</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -3853,7 +3877,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3861,31 +3885,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3893,22 +3917,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>369</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>370</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -3916,10 +3940,10 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,22 +3951,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>373</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>374</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>239</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -3951,7 +3975,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3959,25 +3983,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>757</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>760</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>758</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -3985,7 +4009,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3993,25 +4017,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>762</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>763</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -4019,7 +4043,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4027,25 +4051,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="G12" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="H12" s="24" t="s">
         <v>768</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>769</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -4053,31 +4077,31 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>772</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>773</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>774</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>775</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -4085,7 +4109,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4093,25 +4117,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>777</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>782</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>780</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>781</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -4119,89 +4143,89 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>234</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>185</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>789</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>790</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M15" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="N15" s="24" t="s">
         <v>793</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>797</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="G16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>798</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="H16" s="24" t="s">
+      <c r="I16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="N16" s="24" t="s">
         <v>799</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,40 +4236,40 @@
         <v>234</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>812</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="I17" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="N17" s="24" t="s">
         <v>808</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>813</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4253,23 +4277,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>801</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>802</v>
-      </c>
       <c r="F18" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>805</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>806</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -4277,7 +4301,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4288,34 +4312,34 @@
         <v>234</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>741</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F19" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>747</v>
-      </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>743</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>744</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="N19" s="24" t="s">
         <v>748</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,20 +4350,20 @@
         <v>234</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>750</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>752</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>754</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>751</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>190</v>
@@ -4349,7 +4373,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4360,22 +4384,22 @@
         <v>183</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>185</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24" t="s">
@@ -4384,10 +4408,10 @@
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,22 +4422,22 @@
         <v>183</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>185</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24" t="s">
@@ -4423,7 +4447,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4434,22 +4458,22 @@
         <v>183</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>185</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24" t="s">
@@ -4459,7 +4483,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4470,20 +4494,20 @@
         <v>183</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>185</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24" t="s">
@@ -4493,7 +4517,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4505,17 +4529,17 @@
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>185</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24" t="s">
@@ -4525,7 +4549,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4536,25 +4560,25 @@
         <v>234</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D26" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>819</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" s="24" t="s">
+      <c r="I26" s="24" t="s">
         <v>815</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>816</v>
       </c>
       <c r="J26" s="24" t="s">
         <v>261</v>
@@ -4562,54 +4586,54 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>183</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="M27" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>825</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="M27" s="24" t="s">
+      <c r="N27" s="24" t="s">
         <v>827</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4617,39 +4641,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>831</v>
-      </c>
       <c r="D28" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>204</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4661,53 +4685,53 @@
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>837</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>839</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>838</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -4715,7 +4739,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4723,25 +4747,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="D31" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="E31" s="24" t="s">
+      <c r="G31" s="24" t="s">
         <v>849</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="H31" s="24" t="s">
         <v>847</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>850</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>848</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -4749,7 +4773,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4757,21 +4781,21 @@
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="E32" s="24" t="s">
         <v>397</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>398</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>205</v>
@@ -4780,10 +4804,10 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4794,13 +4818,13 @@
         <v>183</v>
       </c>
       <c r="C33" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>401</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>402</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -4810,10 +4834,10 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="N33" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4824,28 +4848,28 @@
         <v>183</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4856,18 +4880,18 @@
         <v>183</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -4875,7 +4899,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4886,32 +4910,32 @@
         <v>183</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4922,32 +4946,32 @@
         <v>183</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E37" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="H37" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I37" s="24" t="s">
         <v>330</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>331</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4958,22 +4982,22 @@
         <v>183</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -4981,7 +5005,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,22 +5016,22 @@
         <v>183</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E39" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>304</v>
-      </c>
       <c r="H39" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -5015,7 +5039,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5026,22 +5050,22 @@
         <v>183</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E40" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>319</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>320</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -5049,7 +5073,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,19 +5084,19 @@
         <v>183</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E41" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>293</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>294</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>202</v>
@@ -5083,7 +5107,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5094,32 +5118,32 @@
         <v>183</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F42" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>296</v>
-      </c>
       <c r="H42" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="N42" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5130,32 +5154,32 @@
         <v>183</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E43" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F43" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>299</v>
-      </c>
       <c r="H43" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5163,39 +5187,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F44" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="G44" s="24" t="s">
-        <v>418</v>
-      </c>
       <c r="H44" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>206</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L44" s="24"/>
       <c r="M44" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5206,28 +5230,28 @@
         <v>183</v>
       </c>
       <c r="C45" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>427</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5235,21 +5259,21 @@
         <v>39</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>429</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>430</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I46" s="24" t="s">
         <v>206</v>
@@ -5260,21 +5284,21 @@
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>434</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>435</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>184</v>
@@ -5285,7 +5309,7 @@
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>206</v>
@@ -5297,7 +5321,7 @@
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5305,21 +5329,21 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>438</v>
-      </c>
       <c r="E48" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I48" s="24" t="s">
         <v>206</v>
@@ -5332,10 +5356,10 @@
         <v>210</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5346,36 +5370,36 @@
         <v>234</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I49" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="J49" s="24" t="s">
         <v>853</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>854</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5389,29 +5413,29 @@
         <v>260</v>
       </c>
       <c r="D50" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>895</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>896</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5422,32 +5446,32 @@
         <v>234</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5455,43 +5479,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>860</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>859</v>
-      </c>
       <c r="E52" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>256</v>
       </c>
       <c r="J52" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="K52" s="24" t="s">
         <v>861</v>
       </c>
-      <c r="K52" s="24" t="s">
-        <v>862</v>
-      </c>
       <c r="L52" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M52" s="24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5502,40 +5526,40 @@
         <v>234</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I53" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="J53" s="24" t="s">
         <v>867</v>
       </c>
-      <c r="J53" s="24" t="s">
-        <v>868</v>
-      </c>
       <c r="K53" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5546,34 +5570,34 @@
         <v>234</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F54" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G54" s="24"/>
       <c r="H54" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I54" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="J54" s="24" t="s">
         <v>873</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>874</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5587,29 +5611,29 @@
         <v>254</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F55" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5620,34 +5644,34 @@
         <v>234</v>
       </c>
       <c r="C56" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>881</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>882</v>
-      </c>
       <c r="E56" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F56" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I56" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="J56" s="24" t="s">
         <v>883</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>884</v>
       </c>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="25" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -5661,31 +5685,31 @@
         <v>258</v>
       </c>
       <c r="D57" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="E57" s="24" t="s">
         <v>898</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>899</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I57" s="24" t="s">
         <v>259</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5693,41 +5717,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>903</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>904</v>
-      </c>
       <c r="D58" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F58" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G58" s="24"/>
       <c r="H58" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K58" s="24" t="s">
         <v>257</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N58" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5738,19 +5762,19 @@
         <v>183</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E59" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" s="24" t="s">
         <v>307</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>308</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>194</v>
@@ -5761,7 +5785,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5772,19 +5796,19 @@
         <v>183</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F60" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G60" s="24" t="s">
         <v>314</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>315</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
@@ -5793,7 +5817,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
       <c r="N60" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5804,19 +5828,19 @@
         <v>183</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F61" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G61" s="24" t="s">
         <v>310</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>311</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>194</v>
@@ -5827,7 +5851,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5838,68 +5862,68 @@
         <v>183</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>214</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
       <c r="H63" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="I63" s="24" t="s">
         <v>918</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>919</v>
       </c>
       <c r="J63" s="24"/>
       <c r="K63" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="L63" s="24" t="s">
         <v>920</v>
       </c>
-      <c r="L63" s="24" t="s">
-        <v>921</v>
-      </c>
       <c r="M63" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="N63" s="24" t="s">
         <v>923</v>
-      </c>
-      <c r="N63" s="24" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5907,37 +5931,37 @@
         <v>55</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C64" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>952</v>
       </c>
-      <c r="D64" s="24" t="s">
-        <v>953</v>
-      </c>
       <c r="E64" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L64" s="24" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M64" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N64" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5948,66 +5972,66 @@
         <v>234</v>
       </c>
       <c r="C65" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>926</v>
-      </c>
       <c r="E65" s="24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
       <c r="H65" s="24" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="24" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L65" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="M65" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="M65" s="24" t="s">
-        <v>931</v>
-      </c>
       <c r="N65" s="24" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
       <c r="H66" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N66" s="24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="25" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,31 +6039,31 @@
         <v>57</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="E67" s="24" t="s">
         <v>960</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>961</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N67" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6048,30 +6072,30 @@
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
       <c r="H68" s="24" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
       <c r="M68" s="24" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="N68" s="24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6079,16 +6103,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
@@ -6096,14 +6120,14 @@
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6111,32 +6135,32 @@
         <v>60</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="D70" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>463</v>
-      </c>
       <c r="E70" s="24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F70" s="24"/>
       <c r="H70" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="L70" s="24" t="s">
         <v>464</v>
-      </c>
-      <c r="L70" s="24" t="s">
-        <v>465</v>
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="25" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6155,10 +6179,10 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="29" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6167,32 +6191,32 @@
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
       <c r="H72" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J72" s="28"/>
       <c r="K72" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N72" s="28" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6201,32 +6225,32 @@
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
       <c r="H73" s="24" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
       <c r="K73" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="L73" s="24" t="s">
         <v>972</v>
       </c>
-      <c r="L73" s="24" t="s">
-        <v>973</v>
-      </c>
       <c r="M73" s="24" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6235,28 +6259,28 @@
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>487</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6264,37 +6288,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
       <c r="H75" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="I75" s="24" t="s">
         <v>938</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>939</v>
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="L75" s="24" t="s">
         <v>940</v>
       </c>
-      <c r="L75" s="24" t="s">
-        <v>941</v>
-      </c>
       <c r="M75" s="24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="N75" s="24" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6303,30 +6327,30 @@
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
       <c r="H76" s="24" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
       <c r="K76" s="24" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="N76" s="24" t="s">
         <v>986</v>
-      </c>
-      <c r="N76" s="24" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6334,35 +6358,35 @@
         <v>67</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="D77" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="D77" s="24" t="s">
-        <v>470</v>
-      </c>
       <c r="E77" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I77" s="24" t="s">
         <v>473</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>474</v>
       </c>
       <c r="J77" s="24"/>
       <c r="K77" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="L77" s="24" t="s">
         <v>471</v>
-      </c>
-      <c r="L77" s="24" t="s">
-        <v>472</v>
       </c>
       <c r="M77" s="24"/>
       <c r="N77" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6373,10 +6397,10 @@
         <v>183</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24" t="s">
@@ -6384,19 +6408,19 @@
       </c>
       <c r="G78" s="24"/>
       <c r="H78" s="24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="24"/>
       <c r="K78" s="24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="24" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6404,35 +6428,35 @@
         <v>69</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>457</v>
-      </c>
       <c r="D79" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F79" s="24" t="s">
         <v>214</v>
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I79" s="24"/>
       <c r="J79" s="24" t="s">
         <v>218</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6441,32 +6465,32 @@
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D80" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E80" s="24" t="s">
         <v>489</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>490</v>
       </c>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="N80" s="24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="25" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,33 +6498,33 @@
         <v>71</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C81" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>944</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>945</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="I81" s="24" t="s">
         <v>947</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>948</v>
       </c>
       <c r="J81" s="24"/>
       <c r="K81" s="24" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="24" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="N81" s="24" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6515,7 +6539,7 @@
         <v>216</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F82" s="24" t="s">
         <v>214</v>
@@ -6533,166 +6557,178 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="G83" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="H83" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="N83" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2" t="s">
+    </row>
+    <row r="84" spans="1:14" s="25" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N84" s="24" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D85" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="N83" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="15" t="s">
+      <c r="E85" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="N85" s="24" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="C86" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E86" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="F86" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="N86" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2" t="s">
+    </row>
+    <row r="87" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="N87" s="24" t="s">
         <v>503</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6721,22 +6757,22 @@
         <v>183</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -6744,7 +6780,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,32 +6791,32 @@
         <v>234</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6791,32 +6827,32 @@
         <v>234</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="I91" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6830,29 +6866,29 @@
         <v>244</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="I92" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6893,32 +6929,32 @@
         <v>234</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="I94" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6927,32 +6963,32 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6961,32 +6997,32 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="I96" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7070,19 +7106,19 @@
         <v>90</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C100" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="D100" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="E100" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="F100" s="19" t="s">
         <v>568</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>569</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
@@ -7092,7 +7128,7 @@
       <c r="L100" s="19"/>
       <c r="M100" s="19"/>
       <c r="N100" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7100,23 +7136,23 @@
         <v>91</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C101" s="19"/>
       <c r="D101" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E101" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="G101" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="H101" s="19" t="s">
         <v>572</v>
-      </c>
-      <c r="G101" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="H101" s="19" t="s">
-        <v>573</v>
       </c>
       <c r="I101" s="19"/>
       <c r="J101" s="19"/>
@@ -7126,7 +7162,7 @@
       <c r="L101" s="19"/>
       <c r="M101" s="19"/>
       <c r="N101" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7134,35 +7170,35 @@
         <v>92</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>184</v>
       </c>
       <c r="E102" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="G102" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="F102" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="G102" s="19" t="s">
+      <c r="H102" s="19" t="s">
         <v>562</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>563</v>
       </c>
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
       <c r="L102" s="19"/>
       <c r="M102" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7519,36 +7555,36 @@
         <v>183</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F116" s="19" t="s">
         <v>215</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I116" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J116" s="19"/>
       <c r="K116" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="L116" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="L116" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="M116" s="19"/>
       <c r="N116" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7664,33 +7700,33 @@
         <v>113</v>
       </c>
       <c r="B123" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="D123" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>615</v>
       </c>
       <c r="F123" s="19" t="s">
         <v>215</v>
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I123" s="19"/>
       <c r="J123" s="19"/>
       <c r="K123" s="19"/>
       <c r="L123" s="19"/>
       <c r="M123" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="N123" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="N123" s="19" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="124" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7743,38 +7779,38 @@
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="G126" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="H126" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="E126" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="F126" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="H126" s="19" t="s">
+      <c r="I126" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="I126" s="19" t="s">
-        <v>609</v>
-      </c>
       <c r="J126" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L126" s="19"/>
       <c r="M126" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7836,37 +7872,37 @@
         <v>120</v>
       </c>
       <c r="B130" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="D130" s="19" t="s">
+      <c r="E130" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="E130" s="19" t="s">
-        <v>622</v>
-      </c>
       <c r="F130" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="G130" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="G130" s="19" t="s">
+      <c r="H130" s="19" t="s">
         <v>625</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>626</v>
       </c>
       <c r="I130" s="19"/>
       <c r="J130" s="19"/>
       <c r="K130" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L130" s="19"/>
       <c r="M130" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N130" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7875,32 +7911,32 @@
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="D131" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="E131" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="E131" s="19" t="s">
-        <v>631</v>
-      </c>
       <c r="F131" s="19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G131" s="19"/>
       <c r="H131" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
       <c r="K131" s="19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L131" s="19"/>
       <c r="M131" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N131" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="132" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7908,35 +7944,35 @@
         <v>122</v>
       </c>
       <c r="B132" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="D132" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="D132" s="19" t="s">
-        <v>578</v>
-      </c>
       <c r="E132" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F132" s="19" t="s">
         <v>582</v>
-      </c>
-      <c r="F132" s="19" t="s">
-        <v>583</v>
       </c>
       <c r="G132" s="19"/>
       <c r="H132" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L132" s="19"/>
       <c r="M132" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7944,37 +7980,37 @@
         <v>123</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D133" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="F133" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="E133" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="F133" s="19" t="s">
+      <c r="G133" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="H133" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="G133" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="H133" s="19" t="s">
+      <c r="I133" s="19" t="s">
         <v>588</v>
-      </c>
-      <c r="I133" s="19" t="s">
-        <v>589</v>
       </c>
       <c r="J133" s="19"/>
       <c r="K133" s="19"/>
       <c r="L133" s="19"/>
       <c r="M133" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7983,28 +8019,28 @@
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>593</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>591</v>
-      </c>
-      <c r="E134" s="19" t="s">
-        <v>594</v>
       </c>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
       <c r="H134" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
       <c r="K134" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L134" s="19"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8012,33 +8048,33 @@
         <v>125</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F135" s="19" t="s">
         <v>215</v>
       </c>
       <c r="G135" s="19"/>
       <c r="H135" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
       <c r="K135" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L135" s="19"/>
       <c r="M135" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="N135" s="19" t="s">
         <v>601</v>
-      </c>
-      <c r="N135" s="19" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8050,11 +8086,11 @@
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
@@ -8071,32 +8107,32 @@
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="F137" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="D137" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="E137" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="F137" s="19" t="s">
-        <v>640</v>
-      </c>
       <c r="G137" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
       <c r="L137" s="19"/>
       <c r="M137" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="N137" s="19" t="s">
         <v>641</v>
-      </c>
-      <c r="N137" s="19" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8104,35 +8140,35 @@
         <v>128</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C138" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="F138" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="D138" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="F138" s="19" t="s">
+      <c r="G138" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>650</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J138" s="19"/>
       <c r="K138" s="19"/>
       <c r="L138" s="19"/>
       <c r="M138" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8143,36 +8179,36 @@
         <v>234</v>
       </c>
       <c r="C139" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="E139" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="F139" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="I139" s="19" t="s">
         <v>657</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="H139" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="I139" s="19" t="s">
-        <v>658</v>
       </c>
       <c r="J139" s="19"/>
       <c r="K139" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L139" s="19"/>
       <c r="M139" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,29 +8220,29 @@
       </c>
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F140" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K140" s="19"/>
       <c r="L140" s="19"/>
       <c r="M140" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,36 +8253,36 @@
         <v>234</v>
       </c>
       <c r="C141" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D141" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="E141" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="F141" s="19" t="s">
         <v>668</v>
       </c>
-      <c r="E141" s="19" t="s">
+      <c r="G141" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="F141" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="G141" s="19" t="s">
-        <v>674</v>
-      </c>
       <c r="H141" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J141" s="19"/>
       <c r="K141" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L141" s="19"/>
       <c r="M141" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8257,38 +8293,38 @@
         <v>234</v>
       </c>
       <c r="C142" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="D142" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="D142" s="19" t="s">
+      <c r="E142" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="F142" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="H142" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="I142" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="J142" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="E142" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="F142" s="19" t="s">
+      <c r="K142" s="19" t="s">
         <v>679</v>
-      </c>
-      <c r="G142" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="H142" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="I142" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="J142" s="19" t="s">
-        <v>678</v>
-      </c>
-      <c r="K142" s="19" t="s">
-        <v>680</v>
       </c>
       <c r="L142" s="19"/>
       <c r="M142" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8325,34 +8361,34 @@
       </c>
       <c r="B144" s="19"/>
       <c r="C144" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="D144" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="E144" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="F144" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="E144" s="19" t="s">
+      <c r="G144" s="19" t="s">
         <v>687</v>
       </c>
-      <c r="F144" s="19" t="s">
-        <v>693</v>
-      </c>
-      <c r="G144" s="19" t="s">
-        <v>688</v>
-      </c>
       <c r="H144" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J144" s="19"/>
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
       <c r="M144" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8363,34 +8399,34 @@
         <v>234</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E145" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="G145" s="19" t="s">
         <v>696</v>
-      </c>
-      <c r="F145" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>697</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J145" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K145" s="19"/>
       <c r="L145" s="19"/>
       <c r="M145" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8401,32 +8437,32 @@
         <v>234</v>
       </c>
       <c r="C146" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="F146" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>706</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>703</v>
       </c>
       <c r="G146" s="19"/>
       <c r="H146" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
       <c r="K146" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L146" s="19"/>
       <c r="M146" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8435,34 +8471,34 @@
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="E147" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="F147" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="E147" s="19" t="s">
+      <c r="G147" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="F147" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="G147" s="19" t="s">
-        <v>711</v>
-      </c>
       <c r="H147" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J147" s="19"/>
       <c r="K147" s="19"/>
       <c r="L147" s="19"/>
       <c r="M147" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8473,38 +8509,38 @@
         <v>234</v>
       </c>
       <c r="C148" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="F148" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="D148" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="E148" s="19" t="s">
+      <c r="G148" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="F148" s="19" t="s">
+      <c r="H148" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="J148" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="G148" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="H148" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="I148" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="J148" s="19" t="s">
+      <c r="K148" s="19" t="s">
         <v>718</v>
-      </c>
-      <c r="K148" s="19" t="s">
-        <v>719</v>
       </c>
       <c r="L148" s="19"/>
       <c r="M148" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="N148" s="19" t="s">
         <v>722</v>
-      </c>
-      <c r="N148" s="19" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8545,34 +8581,34 @@
         <v>234</v>
       </c>
       <c r="C150" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="D150" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="E150" s="19" t="s">
+      <c r="F150" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="G150" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="F150" s="19" t="s">
+      <c r="H150" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="I150" s="19" t="s">
         <v>729</v>
-      </c>
-      <c r="G150" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="I150" s="19" t="s">
-        <v>730</v>
       </c>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
       <c r="M150" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8583,30 +8619,30 @@
         <v>234</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="F151" s="19" t="s">
         <v>733</v>
-      </c>
-      <c r="D151" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="F151" s="19" t="s">
-        <v>734</v>
       </c>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J151" s="19"/>
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
       <c r="M151" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,13 +8653,13 @@
         <v>234</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>266</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>267</v>
@@ -8631,7 +8667,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J152" s="8" t="s">
         <v>263</v>
@@ -8687,14 +8723,14 @@
         <v>234</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -8878,7 +8914,7 @@
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$182</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1007">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Nematosphaeropsis scala</t>
-  </si>
-  <si>
-    <t>Nia acanthocysta</t>
   </si>
   <si>
     <t>Oblea acanthocysta</t>
@@ -3141,6 +3138,15 @@
   </si>
   <si>
     <t>*Wrenn (1955)</t>
+  </si>
+  <si>
+    <t>Niea acanthocysta</t>
+  </si>
+  <si>
+    <t>Niea chinensis</t>
+  </si>
+  <si>
+    <t>Niea torta</t>
   </si>
 </sst>
 </file>
@@ -3651,11 +3657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,46 +3682,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3723,20 +3729,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3744,10 +3750,10 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3755,22 +3761,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>350</v>
-      </c>
       <c r="F3" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -3778,10 +3784,10 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3789,22 +3795,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>354</v>
-      </c>
       <c r="F4" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -3813,7 +3819,7 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,22 +3827,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>360</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -3845,7 +3851,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3853,22 +3859,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>364</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -3877,7 +3883,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3885,31 +3891,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,22 +3923,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>369</v>
-      </c>
       <c r="F8" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -3940,10 +3946,10 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,22 +3957,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>373</v>
-      </c>
       <c r="F9" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -3975,7 +3981,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,25 +3989,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>754</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="H10" s="24" t="s">
         <v>756</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>759</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>757</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -4009,7 +4015,7 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,25 +4023,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>760</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>763</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>761</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>762</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -4043,7 +4049,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4051,25 +4057,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="G12" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="H12" s="24" t="s">
         <v>767</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>768</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -4077,31 +4083,31 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>771</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>772</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F13" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>773</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>775</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>774</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -4109,7 +4115,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,25 +4123,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>776</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>777</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>780</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>779</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>780</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -4143,89 +4149,89 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>785</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>786</v>
-      </c>
       <c r="E15" s="24" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>788</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>789</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M15" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="N15" s="24" t="s">
         <v>792</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>794</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="G16" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>797</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H16" s="24" t="s">
+      <c r="I16" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="N16" s="24" t="s">
         <v>798</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4233,43 +4239,43 @@
         <v>12</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="I17" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="N17" s="24" t="s">
         <v>807</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>809</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4277,23 +4283,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>800</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>801</v>
-      </c>
       <c r="F18" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>804</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>805</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -4301,7 +4307,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4309,37 +4315,37 @@
         <v>14</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>740</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>744</v>
-      </c>
-      <c r="F19" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="H19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>742</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>743</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="N19" s="24" t="s">
         <v>747</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4347,33 +4353,33 @@
         <v>15</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>749</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>753</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>750</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4381,37 +4387,37 @@
         <v>16</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="F21" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="G21" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>379</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4419,35 +4425,35 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="E22" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>383</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,35 +4461,35 @@
         <v>18</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="E23" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>387</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>388</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4491,33 +4497,33 @@
         <v>19</v>
       </c>
       <c r="B24" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="E24" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4525,31 +4531,31 @@
         <v>20</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4557,83 +4563,83 @@
         <v>21</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D26" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" s="24" t="s">
+      <c r="I26" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="I26" s="24" t="s">
-        <v>815</v>
-      </c>
       <c r="J26" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>821</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="E27" s="24" t="s">
+        <v>824</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>822</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="J27" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="M27" s="24" t="s">
         <v>825</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="M27" s="24" t="s">
+      <c r="N27" s="24" t="s">
         <v>826</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,39 +4647,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="24" t="s">
         <v>830</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>834</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>833</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>831</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4681,57 +4687,57 @@
         <v>23</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>837</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>813</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>836</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>814</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>837</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -4739,7 +4745,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4747,25 +4753,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>844</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="D31" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="E31" s="24" t="s">
+      <c r="G31" s="24" t="s">
         <v>848</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="H31" s="24" t="s">
         <v>846</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>849</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>847</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -4773,7 +4779,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4781,33 +4787,33 @@
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="E32" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4815,16 +4821,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>400</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>401</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -4834,10 +4840,10 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="N33" s="24" t="s">
         <v>402</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4845,31 +4851,31 @@
         <v>27</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4877,21 +4883,21 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -4899,7 +4905,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,35 +4913,35 @@
         <v>29</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="E36" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4943,35 +4949,35 @@
         <v>30</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="E37" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="24" t="s">
+      <c r="G37" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="H37" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>330</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,25 +4985,25 @@
         <v>31</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="E38" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -5005,7 +5011,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5013,25 +5019,25 @@
         <v>32</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="E39" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>303</v>
-      </c>
       <c r="H39" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -5039,7 +5045,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5047,25 +5053,25 @@
         <v>33</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="E40" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="24" t="s">
+      <c r="G40" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="24" t="s">
         <v>318</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>319</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -5073,7 +5079,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,25 +5087,25 @@
         <v>34</v>
       </c>
       <c r="B41" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="E41" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="24" t="s">
+      <c r="G41" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>293</v>
-      </c>
       <c r="H41" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -5107,7 +5113,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5115,35 +5121,35 @@
         <v>35</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="E42" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F42" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>295</v>
-      </c>
       <c r="H42" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="N42" s="24" t="s">
         <v>444</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5151,35 +5157,35 @@
         <v>36</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>184</v>
-      </c>
       <c r="E43" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>298</v>
-      </c>
       <c r="H43" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5187,39 +5193,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C44" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="F44" s="24" t="s">
+      <c r="G44" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="G44" s="24" t="s">
-        <v>417</v>
-      </c>
       <c r="H44" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L44" s="24"/>
       <c r="M44" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5227,31 +5233,31 @@
         <v>38</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>425</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>426</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,69 +5265,69 @@
         <v>39</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>429</v>
-      </c>
       <c r="D46" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J46" s="24"/>
       <c r="K46" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>434</v>
-      </c>
       <c r="D47" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J47" s="24"/>
       <c r="K47" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5329,37 +5335,37 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>437</v>
-      </c>
       <c r="E48" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J48" s="24"/>
       <c r="K48" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="L48" s="24" t="s">
-        <v>210</v>
-      </c>
       <c r="M48" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5367,39 +5373,39 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C49" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="I49" s="24" t="s">
         <v>851</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>850</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="I49" s="24" t="s">
+      <c r="J49" s="24" t="s">
         <v>852</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>853</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5407,35 +5413,35 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D50" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>894</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>895</v>
-      </c>
       <c r="F50" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5443,35 +5449,35 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,43 +5485,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>857</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="E52" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="J52" s="24" t="s">
         <v>859</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>858</v>
-      </c>
-      <c r="E52" s="24" t="s">
+      <c r="K52" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="M52" s="24" t="s">
         <v>862</v>
       </c>
-      <c r="F52" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>860</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>863</v>
-      </c>
       <c r="N52" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5523,43 +5529,43 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C53" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="I53" s="24" t="s">
         <v>865</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>864</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="J53" s="24" t="s">
+        <v>866</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="M53" s="24" t="s">
         <v>868</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>866</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>867</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>869</v>
-      </c>
       <c r="N53" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5567,37 +5573,37 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G54" s="24"/>
       <c r="H54" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I54" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="J54" s="24" t="s">
         <v>872</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>873</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,35 +5611,35 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C55" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>878</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>255</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5641,37 +5647,37 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>881</v>
-      </c>
       <c r="E56" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I56" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="J56" s="24" t="s">
         <v>882</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>883</v>
       </c>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="25" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,37 +5685,37 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="E57" s="24" t="s">
         <v>897</v>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>898</v>
-      </c>
       <c r="F57" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N57" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5717,41 +5723,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>902</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>903</v>
-      </c>
       <c r="D58" s="24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G58" s="24"/>
       <c r="H58" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I58" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="L58" s="24" t="s">
         <v>904</v>
       </c>
-      <c r="J58" s="24" t="s">
+      <c r="M58" s="24" t="s">
         <v>907</v>
       </c>
-      <c r="K58" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>905</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>908</v>
-      </c>
       <c r="N58" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5759,25 +5765,25 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="E59" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F59" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D59" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" s="26" t="s">
+      <c r="G59" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>307</v>
-      </c>
       <c r="H59" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
@@ -5785,7 +5791,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5793,22 +5799,22 @@
         <v>52</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="E60" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="D60" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F60" s="24" t="s">
+      <c r="G60" s="24" t="s">
         <v>313</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>314</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
@@ -5817,7 +5823,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
       <c r="N60" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5825,25 +5831,25 @@
         <v>53</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="E61" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F61" s="24" t="s">
+      <c r="G61" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="G61" s="24" t="s">
-        <v>310</v>
-      </c>
       <c r="H61" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -5851,7 +5857,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5859,71 +5865,71 @@
         <v>54</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
       <c r="H63" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="I63" s="24" t="s">
         <v>917</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>918</v>
       </c>
       <c r="J63" s="24"/>
       <c r="K63" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="L63" s="24" t="s">
         <v>919</v>
       </c>
-      <c r="L63" s="24" t="s">
-        <v>920</v>
-      </c>
       <c r="M63" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="N63" s="24" t="s">
         <v>922</v>
-      </c>
-      <c r="N63" s="24" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5931,37 +5937,37 @@
         <v>55</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C64" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="D64" s="24" t="s">
-        <v>952</v>
-      </c>
       <c r="E64" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L64" s="24" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M64" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N64" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5969,69 +5975,69 @@
         <v>56</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>924</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>925</v>
-      </c>
       <c r="E65" s="24" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
       <c r="H65" s="24" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="24" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L65" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="M65" s="24" t="s">
         <v>929</v>
       </c>
-      <c r="M65" s="24" t="s">
-        <v>930</v>
-      </c>
       <c r="N65" s="24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
       <c r="H66" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N66" s="24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="25" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -6039,31 +6045,31 @@
         <v>57</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>958</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="E67" s="24" t="s">
         <v>959</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>960</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N67" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,30 +6078,30 @@
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
       <c r="H68" s="24" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
       <c r="M68" s="24" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N68" s="24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6103,16 +6109,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
@@ -6120,14 +6126,14 @@
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6135,32 +6141,32 @@
         <v>60</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="D70" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>462</v>
-      </c>
       <c r="E70" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F70" s="24"/>
       <c r="H70" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="L70" s="24" t="s">
         <v>463</v>
-      </c>
-      <c r="L70" s="24" t="s">
-        <v>464</v>
       </c>
       <c r="M70" s="24"/>
       <c r="N70" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="25" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6179,10 +6185,10 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="29" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6191,32 +6197,32 @@
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
       <c r="H72" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J72" s="28"/>
       <c r="K72" s="28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="24" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N72" s="28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6225,32 +6231,32 @@
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
       <c r="H73" s="24" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
       <c r="K73" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="L73" s="24" t="s">
         <v>971</v>
       </c>
-      <c r="L73" s="24" t="s">
-        <v>972</v>
-      </c>
       <c r="M73" s="24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,28 +6265,28 @@
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>486</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>487</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,37 +6294,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
       <c r="H75" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="I75" s="24" t="s">
         <v>937</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>938</v>
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="L75" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="L75" s="24" t="s">
-        <v>940</v>
-      </c>
       <c r="M75" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N75" s="24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6327,30 +6333,30 @@
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
       <c r="H76" s="24" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
       <c r="K76" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L76" s="24"/>
       <c r="M76" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="N76" s="24" t="s">
         <v>985</v>
-      </c>
-      <c r="N76" s="24" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6358,35 +6364,35 @@
         <v>67</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="D77" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="D77" s="24" t="s">
-        <v>469</v>
-      </c>
       <c r="E77" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="I77" s="24" t="s">
         <v>472</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>473</v>
       </c>
       <c r="J77" s="24"/>
       <c r="K77" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="L77" s="24" t="s">
         <v>470</v>
-      </c>
-      <c r="L77" s="24" t="s">
-        <v>471</v>
       </c>
       <c r="M77" s="24"/>
       <c r="N77" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6394,33 +6400,33 @@
         <v>68</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G78" s="24"/>
       <c r="H78" s="24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="24"/>
       <c r="K78" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="24" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="N78" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,35 +6434,35 @@
         <v>69</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>456</v>
-      </c>
       <c r="D79" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I79" s="24"/>
       <c r="J79" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6465,32 +6471,32 @@
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D80" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="E80" s="24" t="s">
         <v>488</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>489</v>
       </c>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N80" s="24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="25" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6498,33 +6504,33 @@
         <v>71</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C81" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="D81" s="24" t="s">
         <v>943</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>944</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="I81" s="24" t="s">
         <v>946</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>947</v>
       </c>
       <c r="J81" s="24"/>
       <c r="K81" s="24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="24" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="N81" s="24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6532,29 +6538,29 @@
         <v>72</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24"/>
       <c r="K82" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="24"/>
       <c r="N82" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6562,35 +6568,35 @@
         <v>73</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C83" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G83" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="E83" s="24" t="s">
+      <c r="H83" s="24" t="s">
         <v>494</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="I83" s="24"/>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
       <c r="M83" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N83" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="25" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -6598,37 +6604,37 @@
         <v>74</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C84" s="24" t="s">
+        <v>995</v>
+      </c>
+      <c r="D84" s="24" t="s">
         <v>996</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="E84" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="F84" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="G84" s="24" t="s">
         <v>1000</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="H84" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="G84" s="24" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>999</v>
-      </c>
       <c r="I84" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
       <c r="M84" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N84" s="24" t="s">
         <v>1002</v>
-      </c>
-      <c r="N84" s="24" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6637,32 +6643,32 @@
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="F85" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>501</v>
-      </c>
       <c r="G85" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H85" s="24"/>
       <c r="I85" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J85" s="24"/>
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
       <c r="M85" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N85" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6670,35 +6676,35 @@
         <v>76</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="F86" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="E86" s="24" t="s">
+      <c r="G86" s="24" t="s">
         <v>512</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>513</v>
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
       <c r="M86" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N86" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6708,32 +6714,32 @@
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N87" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>78</v>
+        <v>1004</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -6749,630 +6755,622 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2" t="s">
-        <v>526</v>
-      </c>
+    <row r="89" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
     </row>
     <row r="91" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>528</v>
+        <v>283</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>529</v>
+        <v>183</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>531</v>
+        <v>323</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>530</v>
+        <v>298</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>525</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>244</v>
+        <v>519</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15" t="s">
-        <v>191</v>
+      <c r="E93" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>539</v>
+        <v>243</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2" t="s">
-        <v>480</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="C96" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="G97" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+    </row>
+    <row r="100" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-    </row>
-    <row r="98" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="B100" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8" t="s">
+      <c r="B101" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19" t="s">
-        <v>567</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="G101" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="H101" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19" t="s">
-        <v>565</v>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>184</v>
+        <v>566</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="G102" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>562</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
       <c r="L102" s="19"/>
-      <c r="M102" s="19" t="s">
-        <v>563</v>
-      </c>
+      <c r="M102" s="19"/>
       <c r="N102" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="H103" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8" t="s">
-        <v>191</v>
+      <c r="F104" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="N104" s="19" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="I106" s="8"/>
-      <c r="J106" s="8" t="s">
-        <v>187</v>
-      </c>
+      <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
       <c r="N106" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="E107" s="8"/>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="D108" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
+      <c r="J108" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
+      <c r="N108" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="109" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B109" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="E109" s="8"/>
       <c r="F109" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -7382,12 +7380,12 @@
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7405,227 +7403,235 @@
     </row>
     <row r="111" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G111" s="8"/>
-      <c r="H111" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>187</v>
-      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="8" t="s">
-        <v>184</v>
-      </c>
+      <c r="D112" s="8"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="8" t="s">
-        <v>200</v>
-      </c>
+      <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
-      <c r="N112" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="N112" s="8"/>
     </row>
     <row r="113" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J113" s="8"/>
+        <v>189</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>243</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C114" s="8"/>
       <c r="D114" s="8" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
       <c r="N114" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
+      <c r="H115" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-    </row>
-    <row r="116" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C116" s="19" t="s">
+      <c r="N115" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="118" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G118" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="H118" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="D116" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G116" s="19" t="s">
+      <c r="I118" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="H116" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="I116" s="19" t="s">
+      <c r="L118" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="L116" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-    </row>
-    <row r="118" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
     </row>
     <row r="119" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -7643,7 +7649,7 @@
     </row>
     <row r="120" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -7661,7 +7667,7 @@
     </row>
     <row r="121" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -7679,7 +7685,7 @@
     </row>
     <row r="122" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -7695,43 +7701,27 @@
       <c r="M122" s="15"/>
       <c r="N122" s="15"/>
     </row>
-    <row r="123" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="N123" s="19" t="s">
-        <v>618</v>
-      </c>
+    <row r="123" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
     </row>
     <row r="124" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -7747,81 +7737,73 @@
       <c r="M124" s="15"/>
       <c r="N124" s="15"/>
     </row>
-    <row r="125" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="F126" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="I126" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="J126" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="K126" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19" t="s">
+    <row r="125" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="N126" s="19" t="s">
-        <v>448</v>
-      </c>
+      <c r="C125" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="N125" s="19" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
     </row>
     <row r="127" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="D127" s="15" t="s">
+        <v>212</v>
+      </c>
       <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
+      <c r="F127" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
@@ -7829,29 +7811,53 @@
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-    </row>
-    <row r="128" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
+      <c r="N127" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="I128" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="J128" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="K128" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="N128" s="19" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="129" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -7867,871 +7873,863 @@
       <c r="M129" s="15"/>
       <c r="N129" s="15"/>
     </row>
-    <row r="130" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="F130" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="G130" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>625</v>
-      </c>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="N130" s="19" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="E131" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="N131" s="19" t="s">
-        <v>626</v>
-      </c>
+    <row r="130" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+    </row>
+    <row r="131" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
     </row>
     <row r="132" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>576</v>
+        <v>477</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>581</v>
+        <v>620</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="G132" s="19"/>
+        <v>622</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>623</v>
+      </c>
       <c r="H132" s="19" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="L132" s="19"/>
       <c r="M132" s="19" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
     </row>
     <row r="133" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>556</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B133" s="19"/>
       <c r="C133" s="19" t="s">
-        <v>284</v>
+        <v>627</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="G133" s="19" t="s">
-        <v>298</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="G133" s="19"/>
       <c r="H133" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="I133" s="19" t="s">
-        <v>588</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="I133" s="19"/>
       <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
+      <c r="K133" s="19" t="s">
+        <v>630</v>
+      </c>
       <c r="L133" s="19"/>
       <c r="M133" s="19" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B134" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>574</v>
+      </c>
       <c r="C134" s="19" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="F134" s="19"/>
+        <v>580</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>581</v>
+      </c>
       <c r="G134" s="19"/>
       <c r="H134" s="19" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
       <c r="K134" s="19" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
+      <c r="M134" s="19" t="s">
+        <v>582</v>
+      </c>
       <c r="N134" s="19" t="s">
-        <v>403</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="C135" s="19"/>
+        <v>555</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="D135" s="19" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G135" s="19"/>
+        <v>585</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="H135" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="I135" s="19"/>
+        <v>586</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>587</v>
+      </c>
       <c r="J135" s="19"/>
-      <c r="K135" s="19" t="s">
-        <v>597</v>
-      </c>
+      <c r="K135" s="19"/>
       <c r="L135" s="19"/>
       <c r="M135" s="19" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="N135" s="19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="137" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19" t="s">
-        <v>638</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="G137" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19" t="s">
-        <v>635</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="I137" s="19"/>
       <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
+      <c r="K137" s="19" t="s">
+        <v>596</v>
+      </c>
       <c r="L137" s="19"/>
       <c r="M137" s="19" t="s">
-        <v>640</v>
+        <v>599</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="F138" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="N138" s="19" t="s">
-        <v>645</v>
-      </c>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
     </row>
     <row r="139" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>234</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B139" s="19"/>
       <c r="C139" s="19" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>652</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="H139" s="19" t="s">
-        <v>659</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="H139" s="19"/>
       <c r="I139" s="19" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="J139" s="19"/>
-      <c r="K139" s="19" t="s">
-        <v>658</v>
-      </c>
+      <c r="K139" s="19"/>
       <c r="L139" s="19"/>
       <c r="M139" s="19" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C140" s="19"/>
+        <v>641</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>646</v>
+      </c>
       <c r="D140" s="19" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>262</v>
+        <v>647</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19" t="s">
-        <v>662</v>
-      </c>
+      <c r="I140" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="J140" s="19"/>
       <c r="K140" s="19"/>
       <c r="L140" s="19"/>
       <c r="M140" s="19" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="J141" s="19"/>
       <c r="K141" s="19" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="L141" s="19"/>
       <c r="M141" s="19" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>675</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C142" s="19"/>
       <c r="D142" s="19" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>678</v>
+        <v>261</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="H142" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="I142" s="19" t="s">
-        <v>680</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
       <c r="J142" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="K142" s="19" t="s">
-        <v>679</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="K142" s="19"/>
       <c r="L142" s="19"/>
       <c r="M142" s="19" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-      <c r="N143" s="15" t="s">
-        <v>191</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="I143" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="N143" s="19" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="C144" s="19" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
+        <v>679</v>
+      </c>
+      <c r="J144" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="K144" s="19" t="s">
+        <v>678</v>
+      </c>
       <c r="L144" s="19"/>
       <c r="M144" s="19" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="F145" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="G145" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="J145" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="N145" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>234</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B146" s="19"/>
       <c r="C146" s="19" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="G146" s="19"/>
+        <v>691</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>686</v>
+      </c>
       <c r="H146" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="I146" s="19"/>
+        <v>688</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>684</v>
+      </c>
       <c r="J146" s="19"/>
-      <c r="K146" s="19" t="s">
-        <v>703</v>
-      </c>
+      <c r="K146" s="19"/>
       <c r="L146" s="19"/>
       <c r="M146" s="19" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B147" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="C147" s="19" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>712</v>
+        <v>276</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="H147" s="19" t="s">
-        <v>689</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="H147" s="19"/>
       <c r="I147" s="19" t="s">
-        <v>707</v>
-      </c>
-      <c r="J147" s="19"/>
+        <v>693</v>
+      </c>
+      <c r="J147" s="19" t="s">
+        <v>275</v>
+      </c>
       <c r="K147" s="19"/>
       <c r="L147" s="19"/>
       <c r="M147" s="19" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>720</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="G148" s="19"/>
       <c r="H148" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="I148" s="19" t="s">
-        <v>680</v>
-      </c>
-      <c r="J148" s="19" t="s">
-        <v>717</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
       <c r="K148" s="19" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="L148" s="19"/>
       <c r="M148" s="19" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>722</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>234</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B149" s="19"/>
       <c r="C149" s="19" t="s">
-        <v>201</v>
+        <v>707</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="E149" s="19"/>
+        <v>711</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>708</v>
+      </c>
       <c r="F149" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19" t="s">
-        <v>263</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="J149" s="19"/>
       <c r="K149" s="19"/>
       <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
+      <c r="M149" s="19" t="s">
+        <v>710</v>
+      </c>
       <c r="N149" s="19" t="s">
-        <v>191</v>
+        <v>640</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
+        <v>679</v>
+      </c>
+      <c r="J150" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="K150" s="19" t="s">
+        <v>717</v>
+      </c>
       <c r="L150" s="19"/>
       <c r="M150" s="19" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>732</v>
+        <v>200</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>735</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="E151" s="19"/>
       <c r="F151" s="19" t="s">
-        <v>733</v>
+        <v>264</v>
       </c>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="J151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19" t="s">
+        <v>262</v>
+      </c>
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
-      <c r="M151" s="19" t="s">
-        <v>736</v>
-      </c>
+      <c r="M151" s="19"/>
       <c r="N151" s="19" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="J152" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="I152" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="N152" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="F153" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="N153" s="19" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="154" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
+      <c r="I154" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
+      <c r="N154" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>275</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="8"/>
-      <c r="F155" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -8739,13 +8737,11 @@
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
       <c r="M155" s="8"/>
-      <c r="N155" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="N155" s="8"/>
     </row>
     <row r="156" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -8763,13 +8759,21 @@
     </row>
     <row r="157" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
+      <c r="F157" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
@@ -8777,11 +8781,13 @@
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="8"/>
-      <c r="N157" s="8"/>
+      <c r="N157" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="158" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -8799,7 +8805,7 @@
     </row>
     <row r="159" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -8817,143 +8823,141 @@
     </row>
     <row r="160" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B160" s="8"/>
       <c r="C160" s="8"/>
-      <c r="D160" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>224</v>
-      </c>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
-      <c r="K160" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="8"/>
-      <c r="N160" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="N160" s="8"/>
     </row>
     <row r="161" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B161" s="8"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="8" t="s">
-        <v>227</v>
-      </c>
+      <c r="D161" s="8"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
-      <c r="K161" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8"/>
-      <c r="N161" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="N161" s="8"/>
     </row>
     <row r="162" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>237</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C162" s="8"/>
       <c r="D162" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E162" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="F162" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G162" s="8"/>
-      <c r="H162" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I162" s="8" t="s">
-        <v>235</v>
-      </c>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
       <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
+      <c r="K162" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="C163" s="8"/>
       <c r="D163" s="8" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
+      <c r="F163" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
+      <c r="K163" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="L163" s="8"/>
       <c r="M163" s="8"/>
       <c r="N163" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
+      <c r="F164" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
+      <c r="H164" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
       <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
+      <c r="N164" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="165" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B165" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
+      <c r="D165" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
@@ -8963,11 +8967,13 @@
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
       <c r="M165" s="8"/>
-      <c r="N165" s="8"/>
+      <c r="N165" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="166" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -8985,7 +8991,7 @@
     </row>
     <row r="167" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -9003,7 +9009,7 @@
     </row>
     <row r="168" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -9021,35 +9027,25 @@
     </row>
     <row r="169" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>234</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B169" s="8"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="8" t="s">
-        <v>184</v>
-      </c>
+      <c r="D169" s="8"/>
       <c r="E169" s="8"/>
-      <c r="F169" s="8" t="s">
-        <v>252</v>
-      </c>
+      <c r="F169" s="8"/>
       <c r="G169" s="8"/>
-      <c r="H169" s="8" t="s">
-        <v>253</v>
-      </c>
+      <c r="H169" s="8"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
       <c r="M169" s="8"/>
-      <c r="N169" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="N169" s="8"/>
     </row>
     <row r="170" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -9067,33 +9063,35 @@
     </row>
     <row r="171" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
+      <c r="F171" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
+      <c r="H171" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
-      <c r="K171" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="K171" s="8"/>
       <c r="L171" s="8"/>
       <c r="M171" s="8"/>
       <c r="N171" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -9111,25 +9109,33 @@
     </row>
     <row r="173" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B173" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
+      <c r="D173" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
-      <c r="K173" s="8"/>
+      <c r="K173" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
-      <c r="N173" s="8"/>
+      <c r="N173" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="174" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -9147,7 +9153,7 @@
     </row>
     <row r="175" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -9165,7 +9171,7 @@
     </row>
     <row r="176" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -9183,7 +9189,7 @@
     </row>
     <row r="177" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -9201,7 +9207,7 @@
     </row>
     <row r="178" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -9219,19 +9225,13 @@
     </row>
     <row r="179" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B179" s="8"/>
       <c r="C179" s="8"/>
-      <c r="D179" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="D179" s="8"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -9239,25 +9239,17 @@
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
-      <c r="N179" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="N179" s="8"/>
     </row>
     <row r="180" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B180" s="8"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="D180" s="8"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -9265,15 +9257,65 @@
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
-      <c r="N180" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="12"/>
+      <c r="N180" s="8"/>
+    </row>
+    <row r="181" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
+      <c r="N182" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N180"/>
+  <autoFilter ref="A1:N182"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$183</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="1024">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -3147,6 +3147,57 @@
   </si>
   <si>
     <t>Niea torta</t>
+  </si>
+  <si>
+    <t>*Pale brown.</t>
+  </si>
+  <si>
+    <t>*Microgranular.</t>
+  </si>
+  <si>
+    <t>*Bears fewer than 80 randomly distributed, slender, acuminate, solid and unpigmented processes with circular bases.</t>
+  </si>
+  <si>
+    <t>*Theropylic, formed by a zigzag split following the boundaries of 1a/2", 1a/3", 1a/4", 1a/5", 2'/2" y 3'/5"</t>
+  </si>
+  <si>
+    <t>*30 to 53 um. (diameter)</t>
+  </si>
+  <si>
+    <t>*1 to 8 um. (length)</t>
+  </si>
+  <si>
+    <t>*E. transparantum is small and has long processes with rectangular bases, and the archeopyle is a simple split. E. zonneveldiae has a theropylic archeopyle which forms a long straight split and has processes also with a rectangular base.</t>
+  </si>
+  <si>
+    <t>*Hexagonal and theropylic (1a)</t>
+  </si>
+  <si>
+    <t>*25 to 50 um. (diameter)</t>
+  </si>
+  <si>
+    <t>*Finely and faintly ornamented surface.</t>
+  </si>
+  <si>
+    <t>*Theropylic, formed by a split along the cingulum.</t>
+  </si>
+  <si>
+    <t>*60 to 70 um. (diameter)</t>
+  </si>
+  <si>
+    <t>Oblea rotunda</t>
+  </si>
+  <si>
+    <t>*Spherical.</t>
+  </si>
+  <si>
+    <t>*Theropylic, forming a split that extends about two thirds of the way around the cyst along the margin between the first intercalary plate and the second to fourth precingular plate.</t>
+  </si>
+  <si>
+    <t>*Pale brown. Living cysts contain pale droplets.</t>
+  </si>
+  <si>
+    <t>*22 to 31 um. (diameter).</t>
   </si>
 </sst>
 </file>
@@ -3296,9 +3347,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3375,6 +3423,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3657,3234 +3708,3280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" style="9" customWidth="1"/>
-    <col min="7" max="9" width="30.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="30.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="58.28515625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="42.5703125" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="32.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" style="8" customWidth="1"/>
+    <col min="7" max="9" width="30.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="30.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="58.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>756</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>759</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>763</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>761</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>769</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24" t="s">
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>777</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>780</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>788</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="23" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="23" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24" t="s">
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>739</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>742</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24" t="s">
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23" t="s">
         <v>746</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="23" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>748</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
         <v>751</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24" t="s">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24" t="s">
+      <c r="I21" s="23"/>
+      <c r="J21" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24" t="s">
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24" t="s">
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24" t="s">
+      <c r="I24" s="23"/>
+      <c r="J24" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24" t="s">
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24" t="s">
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24" t="s">
+      <c r="I25" s="23"/>
+      <c r="J25" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24" t="s">
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24" t="s">
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="23" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="23" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24" t="s">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="23" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24" t="s">
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="23" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24" t="s">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24" t="s">
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="23" t="s">
         <v>846</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24" t="s">
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24" t="s">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N32" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24" t="s">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="N33" s="24" t="s">
+      <c r="N33" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24" t="s">
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24" t="s">
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="N34" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24" t="s">
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24" t="s">
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="23" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24" t="s">
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24" t="s">
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24" t="s">
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24" t="s">
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24" t="s">
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+    <row r="42" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24" t="s">
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="N42" s="24" t="s">
+      <c r="N42" s="23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+    <row r="43" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24" t="s">
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="N43" s="23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="25" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:14" s="24" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24" t="s">
+      <c r="J44" s="23"/>
+      <c r="K44" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24" t="s">
+      <c r="L44" s="23"/>
+      <c r="M44" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+    <row r="45" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24" t="s">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24" t="s">
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="N45" s="24" t="s">
+      <c r="N45" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24" t="s">
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24" t="s">
+      <c r="J46" s="23"/>
+      <c r="K46" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24" t="s">
+      <c r="L46" s="23"/>
+      <c r="M46" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="N46" s="24" t="s">
+      <c r="N46" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24" t="s">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24" t="s">
+      <c r="J47" s="23"/>
+      <c r="K47" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24" t="s">
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+    <row r="48" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24" t="s">
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24" t="s">
+      <c r="J48" s="23"/>
+      <c r="K48" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="L48" s="24" t="s">
+      <c r="L48" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="M48" s="24" t="s">
+      <c r="M48" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="N48" s="24" t="s">
+      <c r="N48" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="23" t="s">
         <v>854</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="J49" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="N49" s="24" t="s">
+      <c r="N49" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24" t="s">
+      <c r="G50" s="23"/>
+      <c r="H50" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24" t="s">
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+    <row r="51" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="23" t="s">
         <v>886</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="23" t="s">
         <v>888</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24" t="s">
+      <c r="G51" s="23"/>
+      <c r="H51" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="23" t="s">
         <v>887</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="23" t="s">
         <v>889</v>
       </c>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24" t="s">
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+    <row r="52" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="23" t="s">
         <v>860</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="L52" s="23" t="s">
         <v>860</v>
       </c>
-      <c r="M52" s="24" t="s">
+      <c r="M52" s="23" t="s">
         <v>862</v>
       </c>
-      <c r="N52" s="24" t="s">
+      <c r="N52" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+    <row r="53" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="23" t="s">
         <v>864</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>863</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J53" s="23" t="s">
         <v>866</v>
       </c>
-      <c r="K53" s="24" t="s">
+      <c r="K53" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="L53" s="24" t="s">
+      <c r="L53" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="M53" s="24" t="s">
+      <c r="M53" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="N53" s="24" t="s">
+      <c r="N53" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>869</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="23" t="s">
         <v>873</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24" t="s">
+      <c r="G54" s="23"/>
+      <c r="H54" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="J54" s="24" t="s">
+      <c r="J54" s="23" t="s">
         <v>872</v>
       </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24" t="s">
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23" t="s">
         <v>874</v>
       </c>
-      <c r="N54" s="24" t="s">
+      <c r="N54" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+    <row r="55" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24" t="s">
+      <c r="G55" s="23"/>
+      <c r="H55" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24" t="s">
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+    <row r="56" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>880</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="23" t="s">
         <v>883</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24" t="s">
+      <c r="G56" s="23"/>
+      <c r="H56" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="23" t="s">
         <v>882</v>
       </c>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24" t="s">
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23" t="s">
         <v>884</v>
       </c>
-      <c r="N56" s="24" t="s">
+      <c r="N56" s="23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="25" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+    <row r="57" spans="1:14" s="24" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>897</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24" t="s">
+      <c r="G57" s="23"/>
+      <c r="H57" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I57" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="J57" s="24" t="s">
+      <c r="J57" s="23" t="s">
         <v>898</v>
       </c>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24" t="s">
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="N57" s="24" t="s">
+      <c r="N57" s="23" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>901</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="23" t="s">
         <v>902</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>905</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24" t="s">
+      <c r="G58" s="23"/>
+      <c r="H58" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="23" t="s">
         <v>903</v>
       </c>
-      <c r="J58" s="24" t="s">
+      <c r="J58" s="23" t="s">
         <v>906</v>
       </c>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="L58" s="24" t="s">
+      <c r="L58" s="23" t="s">
         <v>904</v>
       </c>
-      <c r="M58" s="24" t="s">
+      <c r="M58" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="N58" s="24" t="s">
+      <c r="N58" s="23" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24" t="s">
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+    <row r="60" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24" t="s">
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24" t="s">
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+    <row r="62" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="23" t="s">
         <v>910</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>909</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="23" t="s">
         <v>912</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24" t="s">
+      <c r="G62" s="23"/>
+      <c r="H62" s="23" t="s">
         <v>911</v>
       </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24" t="s">
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23" t="s">
         <v>908</v>
       </c>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24" t="s">
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+    <row r="63" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>914</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>920</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24" t="s">
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23" t="s">
         <v>916</v>
       </c>
-      <c r="I63" s="24" t="s">
+      <c r="I63" s="23" t="s">
         <v>917</v>
       </c>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24" t="s">
+      <c r="J63" s="23"/>
+      <c r="K63" s="23" t="s">
         <v>918</v>
       </c>
-      <c r="L63" s="24" t="s">
+      <c r="L63" s="23" t="s">
         <v>919</v>
       </c>
-      <c r="M63" s="24" t="s">
+      <c r="M63" s="23" t="s">
         <v>921</v>
       </c>
-      <c r="N63" s="24" t="s">
+      <c r="N63" s="23" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+    <row r="64" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>950</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>951</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24" t="s">
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23" t="s">
         <v>952</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24" t="s">
+      <c r="J64" s="23"/>
+      <c r="K64" s="23" t="s">
         <v>953</v>
       </c>
-      <c r="L64" s="24" t="s">
+      <c r="L64" s="23" t="s">
         <v>994</v>
       </c>
-      <c r="M64" s="24" t="s">
+      <c r="M64" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="N64" s="24" t="s">
+      <c r="N64" s="23" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+    <row r="65" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>923</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>924</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24" t="s">
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23" t="s">
         <v>925</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="I65" s="23" t="s">
         <v>917</v>
       </c>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24" t="s">
+      <c r="J65" s="23"/>
+      <c r="K65" s="23" t="s">
         <v>926</v>
       </c>
-      <c r="L65" s="24" t="s">
+      <c r="L65" s="23" t="s">
         <v>928</v>
       </c>
-      <c r="M65" s="24" t="s">
+      <c r="M65" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="N65" s="24" t="s">
+      <c r="N65" s="23" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+    <row r="66" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>954</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24" t="s">
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="I66" s="24" t="s">
+      <c r="I66" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24" t="s">
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="N66" s="24" t="s">
+      <c r="N66" s="23" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="25" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+    <row r="67" spans="1:14" s="24" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>957</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="23" t="s">
         <v>958</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24" t="s">
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24" t="s">
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23" t="s">
         <v>962</v>
       </c>
-      <c r="N67" s="24" t="s">
+      <c r="N67" s="23" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+    <row r="68" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="23" t="s">
         <v>965</v>
       </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24" t="s">
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23" t="s">
         <v>963</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24" t="s">
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="N68" s="24" t="s">
+      <c r="N68" s="23" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+    <row r="69" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>930</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24" t="s">
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23" t="s">
         <v>931</v>
       </c>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24" t="s">
+      <c r="L69" s="23"/>
+      <c r="M69" s="23" t="s">
         <v>933</v>
       </c>
-      <c r="N69" s="24" t="s">
+      <c r="N69" s="23" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+    <row r="70" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="F70" s="24"/>
-      <c r="H70" s="24" t="s">
+      <c r="F70" s="23"/>
+      <c r="H70" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24" t="s">
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="L70" s="24" t="s">
+      <c r="L70" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24" t="s">
+      <c r="M70" s="23"/>
+      <c r="N70" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="25" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+    <row r="71" spans="1:14" s="24" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="N71" s="24" t="s">
+      <c r="N71" s="23" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="29" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+    <row r="72" spans="1:14" s="28" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="27" t="s">
         <v>975</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28" t="s">
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="I72" s="28" t="s">
+      <c r="I72" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28" t="s">
+      <c r="J72" s="27"/>
+      <c r="K72" s="27" t="s">
         <v>976</v>
       </c>
-      <c r="L72" s="28"/>
-      <c r="M72" s="24" t="s">
+      <c r="L72" s="27"/>
+      <c r="M72" s="23" t="s">
         <v>978</v>
       </c>
-      <c r="N72" s="28" t="s">
+      <c r="N72" s="27" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+    <row r="73" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24" t="s">
+      <c r="B73" s="23"/>
+      <c r="C73" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="23" t="s">
         <v>968</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="23" t="s">
         <v>973</v>
       </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24" t="s">
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23" t="s">
         <v>972</v>
       </c>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24" t="s">
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23" t="s">
         <v>970</v>
       </c>
-      <c r="L73" s="24" t="s">
+      <c r="L73" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="M73" s="24" t="s">
+      <c r="M73" s="23" t="s">
         <v>974</v>
       </c>
-      <c r="N73" s="24" t="s">
+      <c r="N73" s="23" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+    <row r="74" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24" t="s">
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="I74" s="24" t="s">
+      <c r="I74" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24" t="s">
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="25" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
+    <row r="75" spans="1:14" s="24" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="23" t="s">
         <v>935</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="23" t="s">
         <v>934</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24" t="s">
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="I75" s="24" t="s">
+      <c r="I75" s="23" t="s">
         <v>937</v>
       </c>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24" t="s">
+      <c r="J75" s="23"/>
+      <c r="K75" s="23" t="s">
         <v>938</v>
       </c>
-      <c r="L75" s="24" t="s">
+      <c r="L75" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="M75" s="24" t="s">
+      <c r="M75" s="23" t="s">
         <v>941</v>
       </c>
-      <c r="N75" s="24" t="s">
+      <c r="N75" s="23" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+    <row r="76" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>979</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="23" t="s">
         <v>983</v>
       </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24" t="s">
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24" t="s">
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23" t="s">
         <v>981</v>
       </c>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24" t="s">
+      <c r="L76" s="23"/>
+      <c r="M76" s="23" t="s">
         <v>984</v>
       </c>
-      <c r="N76" s="24" t="s">
+      <c r="N76" s="23" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+    <row r="77" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24" t="s">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I77" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24" t="s">
+      <c r="J77" s="23"/>
+      <c r="K77" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="L77" s="24" t="s">
+      <c r="L77" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24" t="s">
+      <c r="M77" s="23"/>
+      <c r="N77" s="23" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+    <row r="78" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24" t="s">
+      <c r="E78" s="23"/>
+      <c r="F78" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24" t="s">
+      <c r="G78" s="23"/>
+      <c r="H78" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24" t="s">
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23" t="s">
         <v>990</v>
       </c>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24" t="s">
+      <c r="L78" s="23"/>
+      <c r="M78" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="N78" s="24" t="s">
+      <c r="N78" s="23" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+    <row r="79" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24" t="s">
+      <c r="G79" s="23"/>
+      <c r="H79" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24" t="s">
+      <c r="I79" s="23"/>
+      <c r="J79" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="K79" s="24" t="s">
+      <c r="K79" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24" t="s">
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+    <row r="80" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24" t="s">
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="I80" s="24" t="s">
+      <c r="I80" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24" t="s">
+      <c r="J80" s="23"/>
+      <c r="K80" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24" t="s">
+      <c r="L80" s="23"/>
+      <c r="M80" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="N80" s="24" t="s">
+      <c r="N80" s="23" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="25" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+    <row r="81" spans="1:14" s="24" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="23" t="s">
         <v>942</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24" t="s">
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="I81" s="24" t="s">
+      <c r="I81" s="23" t="s">
         <v>946</v>
       </c>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24" t="s">
+      <c r="J81" s="23"/>
+      <c r="K81" s="23" t="s">
         <v>947</v>
       </c>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24" t="s">
+      <c r="L81" s="23"/>
+      <c r="M81" s="23" t="s">
         <v>949</v>
       </c>
-      <c r="N81" s="24" t="s">
+      <c r="N81" s="23" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+    <row r="82" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24" t="s">
+      <c r="C82" s="23"/>
+      <c r="D82" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24" t="s">
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24" t="s">
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+    <row r="83" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="H83" s="24" t="s">
+      <c r="H83" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24" t="s">
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="N83" s="24" t="s">
+      <c r="N83" s="23" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="25" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+    <row r="84" spans="1:14" s="24" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="23" t="s">
         <v>995</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="23" t="s">
         <v>996</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E84" s="23" t="s">
         <v>999</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G84" s="23" t="s">
         <v>1000</v>
       </c>
-      <c r="H84" s="24" t="s">
+      <c r="H84" s="23" t="s">
         <v>998</v>
       </c>
-      <c r="I84" s="24" t="s">
+      <c r="I84" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24" t="s">
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23" t="s">
         <v>1001</v>
       </c>
-      <c r="N84" s="24" t="s">
+      <c r="N84" s="23" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+    <row r="85" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E85" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24" t="s">
+      <c r="H85" s="23"/>
+      <c r="I85" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24" t="s">
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="N85" s="24" t="s">
+      <c r="N85" s="23" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+    <row r="86" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="G86" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24" t="s">
+      <c r="H86" s="23"/>
+      <c r="I86" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24" t="s">
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="N86" s="24" t="s">
+      <c r="N86" s="23" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+    <row r="87" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24" t="s">
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F87" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24" t="s">
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24" t="s">
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="N87" s="24" t="s">
+      <c r="N87" s="23" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
         <v>1004</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="B88" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
         <v>1005</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+      <c r="B89" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
         <v>1006</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-    </row>
-    <row r="91" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B90" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2" t="s">
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>524</v>
@@ -6897,30 +6994,30 @@
         <v>525</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>243</v>
+        <v>527</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>524</v>
@@ -6934,2388 +7031,2424 @@
       </c>
     </row>
     <row r="95" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C96" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15" t="s">
+      <c r="E96" s="14"/>
+      <c r="F96" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15" t="s">
+      <c r="G96" s="14"/>
+      <c r="H96" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15" t="s">
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>183</v>
+        <v>542</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+    <row r="100" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-    </row>
-    <row r="100" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+    </row>
+    <row r="101" spans="1:14" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D101" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8" t="s">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8" t="s">
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8" t="s">
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+    <row r="102" spans="1:14" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8" t="s">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8" t="s">
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8" t="s">
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+    <row r="103" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B103" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C103" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D103" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E103" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F103" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19" t="s">
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+    <row r="104" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B104" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19" t="s">
+      <c r="C104" s="18"/>
+      <c r="D104" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E104" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F104" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G104" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H104" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19" t="s">
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19" t="s">
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+    <row r="105" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B105" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C105" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D105" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E105" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="F104" s="19" t="s">
+      <c r="F105" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="G104" s="19" t="s">
+      <c r="G105" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="H104" s="19" t="s">
+      <c r="H105" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19" t="s">
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="N104" s="19" t="s">
+      <c r="N105" s="18" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+    <row r="106" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15" t="s">
+      <c r="C106" s="14"/>
+      <c r="D106" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15" t="s">
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+    <row r="107" spans="1:14" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D107" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
+      <c r="E107" s="7"/>
+      <c r="F107" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8" t="s">
+      <c r="G107" s="7"/>
+      <c r="H107" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8" t="s">
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+    <row r="108" spans="1:14" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8" t="s">
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8" t="s">
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+    <row r="109" spans="1:14" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8" t="s">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
+      <c r="E109" s="7"/>
+      <c r="F109" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8" t="s">
+      <c r="G109" s="7"/>
+      <c r="H109" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8" t="s">
+      <c r="I109" s="7"/>
+      <c r="J109" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8" t="s">
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+    <row r="110" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
+      <c r="E110" s="7"/>
+      <c r="F110" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8" t="s">
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+    <row r="111" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+    </row>
+    <row r="112" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8" t="s">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8" t="s">
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8" t="s">
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+    <row r="113" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+    </row>
+    <row r="114" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D114" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
+      <c r="E114" s="7"/>
+      <c r="F114" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8" t="s">
+      <c r="G114" s="7"/>
+      <c r="H114" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I113" s="8" t="s">
+      <c r="I114" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J113" s="8" t="s">
+      <c r="J114" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8" t="s">
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+    <row r="115" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8" t="s">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
+      <c r="E115" s="7"/>
+      <c r="F115" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8" t="s">
+      <c r="G115" s="7"/>
+      <c r="H115" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8" t="s">
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+    <row r="116" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D116" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
+      <c r="E116" s="7"/>
+      <c r="F116" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8" t="s">
+      <c r="G116" s="7"/>
+      <c r="H116" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I116" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8" t="s">
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+    <row r="117" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D117" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8" t="s">
+      <c r="G117" s="7"/>
+      <c r="H117" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I117" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8" t="s">
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+    <row r="118" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+    </row>
+    <row r="119" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B119" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C118" s="19" t="s">
+      <c r="C119" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D119" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E119" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="F118" s="19" t="s">
+      <c r="F119" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G118" s="19" t="s">
+      <c r="G119" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="H118" s="19" t="s">
+      <c r="H119" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="I118" s="19" t="s">
+      <c r="I119" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19" t="s">
+      <c r="J119" s="18"/>
+      <c r="K119" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="L118" s="19" t="s">
+      <c r="L119" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19" t="s">
+      <c r="M119" s="18"/>
+      <c r="N119" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+    <row r="120" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-    </row>
-    <row r="120" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+    </row>
+    <row r="121" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-    </row>
-    <row r="121" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+    </row>
+    <row r="122" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
-    </row>
-    <row r="122" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-    </row>
-    <row r="123" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+    </row>
+    <row r="124" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-    </row>
-    <row r="124" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="14"/>
+    </row>
+    <row r="125" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
-    </row>
-    <row r="125" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+    </row>
+    <row r="126" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B126" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C126" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D126" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E126" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F126" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19" t="s">
+      <c r="G126" s="18"/>
+      <c r="H126" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19" t="s">
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="N125" s="19" t="s">
+      <c r="N126" s="18" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+    <row r="127" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-    </row>
-    <row r="127" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+    </row>
+    <row r="128" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15" t="s">
+      <c r="C128" s="14"/>
+      <c r="D128" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15" t="s">
+      <c r="E128" s="14"/>
+      <c r="F128" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15" t="s">
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+    <row r="129" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19" t="s">
+      <c r="B129" s="18"/>
+      <c r="C129" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D129" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E129" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="F128" s="19" t="s">
+      <c r="F129" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="G128" s="19" t="s">
+      <c r="G129" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="H128" s="19" t="s">
+      <c r="H129" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="I128" s="19" t="s">
+      <c r="I129" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="J128" s="19" t="s">
+      <c r="J129" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="K128" s="19" t="s">
+      <c r="K129" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19" t="s">
+      <c r="L129" s="18"/>
+      <c r="M129" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="N128" s="19" t="s">
+      <c r="N129" s="18" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+    <row r="130" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-    </row>
-    <row r="130" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+    </row>
+    <row r="131" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-    </row>
-    <row r="131" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
-    </row>
-    <row r="132" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+    </row>
+    <row r="133" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B133" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C133" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D133" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="E132" s="19" t="s">
+      <c r="E133" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F133" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="G132" s="19" t="s">
+      <c r="G133" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="H132" s="19" t="s">
+      <c r="H133" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19" t="s">
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19" t="s">
+      <c r="L133" s="18"/>
+      <c r="M133" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="N132" s="19" t="s">
+      <c r="N133" s="18" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+    <row r="134" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19" t="s">
+      <c r="B134" s="18"/>
+      <c r="C134" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D134" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E134" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="F133" s="19" t="s">
+      <c r="F134" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19" t="s">
+      <c r="G134" s="18"/>
+      <c r="H134" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19" t="s">
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19" t="s">
+      <c r="L134" s="18"/>
+      <c r="M134" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="N133" s="19" t="s">
+      <c r="N134" s="18" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+    <row r="135" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B135" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C135" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D135" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E135" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F135" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19" t="s">
+      <c r="G135" s="18"/>
+      <c r="H135" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19" t="s">
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19" t="s">
+      <c r="L135" s="18"/>
+      <c r="M135" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="N134" s="19" t="s">
+      <c r="N135" s="18" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+    <row r="136" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B135" s="19" t="s">
+      <c r="B136" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C136" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D136" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="E135" s="19" t="s">
+      <c r="E136" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="F135" s="19" t="s">
+      <c r="F136" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="G135" s="19" t="s">
+      <c r="G136" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="H135" s="19" t="s">
+      <c r="H136" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="I135" s="19" t="s">
+      <c r="I136" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19" t="s">
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="N135" s="19" t="s">
+      <c r="N136" s="18" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
+    <row r="137" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19" t="s">
+      <c r="B137" s="18"/>
+      <c r="C137" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D137" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E137" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19" t="s">
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19" t="s">
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19" t="s">
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="18" t="s">
+    <row r="138" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B137" s="19" t="s">
+      <c r="B138" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19" t="s">
+      <c r="C138" s="18"/>
+      <c r="D138" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="E137" s="19" t="s">
+      <c r="E138" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="F137" s="19" t="s">
+      <c r="F138" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19" t="s">
+      <c r="G138" s="18"/>
+      <c r="H138" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19" t="s">
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19" t="s">
+      <c r="L138" s="18"/>
+      <c r="M138" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="N137" s="19" t="s">
+      <c r="N138" s="18" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+    <row r="139" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B139" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15" t="s">
+      <c r="C139" s="14"/>
+      <c r="D139" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15" t="s">
+      <c r="E139" s="14"/>
+      <c r="F139" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-    </row>
-    <row r="139" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+    </row>
+    <row r="140" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D140" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E140" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="F139" s="19" t="s">
+      <c r="F140" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="G139" s="19" t="s">
+      <c r="G140" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19" t="s">
+      <c r="H140" s="18"/>
+      <c r="I140" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19" t="s">
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="N139" s="19" t="s">
+      <c r="N140" s="18" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="18" t="s">
+    <row r="141" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B141" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C141" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="D140" s="19" t="s">
+      <c r="D141" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="E140" s="19" t="s">
+      <c r="E141" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="F140" s="19" t="s">
+      <c r="F141" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="G140" s="19" t="s">
+      <c r="G141" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19" t="s">
+      <c r="H141" s="18"/>
+      <c r="I141" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19" t="s">
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="N140" s="19" t="s">
+      <c r="N141" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+    <row r="142" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B142" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C142" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D142" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="E141" s="19" t="s">
+      <c r="E142" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="F141" s="19" t="s">
+      <c r="F142" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="G141" s="19" t="s">
+      <c r="G142" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="H141" s="19" t="s">
+      <c r="H142" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="I141" s="19" t="s">
+      <c r="I142" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19" t="s">
+      <c r="J142" s="18"/>
+      <c r="K142" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19" t="s">
+      <c r="L142" s="18"/>
+      <c r="M142" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="N141" s="19" t="s">
+      <c r="N142" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
+    <row r="143" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B143" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19" t="s">
+      <c r="C143" s="18"/>
+      <c r="D143" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="E142" s="19" t="s">
+      <c r="E143" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="F142" s="19" t="s">
+      <c r="F143" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="G142" s="19" t="s">
+      <c r="G143" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19" t="s">
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19" t="s">
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="N142" s="19" t="s">
+      <c r="N143" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
+    <row r="144" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B144" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C144" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D144" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="E143" s="19" t="s">
+      <c r="E144" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="F143" s="19" t="s">
+      <c r="F144" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="G143" s="19" t="s">
+      <c r="G144" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="H143" s="19" t="s">
+      <c r="H144" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="I143" s="19" t="s">
+      <c r="I144" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19" t="s">
+      <c r="J144" s="18"/>
+      <c r="K144" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19" t="s">
+      <c r="L144" s="18"/>
+      <c r="M144" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="N143" s="19" t="s">
+      <c r="N144" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
+    <row r="145" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B145" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C145" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D145" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="E144" s="19" t="s">
+      <c r="E145" s="18" t="s">
         <v>681</v>
       </c>
-      <c r="F144" s="19" t="s">
+      <c r="F145" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="G144" s="19" t="s">
+      <c r="G145" s="18" t="s">
         <v>682</v>
       </c>
-      <c r="H144" s="19" t="s">
+      <c r="H145" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="I144" s="19" t="s">
+      <c r="I145" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="J144" s="19" t="s">
+      <c r="J145" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="K144" s="19" t="s">
+      <c r="K145" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19" t="s">
+      <c r="L145" s="18"/>
+      <c r="M145" s="18" t="s">
         <v>683</v>
       </c>
-      <c r="N144" s="19" t="s">
+      <c r="N145" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
+    <row r="146" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B146" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15" t="s">
+      <c r="C146" s="14"/>
+      <c r="D146" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15" t="s">
+      <c r="E146" s="14"/>
+      <c r="F146" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15" t="s">
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15" t="s">
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+    <row r="147" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19" t="s">
+      <c r="B147" s="18"/>
+      <c r="C147" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="D146" s="19" t="s">
+      <c r="D147" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="E146" s="19" t="s">
+      <c r="E147" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="F146" s="19" t="s">
+      <c r="F147" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="G146" s="19" t="s">
+      <c r="G147" s="18" t="s">
         <v>686</v>
       </c>
-      <c r="H146" s="19" t="s">
+      <c r="H147" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="I146" s="19" t="s">
+      <c r="I147" s="18" t="s">
         <v>684</v>
       </c>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19" t="s">
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="N146" s="19" t="s">
+      <c r="N147" s="18" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
+    <row r="148" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B148" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C148" s="18" t="s">
         <v>697</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D148" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E147" s="19" t="s">
+      <c r="E148" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="F147" s="19" t="s">
+      <c r="F148" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G148" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19" t="s">
+      <c r="H148" s="18"/>
+      <c r="I148" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="J147" s="19" t="s">
+      <c r="J148" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19" t="s">
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18" t="s">
         <v>698</v>
       </c>
-      <c r="N147" s="19" t="s">
+      <c r="N148" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
+    <row r="149" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B149" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C149" s="18" t="s">
         <v>700</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D149" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E149" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="F148" s="19" t="s">
+      <c r="F149" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19" t="s">
+      <c r="G149" s="18"/>
+      <c r="H149" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19" t="s">
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19" t="s">
+      <c r="L149" s="18"/>
+      <c r="M149" s="18" t="s">
         <v>705</v>
       </c>
-      <c r="N148" s="19" t="s">
+      <c r="N149" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
+    <row r="150" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19" t="s">
+      <c r="B150" s="18"/>
+      <c r="C150" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D150" s="18" t="s">
         <v>711</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E150" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="F149" s="19" t="s">
+      <c r="F150" s="18" t="s">
         <v>712</v>
       </c>
-      <c r="G149" s="19" t="s">
+      <c r="G150" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="H149" s="19" t="s">
+      <c r="H150" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="I149" s="19" t="s">
+      <c r="I150" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19" t="s">
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="N149" s="19" t="s">
+      <c r="N150" s="18" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
+    <row r="151" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B151" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C151" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D151" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="E150" s="19" t="s">
+      <c r="E151" s="18" t="s">
         <v>718</v>
       </c>
-      <c r="F150" s="19" t="s">
+      <c r="F151" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="G150" s="19" t="s">
+      <c r="G151" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="H150" s="19" t="s">
+      <c r="H151" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="I150" s="19" t="s">
+      <c r="I151" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="J150" s="19" t="s">
+      <c r="J151" s="18" t="s">
         <v>716</v>
       </c>
-      <c r="K150" s="19" t="s">
+      <c r="K151" s="18" t="s">
         <v>717</v>
       </c>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19" t="s">
+      <c r="L151" s="18"/>
+      <c r="M151" s="18" t="s">
         <v>720</v>
       </c>
-      <c r="N150" s="19" t="s">
+      <c r="N151" s="18" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
+    <row r="152" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="19" t="s">
+      <c r="B152" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C152" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D151" s="19" t="s">
+      <c r="D152" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19" t="s">
+      <c r="E152" s="18"/>
+      <c r="F152" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19" t="s">
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19" t="s">
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
+    <row r="153" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B153" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C153" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="D152" s="19" t="s">
+      <c r="D153" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="E152" s="19" t="s">
+      <c r="E153" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="F152" s="19" t="s">
+      <c r="F153" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="G152" s="19" t="s">
+      <c r="G153" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="H152" s="19" t="s">
+      <c r="H153" s="18" t="s">
         <v>722</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="I153" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19" t="s">
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18" t="s">
         <v>729</v>
       </c>
-      <c r="N152" s="19" t="s">
+      <c r="N153" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+    <row r="154" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B154" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C154" s="18" t="s">
         <v>731</v>
       </c>
-      <c r="D153" s="19" t="s">
+      <c r="D154" s="18" t="s">
         <v>730</v>
       </c>
-      <c r="E153" s="19" t="s">
+      <c r="E154" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="F153" s="19" t="s">
+      <c r="F154" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19" t="s">
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19" t="s">
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="N153" s="19" t="s">
+      <c r="N154" s="18" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
+    <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D155" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E155" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F155" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8" t="s">
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="J154" s="8" t="s">
+      <c r="J155" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8" t="s">
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
-    </row>
-    <row r="156" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+    </row>
+    <row r="157" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-    </row>
-    <row r="157" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+    </row>
+    <row r="158" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D158" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8" t="s">
+      <c r="E158" s="7"/>
+      <c r="F158" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="8" t="s">
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
+    <row r="159" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-    </row>
-    <row r="159" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+    </row>
+    <row r="160" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="8"/>
-      <c r="N159" s="8"/>
-    </row>
-    <row r="160" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+    </row>
+    <row r="161" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="8"/>
-    </row>
-    <row r="161" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+    </row>
+    <row r="162" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="8"/>
-      <c r="N161" s="8"/>
-    </row>
-    <row r="162" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+    </row>
+    <row r="163" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8" t="s">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E163" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F163" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8" t="s">
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="8" t="s">
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
+    <row r="164" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8" t="s">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8" t="s">
+      <c r="E164" s="7"/>
+      <c r="F164" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8" t="s">
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8" t="s">
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
+    <row r="165" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D165" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8" t="s">
+      <c r="E165" s="7"/>
+      <c r="F165" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8" t="s">
+      <c r="G165" s="7"/>
+      <c r="H165" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="I164" s="8" t="s">
+      <c r="I165" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8" t="s">
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
+    <row r="166" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8" t="s">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-      <c r="N165" s="8" t="s">
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-      <c r="N166" s="8"/>
-    </row>
-    <row r="167" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+    </row>
+    <row r="168" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
-      <c r="K167" s="8"/>
-      <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-      <c r="N167" s="8"/>
-    </row>
-    <row r="168" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+    </row>
+    <row r="169" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
-      <c r="K168" s="8"/>
-      <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-      <c r="N168" s="8"/>
-    </row>
-    <row r="169" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+    </row>
+    <row r="170" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="8"/>
-    </row>
-    <row r="170" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+    </row>
+    <row r="171" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
-      <c r="K170" s="8"/>
-      <c r="L170" s="8"/>
-      <c r="M170" s="8"/>
-      <c r="N170" s="8"/>
-    </row>
-    <row r="171" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+    </row>
+    <row r="172" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8" t="s">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8" t="s">
+      <c r="E172" s="7"/>
+      <c r="F172" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8" t="s">
+      <c r="G172" s="7"/>
+      <c r="H172" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8" t="s">
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
+    <row r="173" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
-      <c r="K172" s="8"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
-    </row>
-    <row r="173" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+    </row>
+    <row r="174" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8" t="s">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
-      <c r="K173" s="8" t="s">
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L173" s="8"/>
-      <c r="M173" s="8"/>
-      <c r="N173" s="8" t="s">
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
+    <row r="175" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
-      <c r="L174" s="8"/>
-      <c r="M174" s="8"/>
-      <c r="N174" s="8"/>
-    </row>
-    <row r="175" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+    </row>
+    <row r="176" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-    </row>
-    <row r="176" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+    </row>
+    <row r="177" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="8"/>
-      <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-      <c r="N176" s="8"/>
-    </row>
-    <row r="177" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+    </row>
+    <row r="178" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
-      <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-      <c r="N177" s="8"/>
-    </row>
-    <row r="178" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+    </row>
+    <row r="179" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-      <c r="N178" s="8"/>
-    </row>
-    <row r="179" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+    </row>
+    <row r="180" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
-      <c r="L179" s="8"/>
-      <c r="M179" s="8"/>
-      <c r="N179" s="8"/>
-    </row>
-    <row r="180" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+    </row>
+    <row r="181" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
-      <c r="K180" s="8"/>
-      <c r="L180" s="8"/>
-      <c r="M180" s="8"/>
-      <c r="N180" s="8"/>
-    </row>
-    <row r="181" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+    </row>
+    <row r="182" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8" t="s">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8" t="s">
+      <c r="E182" s="7"/>
+      <c r="F182" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-      <c r="N181" s="8" t="s">
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
+    <row r="183" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8" t="s">
+      <c r="C183" s="7"/>
+      <c r="D183" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8" t="s">
+      <c r="E183" s="7"/>
+      <c r="F183" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8" t="s">
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N182"/>
+  <autoFilter ref="A1:N183"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1047">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -768,12 +768,6 @@
   </si>
   <si>
     <t>*Epicystal archeopyle</t>
-  </si>
-  <si>
-    <t>*Randomly distributed spines/processes. Solid. Processes slender. Can be branched.</t>
-  </si>
-  <si>
-    <t>*Chasmic archeopyle by loss of one plate.</t>
   </si>
   <si>
     <t>*Randomly distributed spines/processes. Process barrel-shaped. Can be distally connected.</t>
@@ -3246,6 +3240,33 @@
   </si>
   <si>
     <t>*Archeopyle precingular Type P 3".</t>
+  </si>
+  <si>
+    <t>*Transparent **Colourless</t>
+  </si>
+  <si>
+    <t>*Spherical **Subspherical</t>
+  </si>
+  <si>
+    <t>*Smooth wall **Smooth. Thin and comprises two closely apresed layers.</t>
+  </si>
+  <si>
+    <t>*Randomly distributed spines/processes. Solid. Processes slender. Can be branched. **Solid non tabular processes. Straight or may branch at any point along their length with different types often present on a single cyst. Often minutely branched or otherwise expanded at their tips. Processes bases may be expanded and some may be joined to adjacent bases by low septa.</t>
+  </si>
+  <si>
+    <t>**Partial reculation over the surface by processes.</t>
+  </si>
+  <si>
+    <t>*Chasmic archeopyle by loss of one plate. **Chasmic, represented by a slit-like rupture.</t>
+  </si>
+  <si>
+    <t>**19 to 36 um. (diameter).</t>
+  </si>
+  <si>
+    <t>**1 to 8 um. (length).</t>
+  </si>
+  <si>
+    <t>**Processes wider than cysts of Esiculfera imariense</t>
   </si>
 </sst>
 </file>
@@ -3744,8 +3765,8 @@
   <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,13 +3799,13 @@
         <v>173</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>174</v>
@@ -3813,20 +3834,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3834,10 +3855,10 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,22 +3866,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>347</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -3868,10 +3889,10 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3879,22 +3900,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -3903,7 +3924,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3911,22 +3932,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>357</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -3935,7 +3956,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,22 +3964,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
@@ -3967,7 +3988,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3975,31 +3996,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4007,22 +4028,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -4030,10 +4051,10 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,22 +4062,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>370</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -4065,7 +4086,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,25 +4094,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="G10" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>738</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>739</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>740</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -4099,7 +4120,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4107,25 +4128,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>743</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>744</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>745</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -4133,7 +4154,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4141,25 +4162,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="G12" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>749</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>751</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -4167,31 +4188,31 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>756</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>758</v>
-      </c>
       <c r="H13" s="20" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -4199,7 +4220,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,25 +4228,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="G14" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>761</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>764</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>763</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -4233,89 +4254,89 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>233</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>184</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>775</v>
-      </c>
       <c r="N15" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="I16" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="N16" s="20" t="s">
         <v>780</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,40 +4347,40 @@
         <v>233</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E17" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="M17" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>793</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>792</v>
-      </c>
       <c r="N17" s="20" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4367,23 +4388,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E18" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>786</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>788</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -4391,7 +4412,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4402,34 +4423,34 @@
         <v>233</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="I19" s="20" t="s">
         <v>724</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>726</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,20 +4461,20 @@
         <v>233</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>736</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>189</v>
@@ -4463,7 +4484,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,22 +4495,22 @@
         <v>182</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>184</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
@@ -4498,10 +4519,10 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4512,22 +4533,22 @@
         <v>182</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>184</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
@@ -4537,7 +4558,7 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4548,22 +4569,22 @@
         <v>182</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>184</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
@@ -4573,7 +4594,7 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,20 +4605,20 @@
         <v>182</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>184</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20" t="s">
@@ -4607,7 +4628,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4619,17 +4640,17 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>388</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>390</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>184</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
@@ -4639,7 +4660,7 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4650,80 +4671,80 @@
         <v>233</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>796</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>798</v>
-      </c>
       <c r="J26" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="N27" s="20" t="s">
         <v>808</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4731,39 +4752,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I28" s="20" t="s">
         <v>203</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,53 +4796,53 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>819</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>821</v>
-      </c>
       <c r="F29" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -4829,7 +4850,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4837,25 +4858,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="G31" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>828</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>832</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>830</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -4863,7 +4884,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4871,21 +4892,21 @@
         <v>25</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>393</v>
-      </c>
       <c r="D32" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>204</v>
@@ -4894,10 +4915,10 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4908,13 +4929,13 @@
         <v>182</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D33" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>396</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>398</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -4924,10 +4945,10 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4938,28 +4959,28 @@
         <v>182</v>
       </c>
       <c r="C34" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>402</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>404</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4970,18 +4991,18 @@
         <v>182</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -4989,7 +5010,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5000,32 +5021,32 @@
         <v>182</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E36" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="H36" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5036,32 +5057,32 @@
         <v>182</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F37" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="I37" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5072,22 +5093,22 @@
         <v>182</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E38" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>285</v>
-      </c>
       <c r="H38" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -5095,7 +5116,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5106,22 +5127,22 @@
         <v>182</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F39" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>300</v>
-      </c>
       <c r="H39" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
@@ -5129,7 +5150,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5140,22 +5161,22 @@
         <v>182</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G40" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
@@ -5163,7 +5184,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5174,19 +5195,19 @@
         <v>182</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F41" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>288</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>201</v>
@@ -5197,7 +5218,7 @@
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5208,32 +5229,32 @@
         <v>182</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5244,32 +5265,32 @@
         <v>182</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="21" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5277,39 +5298,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>205</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,28 +5341,28 @@
         <v>182</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N45" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5349,21 +5370,21 @@
         <v>39</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>205</v>
@@ -5374,21 +5395,21 @@
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>183</v>
@@ -5399,7 +5420,7 @@
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>205</v>
@@ -5411,7 +5432,7 @@
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5419,21 +5440,21 @@
         <v>40</v>
       </c>
       <c r="B48" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="D48" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>435</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>437</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>205</v>
@@ -5446,10 +5467,10 @@
         <v>209</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N48" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5460,36 +5481,36 @@
         <v>233</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="J49" s="20" t="s">
         <v>834</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>838</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>836</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N49" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,32 +5521,32 @@
         <v>233</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5536,32 +5557,32 @@
         <v>233</v>
       </c>
       <c r="C51" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>870</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>872</v>
-      </c>
       <c r="F51" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I51" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="J51" s="20" t="s">
         <v>871</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>873</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5569,43 +5590,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>841</v>
+      </c>
+      <c r="K52" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>845</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="K52" s="20" t="s">
+      <c r="L52" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="M52" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="L52" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>846</v>
-      </c>
       <c r="N52" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5616,40 +5637,40 @@
         <v>233</v>
       </c>
       <c r="C53" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="J53" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="J53" s="20" t="s">
+      <c r="K53" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="M53" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="K53" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="L53" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>852</v>
-      </c>
       <c r="N53" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5660,34 +5681,34 @@
         <v>233</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5698,32 +5719,32 @@
         <v>233</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D55" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>859</v>
       </c>
-      <c r="E55" s="20" t="s">
-        <v>861</v>
-      </c>
       <c r="F55" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
       <c r="N55" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5734,34 +5755,34 @@
         <v>233</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N56" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="21" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -5772,34 +5793,34 @@
         <v>233</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,41 +5828,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K58" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,19 +5873,19 @@
         <v>182</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F59" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G59" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>304</v>
       </c>
       <c r="H59" s="20" t="s">
         <v>193</v>
@@ -5875,7 +5896,7 @@
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
       <c r="N59" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5886,19 +5907,19 @@
         <v>182</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E60" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="F60" s="20" t="s">
-        <v>310</v>
-      </c>
       <c r="G60" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -5907,7 +5928,7 @@
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
       <c r="N60" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5918,19 +5939,19 @@
         <v>182</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H61" s="20" t="s">
         <v>193</v>
@@ -5941,7 +5962,7 @@
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,68 +5973,68 @@
         <v>182</v>
       </c>
       <c r="C62" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>894</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>893</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>896</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>213</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>446</v>
-      </c>
       <c r="C63" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="20" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="L63" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="M63" s="20" t="s">
         <v>903</v>
       </c>
-      <c r="M63" s="20" t="s">
-        <v>905</v>
-      </c>
       <c r="N63" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6021,37 +6042,37 @@
         <v>55</v>
       </c>
       <c r="B64" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>933</v>
+      </c>
+      <c r="E64" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>449</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="20" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N64" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6062,66 +6083,66 @@
         <v>233</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="L65" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="L65" s="20" t="s">
-        <v>912</v>
-      </c>
       <c r="M65" s="20" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="N65" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
       <c r="M66" s="20" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="N66" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="21" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -6129,31 +6150,31 @@
         <v>57</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="E67" s="20" t="s">
         <v>941</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>942</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>943</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="N67" s="20" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,30 +6183,30 @@
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
       <c r="M68" s="20" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="N68" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6193,16 +6214,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D69" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="E69" s="20" t="s">
         <v>914</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>916</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
@@ -6210,14 +6231,14 @@
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="L69" s="20"/>
       <c r="M69" s="20" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="N69" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6225,32 +6246,32 @@
         <v>60</v>
       </c>
       <c r="B70" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>459</v>
-      </c>
       <c r="E70" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F70" s="20"/>
       <c r="H70" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M70" s="20"/>
       <c r="N70" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="21" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6269,10 +6290,10 @@
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
       <c r="M71" s="20" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="N71" s="20" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6281,32 +6302,32 @@
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>959</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>961</v>
       </c>
       <c r="F72" s="24"/>
       <c r="G72" s="24"/>
       <c r="H72" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J72" s="24"/>
       <c r="K72" s="24" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="20" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="N72" s="24" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6315,32 +6336,32 @@
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="20" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
       <c r="K73" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="L73" s="20" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="N73" s="20" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6349,28 +6370,28 @@
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D74" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>482</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>484</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="21" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6378,37 +6399,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="20" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="L75" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="M75" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="M75" s="20" t="s">
-        <v>925</v>
-      </c>
       <c r="N75" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6417,30 +6438,30 @@
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="20" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="L76" s="20"/>
       <c r="M76" s="20" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="N76" s="20" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6448,35 +6469,35 @@
         <v>67</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>466</v>
-      </c>
       <c r="E77" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J77" s="20"/>
       <c r="K77" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L77" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M77" s="20"/>
       <c r="N77" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6487,10 +6508,10 @@
         <v>182</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20" t="s">
@@ -6498,19 +6519,19 @@
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
       <c r="K78" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="20" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="N78" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6518,35 +6539,35 @@
         <v>69</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C79" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D79" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="D79" s="20" t="s">
-        <v>455</v>
-      </c>
       <c r="E79" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>213</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20" t="s">
         <v>217</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
       <c r="N79" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6555,32 +6576,32 @@
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="20" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="20" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="N80" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="21" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,33 +6609,33 @@
         <v>71</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J81" s="20"/>
       <c r="K81" s="20" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N81" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6629,7 +6650,7 @@
         <v>215</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>213</v>
@@ -6655,32 +6676,32 @@
         <v>233</v>
       </c>
       <c r="C83" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="F83" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="G83" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="E83" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="F83" s="20" t="s">
+      <c r="H83" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>492</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
       <c r="M83" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N83" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="21" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -6691,34 +6712,34 @@
         <v>233</v>
       </c>
       <c r="C84" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="F84" s="20" t="s">
         <v>979</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="G84" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="H84" s="20" t="s">
         <v>980</v>
       </c>
-      <c r="E84" s="20" t="s">
-        <v>983</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>981</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>984</v>
-      </c>
-      <c r="H84" s="20" t="s">
-        <v>982</v>
-      </c>
       <c r="I84" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
       <c r="M84" s="20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="N84" s="20" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6727,32 +6748,32 @@
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H85" s="20"/>
       <c r="I85" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
       <c r="M85" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N85" s="20" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6763,32 +6784,32 @@
         <v>233</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
       <c r="M86" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N86" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6798,121 +6819,121 @@
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
       <c r="I87" s="20" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
       <c r="M87" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N87" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
       <c r="M88" s="20" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="N88" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>182</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
       <c r="N89" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>182</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -6920,7 +6941,7 @@
       <c r="L90" s="20"/>
       <c r="M90" s="20"/>
       <c r="N90" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,22 +6952,22 @@
         <v>182</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H91" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
@@ -6954,41 +6975,41 @@
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
       <c r="N91" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
       <c r="N92" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="21" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6999,34 +7020,34 @@
         <v>233</v>
       </c>
       <c r="C93" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="E93" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="F93" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="G93" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="H93" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="I93" s="20" t="s">
         <v>520</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="H93" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="I93" s="20" t="s">
-        <v>522</v>
       </c>
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
       <c r="M93" s="20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="N93" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7037,32 +7058,32 @@
         <v>233</v>
       </c>
       <c r="C94" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E94" s="20" t="s">
         <v>1009</v>
       </c>
-      <c r="D94" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>1011</v>
-      </c>
       <c r="F94" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H94" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="G94" s="20" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H94" s="20" t="s">
-        <v>1010</v>
-      </c>
       <c r="I94" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
       <c r="N94" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7073,34 +7094,34 @@
         <v>233</v>
       </c>
       <c r="C95" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H95" s="20" t="s">
         <v>1015</v>
       </c>
-      <c r="D95" s="20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H95" s="20" t="s">
-        <v>1017</v>
-      </c>
       <c r="I95" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
       <c r="M95" s="20" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="N95" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7114,29 +7135,29 @@
         <v>243</v>
       </c>
       <c r="D96" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H96" s="20" t="s">
         <v>1021</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H96" s="20" t="s">
-        <v>1023</v>
       </c>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
       <c r="M96" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="N96" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7147,34 +7168,34 @@
         <v>233</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D97" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H97" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="E97" s="20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>526</v>
-      </c>
       <c r="I97" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
       <c r="M97" s="20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="N97" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7183,28 +7204,28 @@
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="20" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N98" s="20" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7213,32 +7234,32 @@
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="H99" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="D99" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="F99" s="20" t="s">
+      <c r="I99" s="20" t="s">
         <v>533</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="H99" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="I99" s="20" t="s">
-        <v>535</v>
       </c>
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
       <c r="N99" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7247,62 +7268,72 @@
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E100" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="F100" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="F100" s="20" t="s">
-        <v>531</v>
-      </c>
       <c r="G100" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
       <c r="N100" s="20" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5" t="s">
-        <v>190</v>
+      <c r="B101" s="20" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="J101" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N101" s="20" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7338,19 +7369,19 @@
         <v>89</v>
       </c>
       <c r="B103" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="D103" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F103" s="15" t="s">
         <v>549</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>551</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
@@ -7360,7 +7391,7 @@
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
       <c r="N103" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7368,23 +7399,23 @@
         <v>90</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
@@ -7394,7 +7425,7 @@
       <c r="L104" s="15"/>
       <c r="M104" s="15"/>
       <c r="N104" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7402,35 +7433,35 @@
         <v>91</v>
       </c>
       <c r="B105" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>539</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>541</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>183</v>
       </c>
       <c r="E105" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H105" s="15" t="s">
         <v>543</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N105" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7787,36 +7818,36 @@
         <v>182</v>
       </c>
       <c r="C119" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>333</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>335</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>214</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J119" s="15"/>
       <c r="K119" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M119" s="15"/>
       <c r="N119" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7932,33 +7963,33 @@
         <v>112</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="F126" s="15" t="s">
         <v>214</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="15" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
       <c r="M126" s="15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8011,38 +8042,38 @@
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="D129" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="E129" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="I129" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="E129" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="I129" s="15" t="s">
-        <v>591</v>
-      </c>
       <c r="J129" s="15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K129" s="15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L129" s="15"/>
       <c r="M129" s="15" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N129" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8104,37 +8135,37 @@
         <v>119</v>
       </c>
       <c r="B133" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="E133" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="C133" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="E133" s="15" t="s">
+      <c r="F133" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="G133" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="H133" s="15" t="s">
         <v>606</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>608</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
       <c r="K133" s="15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L133" s="15"/>
       <c r="M133" s="15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="N133" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8143,32 +8174,32 @@
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="E134" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="D134" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="E134" s="15" t="s">
+      <c r="F134" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>615</v>
       </c>
       <c r="G134" s="15"/>
       <c r="H134" s="15" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
       <c r="K134" s="15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L134" s="15"/>
       <c r="M134" s="15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N134" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8176,35 +8207,35 @@
         <v>121</v>
       </c>
       <c r="B135" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D135" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="C135" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>560</v>
-      </c>
       <c r="E135" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
       <c r="K135" s="15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L135" s="15"/>
       <c r="M135" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N135" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="136" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8212,37 +8243,37 @@
         <v>122</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D136" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H136" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="E136" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="F136" s="15" t="s">
+      <c r="I136" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="I136" s="15" t="s">
-        <v>571</v>
       </c>
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
       <c r="L136" s="15"/>
       <c r="M136" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N136" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8251,28 +8282,28 @@
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I137" s="15"/>
       <c r="J137" s="15"/>
       <c r="K137" s="15" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L137" s="15"/>
       <c r="M137" s="15"/>
       <c r="N137" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8280,33 +8311,33 @@
         <v>124</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C138" s="15"/>
       <c r="D138" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="E138" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>581</v>
       </c>
       <c r="F138" s="15" t="s">
         <v>214</v>
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
       <c r="K138" s="15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L138" s="15"/>
       <c r="M138" s="15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N138" s="15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8318,11 +8349,11 @@
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -8339,32 +8370,32 @@
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="15" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D140" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F140" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="E140" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>622</v>
-      </c>
       <c r="G140" s="15" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="15" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J140" s="15"/>
       <c r="K140" s="15"/>
       <c r="L140" s="15"/>
       <c r="M140" s="15" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="N140" s="15" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8372,35 +8403,35 @@
         <v>127</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="E141" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="F141" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="G141" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>632</v>
       </c>
       <c r="H141" s="15"/>
       <c r="I141" s="15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
       <c r="L141" s="15"/>
       <c r="M141" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N141" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8411,36 +8442,36 @@
         <v>233</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E142" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="G142" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="F142" s="15" t="s">
+      <c r="H142" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="I142" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="H142" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="I142" s="15" t="s">
-        <v>640</v>
       </c>
       <c r="J142" s="15"/>
       <c r="K142" s="15" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L142" s="15"/>
       <c r="M142" s="15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8452,29 +8483,29 @@
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="E143" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="E143" s="15" t="s">
-        <v>646</v>
-      </c>
       <c r="F143" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="15" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
       <c r="M143" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N143" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8485,36 +8516,36 @@
         <v>233</v>
       </c>
       <c r="C144" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="F144" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="D144" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F144" s="15" t="s">
+      <c r="G144" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="I144" s="15" t="s">
         <v>651</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="I144" s="15" t="s">
-        <v>653</v>
       </c>
       <c r="J144" s="15"/>
       <c r="K144" s="15" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L144" s="15"/>
       <c r="M144" s="15" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N144" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8525,38 +8556,38 @@
         <v>233</v>
       </c>
       <c r="C145" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="J145" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="D145" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="I145" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="J145" s="15" t="s">
+      <c r="K145" s="15" t="s">
         <v>660</v>
-      </c>
-      <c r="K145" s="15" t="s">
-        <v>662</v>
       </c>
       <c r="L145" s="15"/>
       <c r="M145" s="15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N145" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8568,17 +8599,17 @@
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
@@ -8593,34 +8624,34 @@
       </c>
       <c r="B147" s="15"/>
       <c r="C147" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="F147" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="D147" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>675</v>
-      </c>
       <c r="G147" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="H147" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="H147" s="15" t="s">
-        <v>672</v>
-      </c>
       <c r="I147" s="15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J147" s="15"/>
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
       <c r="M147" s="15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N147" s="15" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8631,34 +8662,34 @@
         <v>233</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E148" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="F148" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="F148" s="15" t="s">
-        <v>680</v>
-      </c>
       <c r="G148" s="15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J148" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K148" s="15"/>
       <c r="L148" s="15"/>
       <c r="M148" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N148" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8669,32 +8700,32 @@
         <v>233</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D149" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="F149" s="15" t="s">
         <v>683</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="G149" s="15"/>
       <c r="H149" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
       <c r="K149" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L149" s="15"/>
       <c r="M149" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N149" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8703,34 +8734,34 @@
       </c>
       <c r="B150" s="15"/>
       <c r="C150" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="G150" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="D150" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>693</v>
-      </c>
       <c r="H150" s="15" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J150" s="15"/>
       <c r="K150" s="15"/>
       <c r="L150" s="15"/>
       <c r="M150" s="15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="N150" s="15" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8741,38 +8772,38 @@
         <v>233</v>
       </c>
       <c r="C151" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="J151" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="D151" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="F151" s="15" t="s">
+      <c r="K151" s="15" t="s">
         <v>699</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="I151" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="J151" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="K151" s="15" t="s">
-        <v>701</v>
       </c>
       <c r="L151" s="15"/>
       <c r="M151" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N151" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8786,17 +8817,17 @@
         <v>200</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E152" s="15"/>
       <c r="F152" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
       <c r="J152" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K152" s="15"/>
       <c r="L152" s="15"/>
@@ -8813,34 +8844,34 @@
         <v>233</v>
       </c>
       <c r="C153" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="G153" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="D153" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="G153" s="15" t="s">
+      <c r="H153" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="I153" s="15" t="s">
         <v>710</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="I153" s="15" t="s">
-        <v>712</v>
       </c>
       <c r="J153" s="15"/>
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
       <c r="M153" s="15" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N153" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8851,30 +8882,30 @@
         <v>233</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D154" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="F154" s="15" t="s">
         <v>714</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>716</v>
       </c>
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J154" s="15"/>
       <c r="K154" s="15"/>
       <c r="L154" s="15"/>
       <c r="M154" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="N154" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8885,24 +8916,24 @@
         <v>233</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -8955,14 +8986,14 @@
         <v>233</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -9146,7 +9177,7 @@
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -9264,11 +9295,11 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1059">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -617,12 +617,6 @@
     <t>*Randomly distributed spines/processes. (two types)</t>
   </si>
   <si>
-    <t>*Spherical. Pentagonal to circular outline. Dorsoventrally compressed.</t>
-  </si>
-  <si>
-    <t>*Hexagonal intercalary archeopyle.</t>
-  </si>
-  <si>
     <t>Archeopyle along 2'/1a, 2'/2a, 3'/2a, 4'/2a, 4'/6", 4'/7"</t>
   </si>
   <si>
@@ -660,9 +654,6 @@
   </si>
   <si>
     <t>*Cingulum reflected by rows of shelf-like processes.</t>
-  </si>
-  <si>
-    <t>*Rectangular cyst form with reticulate pattern.</t>
   </si>
   <si>
     <t>*Peridinioid cyst form.</t>
@@ -1766,33 +1757,15 @@
     <t>*Brown **Pale to dark brown</t>
   </si>
   <si>
-    <t>*Zonneveld &amp; Pospelova (2015) **Van Hauwaert, 2016</t>
-  </si>
-  <si>
-    <t>*Cyst covered with course reticulum. Reticulum consist of connected muri. **The outer wall layer formed the reticulate ornaments.</t>
-  </si>
-  <si>
     <t>*Elongate **Elongate.</t>
   </si>
   <si>
     <t>**These ornaments formed different rows on the surface, which are connected. The reticulations become smaller in the middle than on the polar sides. Diameter and shape of the reticulations was variable.</t>
   </si>
   <si>
-    <t>**55 to 77</t>
-  </si>
-  <si>
     <t>*Brown. **Medium to dark brown.</t>
   </si>
   <si>
-    <t>*Shelf-like processes. **Characterized by five rows of separated processes. Hollow processes. Cylindrical to infundibular and are separated.</t>
-  </si>
-  <si>
-    <t>**Archeopyle is described as apical, but not observed here.</t>
-  </si>
-  <si>
-    <t>**55 to 65</t>
-  </si>
-  <si>
     <t>** 7 to 10</t>
   </si>
   <si>
@@ -3267,6 +3240,69 @@
   </si>
   <si>
     <t>**Processes wider than cysts of Esiculfera imariense</t>
+  </si>
+  <si>
+    <t>**Two type of ornaments. Fist type are small, delicate, curved or straight, transparant simple spines. Second type are submicron-sized tubercules (micrograna). These are densely distributed over the entire cyst but can be less frequent in the equatorial region.</t>
+  </si>
+  <si>
+    <t>*Spherical. Pentagonal to circular outline. Dorsoventrally compressed. **From subspherical to dorsoventrally compressed pentagonal.</t>
+  </si>
+  <si>
+    <t>*Hexagonal intercalary archeopyle. **Hexagonal, loss of intercalary paraplate.</t>
+  </si>
+  <si>
+    <t>**43 to 59 um. (length), 43 to 56 um. (width).</t>
+  </si>
+  <si>
+    <t>**Differs by its two type of processes in case it has a pentagonal shape. When subspherical can be distinguished from Echinidinium in having a intercalary archeopyle. It differs crearly from Protoperidinium monospinum in having no branched processes.</t>
+  </si>
+  <si>
+    <t>*Cyst covered with course reticulum. Reticulum consist of connected muri. **The outer wall layer formed the reticulate ornaments. ***Thin smooth, solid endophragm, overlain by a thin periphragm from which high, fibrous crests arise, forming an irregular and variable reticulation. Reticulation covers the entire cyst and is loosely organized into five to seven whorls. Crests expand distally and extend partially or fully over adjacent lumina.</t>
+  </si>
+  <si>
+    <t>***Tremic, occurs at one end of the central body, and has ar roundly polygonal outline with a zigzag margin.</t>
+  </si>
+  <si>
+    <t>**55 to 77 ***72 to 134 length, 48 to 63 um. width, 6 to 18 um. crest height</t>
+  </si>
+  <si>
+    <t>***P. kofoidii have a coarse reticulation whereas P. schawartzii cysts have a shelf like ornament. In certain geographic regions there is a intergradation between the ornamentation of both species.</t>
+  </si>
+  <si>
+    <t>*Zonneveld &amp; Pospelova (2015) **Van Hauwaert, 2016 ***Van Nieuwenhove et al., 2020</t>
+  </si>
+  <si>
+    <t>***Cyst wall as two or three layers, a smooth solid endophragm and a thin fibrous periphragm forming processes or ridges that cover the entire cysts in even rows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Shelf-like processes. **Characterized by five rows of separated processes. Hollow processes. Cylindrical to infundibular and are separated. ***Cylindrical shelf-like or trumpet- shaped processes. Hollow with distal ends recurved. </t>
+  </si>
+  <si>
+    <t>**Archeopyle is described as apical, but not observed here. ***Tremic and has a rounded polygonal outline with a zizag margin</t>
+  </si>
+  <si>
+    <t>**55 to 65 ***60 to 82 um. (length including processes), 41 to 55 um. (width including processes), 8.5 to 14 um. (processes height).</t>
+  </si>
+  <si>
+    <t>***Differs from cysts of P. kofoidii in possessing discrete processes rather than a network of ridges.</t>
+  </si>
+  <si>
+    <t>*Rectangular cyst form with reticulate pattern. **Rectangular to elongate.</t>
+  </si>
+  <si>
+    <t>*Brown **Medium to dark brown.</t>
+  </si>
+  <si>
+    <t>**46 to 66 um. (length), 30 to 50 um. (width), 1 to 8 um. (reticulation height).</t>
+  </si>
+  <si>
+    <t>**Tremic</t>
+  </si>
+  <si>
+    <t>**Differs from P. kofoidii in having much-reduced or absent fibrous surface ornamentation.</t>
+  </si>
+  <si>
+    <t>**Coarse reticulation. Reticulation varies in height, irregularity and distribution on the cyst, covering the entire cysts or concentrated at the extremities of the central body. Sulcal area of the cyst can be smooth to scabrate.</t>
   </si>
 </sst>
 </file>
@@ -3402,7 +3438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3440,16 +3476,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3765,8 +3795,8 @@
   <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,13 +3829,13 @@
         <v>173</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>174</v>
@@ -3829,3663 +3859,3685 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C3" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="E3" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="E22" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="E23" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="H23" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="19" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="N52" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="19" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>871</v>
+      </c>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>883</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="L64" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="M64" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="M65" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="19" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="H70" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="19" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22" t="s">
+        <v>948</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22" t="s">
+        <v>949</v>
+      </c>
+      <c r="L72" s="22"/>
+      <c r="M72" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="N72" s="22" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="N73" s="18" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="19" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="L77" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="19" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="N81" s="18" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="19" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>739</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>737</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>738</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>744</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="G85" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="N86" s="18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="N87" s="18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18" t="s">
+        <v>986</v>
+      </c>
+      <c r="N88" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="19" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N93" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N95" s="18" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N96" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="19" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N97" s="18" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N98" s="18" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>748</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>749</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>764</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>758</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>792</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>791</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>793</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>782</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>784</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>721</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>723</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20" t="s">
-        <v>728</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>734</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
-        <v>733</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="E99" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N101" s="18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="C102" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N102" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D103" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>796</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>815</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>812</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20" t="s">
-        <v>813</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>821</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>823</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>827</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="N43" s="20" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="21" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="N46" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20" t="s">
+      <c r="E103" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="N103" s="18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="19" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N104" s="18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N105" s="18" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="L48" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>832</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>834</v>
-      </c>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="N49" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>876</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20" t="s">
-        <v>874</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>872</v>
-      </c>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>868</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>867</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>870</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>871</v>
-      </c>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>838</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>839</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="N52" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>845</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>848</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L53" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="N53" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>852</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20" t="s">
-        <v>856</v>
-      </c>
-      <c r="N54" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>859</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>861</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>865</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="N56" s="20" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="21" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>880</v>
-      </c>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20" t="s">
-        <v>881</v>
-      </c>
-      <c r="N57" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="K58" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="M58" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="N58" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>892</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>891</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20" t="s">
-        <v>893</v>
-      </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>897</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>899</v>
-      </c>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20" t="s">
-        <v>900</v>
-      </c>
-      <c r="L63" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>903</v>
-      </c>
-      <c r="N63" s="20" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>932</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="L64" s="20" t="s">
-        <v>976</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="N64" s="20" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>905</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>899</v>
-      </c>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>911</v>
-      </c>
-      <c r="N65" s="20" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>936</v>
-      </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="N66" s="20" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="21" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20" t="s">
-        <v>942</v>
-      </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="N67" s="20" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>947</v>
-      </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20" t="s">
-        <v>945</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20" t="s">
-        <v>946</v>
-      </c>
-      <c r="N68" s="20" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20" t="s">
-        <v>913</v>
-      </c>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20" t="s">
-        <v>915</v>
-      </c>
-      <c r="N69" s="20" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="F70" s="20"/>
-      <c r="H70" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="L70" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="21" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20" t="s">
-        <v>949</v>
-      </c>
-      <c r="N71" s="20" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24" t="s">
-        <v>957</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>959</v>
-      </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24" t="s">
-        <v>958</v>
-      </c>
-      <c r="L72" s="24"/>
-      <c r="M72" s="20" t="s">
-        <v>960</v>
-      </c>
-      <c r="N72" s="24" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20" t="s">
-        <v>951</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>950</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>955</v>
-      </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20" t="s">
-        <v>954</v>
-      </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="L73" s="20" t="s">
-        <v>953</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>956</v>
-      </c>
-      <c r="N73" s="20" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="I74" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="21" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>922</v>
-      </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>919</v>
-      </c>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20" t="s">
-        <v>920</v>
-      </c>
-      <c r="L75" s="20" t="s">
-        <v>921</v>
-      </c>
-      <c r="M75" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="N75" s="20" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20" t="s">
-        <v>962</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>965</v>
-      </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20" t="s">
-        <v>964</v>
-      </c>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20" t="s">
-        <v>966</v>
-      </c>
-      <c r="N76" s="20" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="L77" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>971</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>974</v>
-      </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20" t="s">
-        <v>973</v>
-      </c>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20" t="s">
-        <v>972</v>
-      </c>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20" t="s">
-        <v>975</v>
-      </c>
-      <c r="N78" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K79" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20" t="s">
-        <v>968</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20" t="s">
-        <v>969</v>
-      </c>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20" t="s">
-        <v>970</v>
-      </c>
-      <c r="N80" s="20" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" s="21" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>926</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>924</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>925</v>
-      </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20" t="s">
-        <v>927</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20" t="s">
-        <v>929</v>
-      </c>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20" t="s">
-        <v>931</v>
-      </c>
-      <c r="N81" s="20" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>930</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="N83" s="20" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" s="21" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>977</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>981</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>979</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>982</v>
-      </c>
-      <c r="H84" s="20" t="s">
-        <v>980</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20" t="s">
-        <v>983</v>
-      </c>
-      <c r="N84" s="20" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="N85" s="20" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="N86" s="20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="N87" s="20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>986</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>990</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>993</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>991</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>994</v>
-      </c>
-      <c r="H88" s="20" t="s">
-        <v>992</v>
-      </c>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20" t="s">
-        <v>995</v>
-      </c>
-      <c r="N88" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>987</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>997</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H89" s="20" t="s">
-        <v>996</v>
-      </c>
-      <c r="I89" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>998</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20" t="s">
-        <v>999</v>
-      </c>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="H91" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H92" s="20" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I92" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="21" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="H93" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="I93" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N93" s="20" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H94" s="20" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I94" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H95" s="20" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I95" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N95" s="20" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H96" s="20" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20" t="s">
-        <v>1024</v>
-      </c>
-      <c r="N96" s="20" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" s="21" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N97" s="20" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N98" s="20" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="G99" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="H99" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="I99" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="H100" s="20" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I100" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" s="21" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H101" s="20" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="J101" s="20" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="20" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N101" s="20" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="N105" s="15" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12" t="s">
-        <v>190</v>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N106" s="18" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7493,21 +7545,21 @@
         <v>93</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -7526,7 +7578,7 @@
         <v>182</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>183</v>
@@ -7713,11 +7765,11 @@
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -7733,13 +7785,13 @@
         <v>102</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
@@ -7747,7 +7799,7 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>189</v>
@@ -7765,13 +7817,13 @@
         <v>103</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
@@ -7779,7 +7831,7 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>189</v>
@@ -7810,47 +7862,47 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+    <row r="119" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G119" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D119" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E119" s="15" t="s">
+      <c r="H119" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="L119" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="F119" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="I119" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15" t="s">
+      <c r="M119" s="14"/>
+      <c r="N119" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="L119" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>106</v>
       </c>
@@ -7868,7 +7920,7 @@
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
     </row>
-    <row r="121" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>107</v>
       </c>
@@ -7886,7 +7938,7 @@
       <c r="M121" s="12"/>
       <c r="N121" s="12"/>
     </row>
-    <row r="122" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>108</v>
       </c>
@@ -7904,7 +7956,7 @@
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
     </row>
-    <row r="123" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>109</v>
       </c>
@@ -7922,7 +7974,7 @@
       <c r="M123" s="12"/>
       <c r="N123" s="12"/>
     </row>
-    <row r="124" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>110</v>
       </c>
@@ -7940,7 +7992,7 @@
       <c r="M124" s="12"/>
       <c r="N124" s="12"/>
     </row>
-    <row r="125" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>111</v>
       </c>
@@ -7958,41 +8010,41 @@
       <c r="M125" s="12"/>
       <c r="N125" s="12"/>
     </row>
-    <row r="126" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+    <row r="126" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="N126" s="15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="N126" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>113</v>
       </c>
@@ -8010,20 +8062,20 @@
       <c r="M127" s="12"/>
       <c r="N127" s="12"/>
     </row>
-    <row r="128" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -8036,47 +8088,47 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+    <row r="129" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="I129" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="J129" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="K129" s="15" t="s">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="K129" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="N129" s="15" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N129" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>116</v>
       </c>
@@ -8094,7 +8146,7 @@
       <c r="M130" s="12"/>
       <c r="N130" s="12"/>
     </row>
-    <row r="131" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>117</v>
       </c>
@@ -8112,7 +8164,7 @@
       <c r="M131" s="12"/>
       <c r="N131" s="12"/>
     </row>
-    <row r="132" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>118</v>
       </c>
@@ -8130,230 +8182,230 @@
       <c r="M132" s="12"/>
       <c r="N132" s="12"/>
     </row>
-    <row r="133" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+    <row r="133" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="N133" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="C133" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="D133" s="15" t="s">
+      <c r="D134" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="E134" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="F134" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="G133" s="15" t="s">
+      <c r="G134" s="14"/>
+      <c r="H134" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="H133" s="15" t="s">
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="N133" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="N134" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="N134" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="N135" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E136" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="C135" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="D135" s="15" t="s">
+      <c r="F136" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="G136" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="N136" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="D137" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="F135" s="15" t="s">
+      <c r="E137" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="N135" s="15" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="F136" s="15" t="s">
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B138" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="G136" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="H136" s="15" t="s">
+      <c r="C138" s="14"/>
+      <c r="D138" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="I136" s="15" t="s">
+      <c r="E138" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="N136" s="15" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15" t="s">
+      <c r="L138" s="14"/>
+      <c r="M138" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="N138" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="D137" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="N138" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -8364,252 +8416,252 @@
       <c r="M139" s="12"/>
       <c r="N139" s="12"/>
     </row>
-    <row r="140" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
+    <row r="140" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15" t="s">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="N140" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C141" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="D140" s="15" t="s">
+      <c r="D141" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E140" s="15" t="s">
+      <c r="E141" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="N141" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="N142" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="F140" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="G140" s="15" t="s">
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="N143" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="N140" s="15" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="N141" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="H142" s="15" t="s">
+    </row>
+    <row r="144" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="F144" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="I142" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15" t="s">
+      <c r="G144" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="N142" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15" t="s">
+      <c r="L144" s="14"/>
+      <c r="M144" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="N143" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C144" s="15" t="s">
+      <c r="N144" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="D144" s="15" t="s">
+      <c r="D145" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="E144" s="15" t="s">
+      <c r="E145" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="H145" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="F144" s="15" t="s">
+      <c r="I145" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="J145" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="G144" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="I144" s="15" t="s">
+      <c r="K145" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="N144" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C145" s="15" t="s">
+      <c r="L145" s="14"/>
+      <c r="M145" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="D145" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="I145" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="J145" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="K145" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="N145" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N145" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
@@ -8618,294 +8670,294 @@
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+    <row r="147" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15" t="s">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="N147" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="J148" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="N148" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="D149" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="E147" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="I147" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15" t="s">
+      <c r="E149" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F149" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="N147" s="15" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C148" s="15" t="s">
+      <c r="G149" s="14"/>
+      <c r="H149" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="N149" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="I150" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="D148" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="J148" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="N148" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="E149" s="15" t="s">
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="N150" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="F149" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="N149" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15" t="s">
+      <c r="E151" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="I151" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="J151" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="K151" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="E150" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="F150" s="15" t="s">
+      <c r="N151" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="G150" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="H150" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="I150" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="N150" s="15" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C151" s="15" t="s">
+    </row>
+    <row r="152" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D153" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="E153" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="H153" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="E151" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="G151" s="15" t="s">
+      <c r="I153" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="H151" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="I151" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="J151" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="K151" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15" t="s">
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="N151" s="15" t="s">
+      <c r="N153" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="D154" s="14" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C153" s="15" t="s">
+      <c r="E154" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="D153" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="G153" s="15" t="s">
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="H153" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="I153" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="N153" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="N154" s="15" t="s">
-        <v>626</v>
+      <c r="N154" s="14" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8913,27 +8965,27 @@
         <v>141</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -8983,17 +9035,17 @@
         <v>144</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -9087,20 +9139,20 @@
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
@@ -9117,18 +9169,18 @@
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
@@ -9141,24 +9193,24 @@
         <v>151</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="D165" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -9173,11 +9225,11 @@
         <v>152</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -9287,7 +9339,7 @@
         <v>158</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
@@ -9295,11 +9347,11 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -9337,7 +9389,7 @@
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -9346,7 +9398,7 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
@@ -9489,11 +9541,11 @@
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -9515,11 +9567,11 @@
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1061">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -750,15 +750,6 @@
   </si>
   <si>
     <t>*Granulate wall.</t>
-  </si>
-  <si>
-    <t>*Finely granulate wall</t>
-  </si>
-  <si>
-    <t>*Randomly distributed spines/processes. Hollow to fibrous processes. Processes single or in clusters.</t>
-  </si>
-  <si>
-    <t>*Epicystal archeopyle</t>
   </si>
   <si>
     <t>*Randomly distributed spines/processes. Process barrel-shaped. Can be distally connected.</t>
@@ -3303,6 +3294,21 @@
   </si>
   <si>
     <t>**Coarse reticulation. Reticulation varies in height, irregularity and distribution on the cyst, covering the entire cysts or concentrated at the extremities of the central body. Sulcal area of the cyst can be smooth to scabrate.</t>
+  </si>
+  <si>
+    <t>*Finely granulate wall **Microgranulate.</t>
+  </si>
+  <si>
+    <t>*Randomly distributed spines/processes. Hollow to fibrous processes. Processes single or in clusters. **Hollow intratabular processes that are distally open with minutely aculeate distal margins. Some processes bases may be fused.</t>
+  </si>
+  <si>
+    <t>*Epicystal archeopyle **Epitractal (all plates released on epicyst), with plates being released individually. Margin has a characteristic episulcal tab.</t>
+  </si>
+  <si>
+    <t>**40 to 60 um. (diameter)/, 31.1 to 84.8 um. (diameter).</t>
+  </si>
+  <si>
+    <t>**10 to 15 um. (length),  2.51 to 21.75 um. (length).</t>
   </si>
 </sst>
 </file>
@@ -3795,8 +3801,8 @@
   <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,13 +3835,13 @@
         <v>173</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>174</v>
@@ -3864,20 +3870,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -3885,10 +3891,10 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3896,22 +3902,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>342</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -3919,10 +3925,10 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,22 +3936,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3954,7 +3960,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3962,22 +3968,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>352</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -3986,7 +3992,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,22 +4000,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>353</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>356</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -4018,7 +4024,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4026,31 +4032,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4058,22 +4064,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4081,10 +4087,10 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4092,22 +4098,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>366</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>235</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -4116,7 +4122,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,25 +4130,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>726</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>729</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -4150,7 +4156,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,25 +4164,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>735</v>
-      </c>
       <c r="F11" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>736</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -4184,7 +4190,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4192,25 +4198,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>737</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>741</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>740</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -4218,31 +4224,31 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -4250,7 +4256,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4258,25 +4264,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>749</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>752</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -4284,89 +4290,89 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>230</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>184</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>762</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>768</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>766</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>767</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,40 +4383,40 @@
         <v>230</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E17" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>779</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>782</v>
-      </c>
       <c r="G17" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,23 +4424,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>776</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>775</v>
-      </c>
       <c r="H18" s="18" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -4442,7 +4448,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4453,34 +4459,34 @@
         <v>230</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>712</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>718</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>715</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4491,20 +4497,20 @@
         <v>230</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>189</v>
@@ -4514,7 +4520,7 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4525,22 +4531,22 @@
         <v>182</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>184</v>
       </c>
       <c r="G21" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>368</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
@@ -4549,10 +4555,10 @@
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4563,22 +4569,22 @@
         <v>182</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>184</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
@@ -4588,7 +4594,7 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4599,22 +4605,22 @@
         <v>182</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>184</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18" t="s">
@@ -4624,7 +4630,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,20 +4641,20 @@
         <v>182</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>184</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18" t="s">
@@ -4658,7 +4664,7 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4670,17 +4676,17 @@
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>184</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18" t="s">
@@ -4690,7 +4696,7 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4701,80 +4707,80 @@
         <v>230</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E27" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H27" s="18" t="s">
+      <c r="K27" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>796</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>800</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>798</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4782,39 +4788,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C28" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>802</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>806</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>805</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>201</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>804</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4826,53 +4832,53 @@
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4880,7 +4886,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,25 +4894,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>816</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>821</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>819</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -4914,7 +4920,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4922,21 +4928,21 @@
         <v>25</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>386</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>202</v>
@@ -4945,10 +4951,10 @@
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4959,13 +4965,13 @@
         <v>182</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -4975,10 +4981,10 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4989,28 +4995,28 @@
         <v>182</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D34" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>396</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>399</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5021,18 +5027,18 @@
         <v>182</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>402</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5040,7 +5046,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5051,32 +5057,32 @@
         <v>182</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5087,32 +5093,32 @@
         <v>182</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E37" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>321</v>
-      </c>
       <c r="G37" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>322</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5123,22 +5129,22 @@
         <v>182</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -5146,7 +5152,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,22 +5163,22 @@
         <v>182</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -5180,7 +5186,7 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5191,22 +5197,22 @@
         <v>182</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F40" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="H40" s="18" t="s">
         <v>308</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>311</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5214,7 +5220,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,19 +5231,19 @@
         <v>182</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>199</v>
@@ -5248,7 +5254,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,32 +5265,32 @@
         <v>182</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5295,32 +5301,32 @@
         <v>182</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="19" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,39 +5334,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G44" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>409</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>412</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>203</v>
       </c>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L44" s="18"/>
       <c r="M44" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5371,28 +5377,28 @@
         <v>182</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D45" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>415</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>418</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5400,21 +5406,21 @@
         <v>39</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>203</v>
@@ -5425,21 +5431,21 @@
       </c>
       <c r="L46" s="18"/>
       <c r="M46" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>183</v>
@@ -5450,7 +5456,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>203</v>
@@ -5462,7 +5468,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5470,21 +5476,21 @@
         <v>40</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>432</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>203</v>
@@ -5497,10 +5503,10 @@
         <v>207</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5511,36 +5517,36 @@
         <v>230</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>823</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="I49" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="J49" s="18" t="s">
         <v>822</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>825</v>
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5551,32 +5557,32 @@
         <v>230</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5587,32 +5593,32 @@
         <v>230</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D51" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>858</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>861</v>
-      </c>
       <c r="F51" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5620,43 +5626,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J52" s="18" t="s">
         <v>829</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>831</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="K52" s="18" t="s">
         <v>830</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="J52" s="18" t="s">
+      <c r="L52" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="M52" s="18" t="s">
         <v>832</v>
       </c>
-      <c r="K52" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>835</v>
-      </c>
       <c r="N52" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5667,40 +5673,40 @@
         <v>230</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="F53" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="J53" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="I53" s="18" t="s">
+      <c r="K53" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="M53" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="J53" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>841</v>
-      </c>
       <c r="N53" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5711,34 +5717,34 @@
         <v>230</v>
       </c>
       <c r="C54" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>846</v>
-      </c>
       <c r="F54" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5749,32 +5755,32 @@
         <v>230</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,34 +5791,34 @@
         <v>230</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>856</v>
-      </c>
       <c r="F56" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="19" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,34 +5829,34 @@
         <v>230</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5858,41 +5864,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C58" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>878</v>
-      </c>
       <c r="F58" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="I58" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="J58" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="J58" s="18" t="s">
-        <v>879</v>
-      </c>
       <c r="K58" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L58" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="M58" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="M58" s="18" t="s">
-        <v>880</v>
-      </c>
       <c r="N58" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5903,19 +5909,19 @@
         <v>182</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>193</v>
@@ -5926,7 +5932,7 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,19 +5943,19 @@
         <v>182</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E60" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G60" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>306</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
@@ -5958,7 +5964,7 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5969,19 +5975,19 @@
         <v>182</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H61" s="18" t="s">
         <v>193</v>
@@ -5992,7 +5998,7 @@
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6003,68 +6009,68 @@
         <v>182</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>882</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>885</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>210</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="M63" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="N63" s="18" t="s">
         <v>892</v>
-      </c>
-      <c r="M63" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="N63" s="18" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,37 +6078,37 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="18" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6113,66 +6119,66 @@
         <v>230</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D65" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>897</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>900</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J65" s="18"/>
       <c r="K65" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="M65" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="L65" s="18" t="s">
-        <v>901</v>
-      </c>
-      <c r="M65" s="18" t="s">
-        <v>902</v>
-      </c>
       <c r="N65" s="18" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="19" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -6180,31 +6186,31 @@
         <v>57</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6213,30 +6219,30 @@
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6244,16 +6250,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -6261,14 +6267,14 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="L69" s="18"/>
       <c r="M69" s="18" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6276,32 +6282,32 @@
         <v>60</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F70" s="18"/>
       <c r="H70" s="18" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M70" s="18"/>
       <c r="N70" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="19" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6320,10 +6326,10 @@
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6332,32 +6338,32 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J72" s="22"/>
       <c r="K72" s="22" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L72" s="22"/>
       <c r="M72" s="18" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6366,32 +6372,32 @@
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
       <c r="K73" s="18" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="L73" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="M73" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="M73" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="N73" s="18" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6400,28 +6406,28 @@
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="19" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6429,37 +6435,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J75" s="18"/>
       <c r="K75" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="M75" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="L75" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="M75" s="18" t="s">
-        <v>914</v>
-      </c>
       <c r="N75" s="18" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6468,30 +6474,30 @@
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="E76" s="18" t="s">
         <v>953</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>952</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>956</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="L76" s="18"/>
       <c r="M76" s="18" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6499,35 +6505,35 @@
         <v>67</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J77" s="18"/>
       <c r="K77" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M77" s="18"/>
       <c r="N77" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6538,10 +6544,10 @@
         <v>182</v>
       </c>
       <c r="C78" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>962</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>965</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18" t="s">
@@ -6549,19 +6555,19 @@
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="18"/>
       <c r="K78" s="18" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="L78" s="18"/>
       <c r="M78" s="18" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6569,35 +6575,35 @@
         <v>69</v>
       </c>
       <c r="B79" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="D79" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>450</v>
-      </c>
       <c r="E79" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F79" s="18" t="s">
         <v>210</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="18" t="s">
         <v>214</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,32 +6612,32 @@
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="18" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="L80" s="18"/>
       <c r="M80" s="18" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="19" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6639,33 +6645,33 @@
         <v>71</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="J81" s="18"/>
       <c r="K81" s="18" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="L81" s="18"/>
       <c r="M81" s="18" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,7 +6686,7 @@
         <v>212</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>210</v>
@@ -6706,32 +6712,32 @@
         <v>230</v>
       </c>
       <c r="C83" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="F83" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="E83" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>485</v>
-      </c>
       <c r="G83" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="H83" s="18" t="s">
         <v>484</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="19" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -6742,34 +6748,34 @@
         <v>230</v>
       </c>
       <c r="C84" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="H84" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>969</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>970</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>973</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>971</v>
-      </c>
       <c r="I84" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J84" s="18"/>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6778,32 +6784,32 @@
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D85" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="E85" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="F85" s="18" t="s">
+      <c r="G85" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>496</v>
       </c>
       <c r="H85" s="18"/>
       <c r="I85" s="18" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6814,32 +6820,32 @@
         <v>230</v>
       </c>
       <c r="C86" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="F86" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="E86" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="F86" s="18" t="s">
+      <c r="G86" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>505</v>
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="18" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J86" s="18"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6849,121 +6855,121 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="F87" s="18" t="s">
         <v>506</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>509</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
       <c r="I87" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="B88" s="18" t="s">
-        <v>980</v>
-      </c>
       <c r="C88" s="18" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F88" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>982</v>
       </c>
-      <c r="G88" s="18" t="s">
-        <v>985</v>
-      </c>
       <c r="H88" s="18" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="18"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>182</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
       <c r="N89" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>182</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
@@ -6971,7 +6977,7 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6982,22 +6988,22 @@
         <v>182</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
@@ -7005,41 +7011,41 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
       <c r="N91" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="B92" s="18" t="s">
         <v>992</v>
       </c>
-      <c r="B92" s="18" t="s">
-        <v>995</v>
-      </c>
       <c r="C92" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D92" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="E92" s="24" t="s">
         <v>993</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>996</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="19" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7050,34 +7056,34 @@
         <v>230</v>
       </c>
       <c r="C93" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="F93" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="E93" s="18" t="s">
+      <c r="G93" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="I93" s="18" t="s">
         <v>514</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>517</v>
       </c>
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
       <c r="M93" s="18" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7088,32 +7094,32 @@
         <v>230</v>
       </c>
       <c r="C94" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="G94" s="18" t="s">
         <v>998</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>1001</v>
-      </c>
       <c r="H94" s="18" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J94" s="18"/>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7124,34 +7130,34 @@
         <v>230</v>
       </c>
       <c r="C95" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E95" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="F95" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H95" s="18" t="s">
         <v>1003</v>
       </c>
-      <c r="E95" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H95" s="18" t="s">
-        <v>1006</v>
-      </c>
       <c r="I95" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J95" s="18"/>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7165,29 +7171,29 @@
         <v>240</v>
       </c>
       <c r="D96" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E96" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>1013</v>
-      </c>
       <c r="F96" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G96" s="18" t="s">
         <v>1011</v>
       </c>
-      <c r="G96" s="18" t="s">
-        <v>1014</v>
-      </c>
       <c r="H96" s="18" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
       <c r="M96" s="18" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="19" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7198,34 +7204,34 @@
         <v>230</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F97" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G97" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="G97" s="18" t="s">
-        <v>1019</v>
-      </c>
       <c r="H97" s="18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
       <c r="M97" s="18" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7234,28 +7240,28 @@
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="18"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7264,32 +7270,32 @@
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="E99" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="D99" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>532</v>
-      </c>
       <c r="F99" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="H99" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="G99" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="H99" s="18" t="s">
-        <v>531</v>
-      </c>
       <c r="I99" s="18" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J99" s="18"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7298,32 +7304,32 @@
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J100" s="18"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7331,39 +7337,39 @@
         <v>87</v>
       </c>
       <c r="B101" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>1029</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="G101" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H101" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="I101" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="J101" s="18" t="s">
         <v>1030</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="J101" s="18" t="s">
-        <v>1033</v>
       </c>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7374,30 +7380,30 @@
         <v>182</v>
       </c>
       <c r="C102" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E102" s="18" t="s">
         <v>1038</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>1041</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>195</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="18" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="18"/>
       <c r="K102" s="18"/>
       <c r="L102" s="18"/>
       <c r="M102" s="18" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7405,35 +7411,35 @@
         <v>91</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="18"/>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
       <c r="M103" s="18" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="19" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7441,33 +7447,33 @@
         <v>89</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="18"/>
       <c r="L104" s="18"/>
       <c r="M104" s="18" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7475,31 +7481,31 @@
         <v>92</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
       <c r="H105" s="18" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I105" s="18"/>
       <c r="J105" s="18"/>
       <c r="K105" s="18"/>
       <c r="L105" s="18"/>
       <c r="M105" s="18" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7507,25 +7513,25 @@
         <v>90</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C106" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>1048</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="F106" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G106" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="H106" s="18" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="18"/>
@@ -7534,40 +7540,44 @@
       </c>
       <c r="L106" s="18"/>
       <c r="M106" s="18" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5" t="s">
-        <v>190</v>
+      <c r="C107" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7870,36 +7880,36 @@
         <v>182</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D119" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E119" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>211</v>
       </c>
       <c r="G119" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I119" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="I119" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="J119" s="14"/>
       <c r="K119" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L119" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M119" s="14"/>
       <c r="N119" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8015,33 +8025,33 @@
         <v>112</v>
       </c>
       <c r="B126" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C126" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>587</v>
-      </c>
       <c r="E126" s="14" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F126" s="14" t="s">
         <v>211</v>
       </c>
       <c r="G126" s="14"/>
       <c r="H126" s="14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
       <c r="K126" s="14"/>
       <c r="L126" s="14"/>
       <c r="M126" s="14" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="127" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8094,38 +8104,38 @@
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="H129" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="D129" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="G129" s="14" t="s">
+      <c r="I129" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="H129" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>580</v>
-      </c>
       <c r="J129" s="14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L129" s="14"/>
       <c r="M129" s="14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N129" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8187,37 +8197,37 @@
         <v>119</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D133" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="F133" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="G133" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="F133" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>596</v>
-      </c>
       <c r="H133" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L133" s="14"/>
       <c r="M133" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N133" s="14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8226,32 +8236,32 @@
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D134" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>601</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>604</v>
       </c>
       <c r="G134" s="14"/>
       <c r="H134" s="14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
       <c r="K134" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L134" s="14"/>
       <c r="M134" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="N134" s="14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="135" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8259,35 +8269,35 @@
         <v>121</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
       <c r="K135" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L135" s="14"/>
       <c r="M135" s="14" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="N135" s="14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="136" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8295,37 +8305,37 @@
         <v>122</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D136" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="I136" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H136" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>560</v>
       </c>
       <c r="J136" s="14"/>
       <c r="K136" s="14"/>
       <c r="L136" s="14"/>
       <c r="M136" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="N136" s="14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8334,28 +8344,28 @@
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D137" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="E137" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>565</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
       <c r="K137" s="14" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L137" s="14"/>
       <c r="M137" s="14"/>
       <c r="N137" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8363,33 +8373,33 @@
         <v>124</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F138" s="14" t="s">
         <v>211</v>
       </c>
       <c r="G138" s="14"/>
       <c r="H138" s="14" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
       <c r="K138" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L138" s="14"/>
       <c r="M138" s="14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N138" s="14" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8401,11 +8411,11 @@
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -8422,32 +8432,32 @@
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H140" s="14"/>
       <c r="I140" s="14" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J140" s="14"/>
       <c r="K140" s="14"/>
       <c r="L140" s="14"/>
       <c r="M140" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N140" s="14" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="141" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8455,35 +8465,35 @@
         <v>127</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D141" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="G141" s="14" t="s">
         <v>618</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>621</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="J141" s="14"/>
       <c r="K141" s="14"/>
       <c r="L141" s="14"/>
       <c r="M141" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N141" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8494,36 +8504,36 @@
         <v>230</v>
       </c>
       <c r="C142" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="G142" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="H142" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="E142" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="G142" s="14" t="s">
+      <c r="I142" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="H142" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>629</v>
       </c>
       <c r="J142" s="14"/>
       <c r="K142" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L142" s="14"/>
       <c r="M142" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N142" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8535,29 +8545,29 @@
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G143" s="14" t="s">
         <v>633</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>636</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K143" s="14"/>
       <c r="L143" s="14"/>
       <c r="M143" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N143" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8568,36 +8578,36 @@
         <v>230</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D144" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="I144" s="14" t="s">
         <v>639</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="H144" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="I144" s="14" t="s">
-        <v>642</v>
       </c>
       <c r="J144" s="14"/>
       <c r="K144" s="14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="L144" s="14"/>
       <c r="M144" s="14" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="N144" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8608,38 +8618,38 @@
         <v>230</v>
       </c>
       <c r="C145" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="F145" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="G145" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="J145" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="K145" s="14" t="s">
         <v>648</v>
-      </c>
-      <c r="E145" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="H145" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="I145" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="J145" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="K145" s="14" t="s">
-        <v>651</v>
       </c>
       <c r="L145" s="14"/>
       <c r="M145" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="N145" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8651,17 +8661,17 @@
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
@@ -8676,34 +8686,34 @@
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E147" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="H147" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="F147" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="H147" s="14" t="s">
-        <v>661</v>
-      </c>
       <c r="I147" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
       <c r="M147" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8714,34 +8724,34 @@
         <v>230</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H148" s="14"/>
       <c r="I148" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J148" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K148" s="14"/>
       <c r="L148" s="14"/>
       <c r="M148" s="14" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N148" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8752,32 +8762,32 @@
         <v>230</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G149" s="14"/>
       <c r="H149" s="14" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
       <c r="K149" s="14" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L149" s="14"/>
       <c r="M149" s="14" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="N149" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8786,34 +8796,34 @@
       </c>
       <c r="B150" s="14"/>
       <c r="C150" s="14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H150" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J150" s="14"/>
       <c r="K150" s="14"/>
       <c r="L150" s="14"/>
       <c r="M150" s="14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="N150" s="14" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="151" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8824,38 +8834,38 @@
         <v>230</v>
       </c>
       <c r="C151" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="I151" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="J151" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="K151" s="14" t="s">
         <v>687</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="F151" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="H151" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="J151" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="K151" s="14" t="s">
-        <v>690</v>
       </c>
       <c r="L151" s="14"/>
       <c r="M151" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="N151" s="14" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8869,17 +8879,17 @@
         <v>198</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G152" s="14"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K152" s="14"/>
       <c r="L152" s="14"/>
@@ -8896,34 +8906,34 @@
         <v>230</v>
       </c>
       <c r="C153" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="F153" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="G153" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="H153" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="I153" s="14" t="s">
         <v>698</v>
-      </c>
-      <c r="F153" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="H153" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="I153" s="14" t="s">
-        <v>701</v>
       </c>
       <c r="J153" s="14"/>
       <c r="K153" s="14"/>
       <c r="L153" s="14"/>
       <c r="M153" s="14" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8934,30 +8944,30 @@
         <v>230</v>
       </c>
       <c r="C154" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="E154" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="D154" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>707</v>
-      </c>
       <c r="F154" s="14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J154" s="14"/>
       <c r="K154" s="14"/>
       <c r="L154" s="14"/>
       <c r="M154" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="N154" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8968,24 +8978,24 @@
         <v>230</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -9038,14 +9048,14 @@
         <v>230</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
@@ -9229,7 +9239,7 @@
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -9347,11 +9357,11 @@
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$194</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1074">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -327,9 +328,6 @@
   </si>
   <si>
     <t>Protoperidinium parthenopes</t>
-  </si>
-  <si>
-    <t>Protoperidinium thulensense</t>
   </si>
   <si>
     <t>Protoperidinium tricingulatum</t>
@@ -3309,6 +3307,48 @@
   </si>
   <si>
     <t>**10 to 15 um. (length),  2.51 to 21.75 um. (length).</t>
+  </si>
+  <si>
+    <t>Protoperidinium nudum</t>
+  </si>
+  <si>
+    <t>*Van Nieuwenhove et al., 2020</t>
+  </si>
+  <si>
+    <t>Protoperidinium stellatum</t>
+  </si>
+  <si>
+    <t>Protoperidinium abei</t>
+  </si>
+  <si>
+    <t>Protoperidinium biconicum</t>
+  </si>
+  <si>
+    <t>Protoperidinium denticulatum</t>
+  </si>
+  <si>
+    <t>Protoperidinium excentricum</t>
+  </si>
+  <si>
+    <t>Protoperidinium fuzhouense</t>
+  </si>
+  <si>
+    <t>Protoperidinium humile</t>
+  </si>
+  <si>
+    <t>Protoperidinium latissimum</t>
+  </si>
+  <si>
+    <t>Protoperidinium punctulatum</t>
+  </si>
+  <si>
+    <t>Protoperidinium thorianum</t>
+  </si>
+  <si>
+    <t>*Zonneveld &amp; Pospelova (2015) *Mertens et al., 2019</t>
+  </si>
+  <si>
+    <t>Protoperidinium thulesense</t>
   </si>
 </sst>
 </file>
@@ -3444,7 +3484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3517,6 +3557,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3798,11 +3841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N184"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,46 +3866,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3870,20 +3913,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -3891,10 +3934,10 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,22 +3945,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>339</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -3925,10 +3968,10 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,22 +3979,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>343</v>
-      </c>
       <c r="F4" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3960,7 +4003,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3968,22 +4011,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>349</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -3992,7 +4035,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4000,22 +4043,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>353</v>
-      </c>
       <c r="F6" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -4024,7 +4067,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4032,31 +4075,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,22 +4107,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>358</v>
-      </c>
       <c r="F8" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4087,10 +4130,10 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,22 +4141,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>362</v>
-      </c>
       <c r="F9" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -4122,7 +4165,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4130,25 +4173,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>725</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>726</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -4156,7 +4199,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4164,25 +4207,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>729</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>730</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>731</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -4190,7 +4233,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,25 +4241,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>736</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>737</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -4224,31 +4267,31 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>740</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>741</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>742</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>744</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>743</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -4256,7 +4299,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4264,25 +4307,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>748</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>749</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -4290,89 +4333,89 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>755</v>
-      </c>
       <c r="E15" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>757</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>758</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M15" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>761</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="G16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>767</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4380,43 +4423,43 @@
         <v>12</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="I17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>776</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,23 +4467,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>770</v>
-      </c>
       <c r="F18" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>773</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>774</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -4448,7 +4491,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4456,37 +4499,37 @@
         <v>14</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>709</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="H19" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>711</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>712</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>716</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4494,33 +4537,33 @@
         <v>15</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>718</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>720</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>719</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4528,37 +4571,37 @@
         <v>16</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="G21" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>367</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>368</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4566,35 +4609,35 @@
         <v>17</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="E22" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>371</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>372</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,35 +4645,35 @@
         <v>18</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="E23" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>376</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>377</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4638,33 +4681,33 @@
         <v>19</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>184</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,31 +4715,31 @@
         <v>20</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,83 +4747,83 @@
         <v>21</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H26" s="18" t="s">
+      <c r="I26" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>784</v>
-      </c>
       <c r="J26" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="E27" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="18" t="s">
+      <c r="J27" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="M27" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>793</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="M27" s="18" t="s">
+      <c r="N27" s="18" t="s">
         <v>795</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4788,39 +4831,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>799</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>800</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4828,57 +4871,57 @@
         <v>23</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>807</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>783</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -4886,7 +4929,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,25 +4937,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>817</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="H31" s="18" t="s">
         <v>815</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>816</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -4920,7 +4963,7 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4928,33 +4971,33 @@
         <v>25</v>
       </c>
       <c r="B32" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>385</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>386</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4962,16 +5005,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>390</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -4981,10 +5024,10 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>391</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,31 +5035,31 @@
         <v>27</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,21 +5067,21 @@
         <v>28</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5046,7 +5089,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5054,35 +5097,35 @@
         <v>29</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E36" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5090,35 +5133,35 @@
         <v>30</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="E37" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="18" t="s">
+      <c r="G37" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="H37" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>319</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5126,25 +5169,25 @@
         <v>31</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E38" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -5152,7 +5195,7 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,25 +5203,25 @@
         <v>32</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E39" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>292</v>
-      </c>
       <c r="H39" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -5186,7 +5229,7 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,25 +5237,25 @@
         <v>33</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="E40" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" s="18" t="s">
+      <c r="G40" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H40" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5220,7 +5263,7 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5228,25 +5271,25 @@
         <v>34</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="E41" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="G41" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="H41" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -5254,7 +5297,7 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5262,35 +5305,35 @@
         <v>35</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E42" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F42" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>284</v>
-      </c>
       <c r="H42" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="N42" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5298,35 +5341,35 @@
         <v>36</v>
       </c>
       <c r="B43" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E43" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>287</v>
-      </c>
       <c r="H43" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="19" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5334,39 +5377,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C44" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="F44" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>406</v>
-      </c>
       <c r="H44" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J44" s="18"/>
       <c r="K44" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L44" s="18"/>
       <c r="M44" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5374,31 +5417,31 @@
         <v>38</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>414</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5406,69 +5449,69 @@
         <v>39</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>418</v>
-      </c>
       <c r="D46" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L46" s="18"/>
       <c r="M46" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>423</v>
-      </c>
       <c r="D47" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5476,37 +5519,37 @@
         <v>40</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>426</v>
-      </c>
       <c r="E48" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="L48" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="M48" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5514,39 +5557,39 @@
         <v>41</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="I49" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>824</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="I49" s="18" t="s">
+      <c r="J49" s="18" t="s">
         <v>821</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>822</v>
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5554,35 +5597,35 @@
         <v>42</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D50" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>864</v>
-      </c>
       <c r="F50" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5590,35 +5633,35 @@
         <v>43</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5626,43 +5669,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>826</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="E52" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="E52" s="18" t="s">
+      <c r="K52" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="M52" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>830</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>830</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>832</v>
-      </c>
       <c r="N52" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,43 +5713,43 @@
         <v>45</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="I53" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="E53" s="18" t="s">
+      <c r="J53" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="M53" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>838</v>
-      </c>
       <c r="N53" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5714,37 +5757,37 @@
         <v>46</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I54" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="J54" s="18" t="s">
         <v>841</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>842</v>
       </c>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5752,35 +5795,35 @@
         <v>47</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="F55" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5788,37 +5831,37 @@
         <v>48</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C56" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>850</v>
-      </c>
       <c r="E56" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I56" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="J56" s="18" t="s">
         <v>851</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>852</v>
       </c>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="19" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -5826,37 +5869,37 @@
         <v>49</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>867</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5864,41 +5907,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>872</v>
-      </c>
       <c r="D58" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I58" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L58" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="M58" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="K58" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="M58" s="18" t="s">
-        <v>877</v>
-      </c>
       <c r="N58" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5906,25 +5949,25 @@
         <v>51</v>
       </c>
       <c r="B59" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="E59" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="20" t="s">
+      <c r="G59" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>296</v>
-      </c>
       <c r="H59" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
@@ -5932,7 +5975,7 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5940,22 +5983,22 @@
         <v>52</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="E60" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F60" s="18" t="s">
+      <c r="G60" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>303</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
@@ -5964,7 +6007,7 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5972,25 +6015,25 @@
         <v>53</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="E61" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>299</v>
-      </c>
       <c r="H61" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -5998,7 +6041,7 @@
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
       <c r="N61" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,71 +6049,71 @@
         <v>54</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="I63" s="18" t="s">
         <v>886</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>887</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="L63" s="18" t="s">
         <v>888</v>
       </c>
-      <c r="L63" s="18" t="s">
-        <v>889</v>
-      </c>
       <c r="M63" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="N63" s="18" t="s">
         <v>891</v>
-      </c>
-      <c r="N63" s="18" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6078,37 +6121,37 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C64" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>920</v>
       </c>
-      <c r="D64" s="18" t="s">
-        <v>921</v>
-      </c>
       <c r="E64" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6116,69 +6159,69 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C65" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>893</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>894</v>
-      </c>
       <c r="E65" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J65" s="18"/>
       <c r="K65" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L65" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="M65" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="M65" s="18" t="s">
-        <v>899</v>
-      </c>
       <c r="N65" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J66" s="18"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="19" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -6186,31 +6229,31 @@
         <v>57</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="D67" s="18" t="s">
+      <c r="E67" s="18" t="s">
         <v>928</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>929</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6219,30 +6262,30 @@
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6250,16 +6293,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -6267,14 +6310,14 @@
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L69" s="18"/>
       <c r="M69" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6282,32 +6325,32 @@
         <v>60</v>
       </c>
       <c r="B70" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>451</v>
-      </c>
       <c r="E70" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F70" s="18"/>
       <c r="H70" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
       <c r="K70" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="L70" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="L70" s="18" t="s">
-        <v>453</v>
       </c>
       <c r="M70" s="18"/>
       <c r="N70" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="19" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6326,10 +6369,10 @@
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6338,32 +6381,32 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
       <c r="H72" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J72" s="22"/>
       <c r="K72" s="22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L72" s="22"/>
       <c r="M72" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6372,32 +6415,32 @@
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="18"/>
       <c r="K73" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="L73" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="L73" s="18" t="s">
-        <v>941</v>
-      </c>
       <c r="M73" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,28 +6449,28 @@
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>475</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>476</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="19" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6435,37 +6478,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="I75" s="18" t="s">
         <v>906</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>907</v>
       </c>
       <c r="J75" s="18"/>
       <c r="K75" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="L75" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="L75" s="18" t="s">
-        <v>909</v>
-      </c>
       <c r="M75" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,30 +6517,30 @@
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
       <c r="K76" s="18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L76" s="18"/>
       <c r="M76" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="N76" s="18" t="s">
         <v>954</v>
-      </c>
-      <c r="N76" s="18" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6505,35 +6548,35 @@
         <v>67</v>
       </c>
       <c r="B77" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="C77" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="D77" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>458</v>
-      </c>
       <c r="E77" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="I77" s="18" t="s">
         <v>461</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>462</v>
       </c>
       <c r="J77" s="18"/>
       <c r="K77" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="L77" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="L77" s="18" t="s">
-        <v>460</v>
       </c>
       <c r="M77" s="18"/>
       <c r="N77" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6541,33 +6584,33 @@
         <v>68</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="18"/>
       <c r="K78" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L78" s="18"/>
       <c r="M78" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6575,35 +6618,35 @@
         <v>69</v>
       </c>
       <c r="B79" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C79" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>445</v>
-      </c>
       <c r="D79" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6612,32 +6655,32 @@
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D80" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="18" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L80" s="18"/>
       <c r="M80" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="19" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6645,33 +6688,33 @@
         <v>71</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C81" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>912</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>913</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="I81" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="I81" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="J81" s="18"/>
       <c r="K81" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L81" s="18"/>
       <c r="M81" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6679,29 +6722,29 @@
         <v>72</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="18"/>
       <c r="K82" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
       <c r="N82" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6709,35 +6752,35 @@
         <v>73</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C83" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="D83" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="E83" s="18" t="s">
+      <c r="H83" s="18" t="s">
         <v>483</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>484</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="19" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -6745,37 +6788,37 @@
         <v>74</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C84" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="E84" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="G84" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="H84" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="G84" s="18" t="s">
-        <v>970</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>968</v>
-      </c>
       <c r="I84" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J84" s="18"/>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="N84" s="18" t="s">
         <v>971</v>
-      </c>
-      <c r="N84" s="18" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6784,32 +6827,32 @@
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>490</v>
-      </c>
       <c r="G85" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H85" s="18"/>
       <c r="I85" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6817,35 +6860,35 @@
         <v>76</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C86" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F86" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="D86" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="E86" s="18" t="s">
+      <c r="G86" s="18" t="s">
         <v>501</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>502</v>
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J86" s="18"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6855,121 +6898,121 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
       <c r="I87" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B88" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="D88" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="D88" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E88" s="18" t="s">
+      <c r="G88" s="18" t="s">
         <v>981</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="H88" s="18" t="s">
         <v>979</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="H88" s="18" t="s">
-        <v>980</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="18"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B89" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E89" s="18" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
       <c r="N89" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B90" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>986</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E90" s="18" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
@@ -6977,7 +7020,7 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6985,25 +7028,25 @@
         <v>78</v>
       </c>
       <c r="B91" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="E91" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F91" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H91" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="18"/>
@@ -7011,41 +7054,41 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
       <c r="N91" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>989</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="E92" s="24" t="s">
         <v>992</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>993</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="19" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7053,37 +7096,37 @@
         <v>79</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="G93" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="F93" s="18" t="s">
+      <c r="H93" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="G93" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="H93" s="18" t="s">
+      <c r="I93" s="18" t="s">
         <v>513</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>514</v>
       </c>
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
       <c r="M93" s="18" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7091,35 +7134,35 @@
         <v>80</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C94" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="H94" s="18" t="s">
         <v>995</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>998</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>996</v>
-      </c>
       <c r="I94" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J94" s="18"/>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7127,37 +7170,37 @@
         <v>81</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E95" s="18" t="s">
+      <c r="G95" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="H95" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="G95" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H95" s="18" t="s">
-        <v>1003</v>
-      </c>
       <c r="I95" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J95" s="18"/>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7165,35 +7208,35 @@
         <v>82</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D96" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="G96" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="H96" s="18" t="s">
         <v>1008</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>1009</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
       <c r="M96" s="18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="19" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7201,37 +7244,37 @@
         <v>83</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C97" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H97" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="D97" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F97" s="18" t="s">
+      <c r="I97" s="18" t="s">
         <v>1013</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H97" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>1014</v>
       </c>
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
       <c r="M97" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7240,28 +7283,28 @@
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="18"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7270,32 +7313,32 @@
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="I99" s="18" t="s">
         <v>526</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="H99" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="I99" s="18" t="s">
-        <v>527</v>
       </c>
       <c r="J99" s="18"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7304,32 +7347,32 @@
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="D100" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E100" s="18" t="s">
+      <c r="F100" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="G100" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="F100" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>522</v>
-      </c>
       <c r="H100" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J100" s="18"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7337,39 +7380,39 @@
         <v>87</v>
       </c>
       <c r="B101" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>1026</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="E101" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="D101" s="18" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E101" s="18" t="s">
+      <c r="G101" s="18" t="s">
         <v>1032</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="H101" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="J101" s="18" t="s">
         <v>1029</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="J101" s="18" t="s">
-        <v>1030</v>
       </c>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7377,33 +7420,33 @@
         <v>88</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D102" s="18" t="s">
         <v>1035</v>
       </c>
-      <c r="D102" s="18" t="s">
-        <v>1036</v>
-      </c>
       <c r="E102" s="18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="18"/>
       <c r="K102" s="18"/>
       <c r="L102" s="18"/>
       <c r="M102" s="18" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7411,35 +7454,35 @@
         <v>91</v>
       </c>
       <c r="B103" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="C103" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E103" s="18" t="s">
+      <c r="G103" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="F103" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="G103" s="18" t="s">
+      <c r="H103" s="18" t="s">
         <v>536</v>
-      </c>
-      <c r="H103" s="18" t="s">
-        <v>537</v>
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="18"/>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
       <c r="M103" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="19" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7447,33 +7490,33 @@
         <v>89</v>
       </c>
       <c r="B104" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="C104" s="18" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D104" s="18" t="s">
+      <c r="E104" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>540</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>541</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
       <c r="K104" s="18"/>
       <c r="L104" s="18"/>
       <c r="M104" s="18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N104" s="18" t="s">
         <v>1043</v>
-      </c>
-      <c r="N104" s="18" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7481,31 +7524,31 @@
         <v>92</v>
       </c>
       <c r="B105" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E105" s="18" t="s">
         <v>1051</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>1052</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
       <c r="H105" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I105" s="18"/>
       <c r="J105" s="18"/>
       <c r="K105" s="18"/>
       <c r="L105" s="18"/>
       <c r="M105" s="18" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7513,37 +7556,37 @@
         <v>90</v>
       </c>
       <c r="B106" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G106" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F106" s="18" t="s">
+      <c r="H106" s="18" t="s">
         <v>1046</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>543</v>
-      </c>
-      <c r="H106" s="18" t="s">
-        <v>1047</v>
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="18"/>
       <c r="K106" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L106" s="18"/>
       <c r="M106" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7551,25 +7594,25 @@
         <v>93</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C107" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F107" s="18" t="s">
         <v>1056</v>
       </c>
-      <c r="D107" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="E107" s="18" t="s">
+      <c r="G107" s="18" t="s">
         <v>1059</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="H107" s="18" t="s">
         <v>1057</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H107" s="18" t="s">
-        <v>1058</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="18"/>
@@ -7577,84 +7620,66 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="5" t="s">
-        <v>193</v>
-      </c>
+      <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5" t="s">
-        <v>190</v>
+        <v>971</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="5" t="s">
-        <v>192</v>
-      </c>
+      <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -7663,42 +7688,48 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B111" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="D111" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="F111" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
+      <c r="H111" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
+      <c r="J111" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="N111" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="112" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>182</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -7707,12 +7738,12 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>99</v>
+        <v>1066</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -7726,137 +7757,101 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="N113" s="5" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="114" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G114" s="5"/>
-      <c r="H114" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5" t="s">
-        <v>190</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>182</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="F115" s="5"/>
       <c r="G115" s="5"/>
-      <c r="H115" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>236</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>237</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -7870,295 +7865,323 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-    </row>
-    <row r="119" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B119" s="14" t="s">
+      <c r="N118" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="E119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H130" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G119" s="14" t="s">
+      <c r="I130" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H119" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="I119" s="14" t="s">
+      <c r="L130" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="L119" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-    </row>
-    <row r="121" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-    </row>
-    <row r="122" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-    </row>
-    <row r="123" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
-    </row>
-    <row r="124" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
-      <c r="N124" s="12"/>
-    </row>
-    <row r="125" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="12"/>
-      <c r="N125" s="12"/>
-    </row>
-    <row r="126" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
-      <c r="L126" s="14"/>
-      <c r="M126" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="N126" s="14" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
-    </row>
-    <row r="128" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="I129" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="J129" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="K129" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="N129" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
-      <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
     </row>
     <row r="131" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -8176,7 +8199,7 @@
     </row>
     <row r="132" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -8192,230 +8215,144 @@
       <c r="M132" s="12"/>
       <c r="N132" s="12"/>
     </row>
-    <row r="133" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="H133" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="N133" s="14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="N134" s="14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="N135" s="14" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H136" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="I136" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="J136" s="14"/>
-      <c r="K136" s="14"/>
-      <c r="L136" s="14"/>
-      <c r="M136" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="N136" s="14" t="s">
-        <v>549</v>
-      </c>
+    <row r="133" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+    </row>
+    <row r="134" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+    </row>
+    <row r="135" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+    </row>
+    <row r="136" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
     </row>
     <row r="137" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B137" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>580</v>
+      </c>
       <c r="C137" s="14" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="F137" s="14"/>
+        <v>582</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="G137" s="14"/>
       <c r="H137" s="14" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
-      <c r="K137" s="14" t="s">
-        <v>560</v>
-      </c>
+      <c r="K137" s="14"/>
       <c r="L137" s="14"/>
-      <c r="M137" s="14"/>
+      <c r="M137" s="14" t="s">
+        <v>585</v>
+      </c>
       <c r="N137" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="N138" s="14" t="s">
-        <v>570</v>
-      </c>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
     </row>
     <row r="139" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -8424,839 +8361,919 @@
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
+      <c r="N139" s="12" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="140" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="H140" s="14"/>
+        <v>573</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>575</v>
+      </c>
       <c r="I140" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
+        <v>576</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="K140" s="14" t="s">
+        <v>570</v>
+      </c>
       <c r="L140" s="14"/>
       <c r="M140" s="14" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="N140" s="14" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="E141" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="F141" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="14"/>
-      <c r="M141" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="N141" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="H142" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="I142" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="L142" s="14"/>
-      <c r="M142" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="N142" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="K143" s="14"/>
-      <c r="L143" s="14"/>
-      <c r="M143" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="N143" s="14" t="s">
-        <v>614</v>
-      </c>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+    </row>
+    <row r="142" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+    </row>
+    <row r="143" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
     </row>
     <row r="144" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>230</v>
+        <v>587</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>635</v>
+        <v>466</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>636</v>
+        <v>588</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="I144" s="14" t="s">
-        <v>639</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="I144" s="14"/>
       <c r="J144" s="14"/>
       <c r="K144" s="14" t="s">
-        <v>638</v>
+        <v>590</v>
       </c>
       <c r="L144" s="14"/>
       <c r="M144" s="14" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="N144" s="14" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>230</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B145" s="14"/>
       <c r="C145" s="14" t="s">
-        <v>644</v>
+        <v>596</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>645</v>
+        <v>597</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>652</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="G145" s="14"/>
       <c r="H145" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="I145" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="J145" s="14" t="s">
-        <v>646</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
       <c r="K145" s="14" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="L145" s="14"/>
       <c r="M145" s="14" t="s">
-        <v>653</v>
+        <v>602</v>
       </c>
       <c r="N145" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12" t="s">
-        <v>190</v>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="N146" s="14" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="147" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>530</v>
+      </c>
       <c r="C147" s="14" t="s">
-        <v>659</v>
+        <v>272</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>660</v>
+        <v>553</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>655</v>
+        <v>552</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>661</v>
+        <v>554</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>656</v>
+        <v>286</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>658</v>
+        <v>555</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>654</v>
+        <v>556</v>
       </c>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
       <c r="M147" s="14" t="s">
-        <v>662</v>
+        <v>557</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>657</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>230</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B148" s="14"/>
       <c r="C148" s="14" t="s">
-        <v>667</v>
+        <v>560</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>266</v>
+        <v>558</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="J148" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="K148" s="14"/>
+        <v>561</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14" t="s">
+        <v>559</v>
+      </c>
       <c r="L148" s="14"/>
-      <c r="M148" s="14" t="s">
-        <v>668</v>
-      </c>
+      <c r="M148" s="14"/>
       <c r="N148" s="14" t="s">
-        <v>614</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>670</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C149" s="14"/>
       <c r="D149" s="14" t="s">
-        <v>669</v>
+        <v>564</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>674</v>
+        <v>566</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>671</v>
+        <v>210</v>
       </c>
       <c r="G149" s="14"/>
       <c r="H149" s="14" t="s">
-        <v>673</v>
+        <v>567</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
       <c r="K149" s="14" t="s">
-        <v>672</v>
+        <v>565</v>
       </c>
       <c r="L149" s="14"/>
       <c r="M149" s="14" t="s">
-        <v>675</v>
+        <v>568</v>
       </c>
       <c r="N149" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="E150" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="F150" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="G150" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="H150" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="I150" s="14" t="s">
-        <v>676</v>
-      </c>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
-      <c r="L150" s="14"/>
-      <c r="M150" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="N150" s="14" t="s">
-        <v>610</v>
-      </c>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
     </row>
     <row r="151" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>230</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B151" s="14"/>
       <c r="C151" s="14" t="s">
-        <v>684</v>
+        <v>606</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>683</v>
+        <v>605</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>688</v>
+        <v>621</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>685</v>
+        <v>607</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="H151" s="14" t="s">
-        <v>658</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="H151" s="14"/>
       <c r="I151" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="J151" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="K151" s="14" t="s">
-        <v>687</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
       <c r="L151" s="14"/>
       <c r="M151" s="14" t="s">
-        <v>690</v>
+        <v>608</v>
       </c>
       <c r="N151" s="14" t="s">
-        <v>691</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>230</v>
+        <v>610</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>198</v>
+        <v>615</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="E152" s="14"/>
+        <v>614</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>612</v>
+      </c>
       <c r="F152" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G152" s="14"/>
+        <v>616</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>617</v>
+      </c>
       <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="14" t="s">
-        <v>252</v>
-      </c>
+      <c r="I152" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="J152" s="14"/>
       <c r="K152" s="14"/>
       <c r="L152" s="14"/>
-      <c r="M152" s="14"/>
+      <c r="M152" s="14" t="s">
+        <v>618</v>
+      </c>
       <c r="N152" s="14" t="s">
-        <v>190</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>693</v>
+        <v>624</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>695</v>
+        <v>620</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>696</v>
+        <v>622</v>
       </c>
       <c r="H153" s="14" t="s">
-        <v>692</v>
+        <v>627</v>
       </c>
       <c r="I153" s="14" t="s">
-        <v>698</v>
+        <v>625</v>
       </c>
       <c r="J153" s="14"/>
-      <c r="K153" s="14"/>
+      <c r="K153" s="14" t="s">
+        <v>626</v>
+      </c>
       <c r="L153" s="14"/>
       <c r="M153" s="14" t="s">
-        <v>699</v>
+        <v>628</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>701</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C154" s="14"/>
       <c r="D154" s="14" t="s">
-        <v>700</v>
+        <v>629</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="G154" s="14"/>
+        <v>250</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>632</v>
+      </c>
       <c r="H154" s="14"/>
-      <c r="I154" s="14" t="s">
-        <v>703</v>
-      </c>
-      <c r="J154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14" t="s">
+        <v>630</v>
+      </c>
       <c r="K154" s="14"/>
       <c r="L154" s="14"/>
       <c r="M154" s="14" t="s">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="N154" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="F155" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="N155" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J156" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="K156" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="N156" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="N158" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K159" s="14"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="N159" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="L160" s="14"/>
+      <c r="M160" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="N160" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="J161" s="14"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="N161" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="I162" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J162" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="K162" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="N162" s="14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D163" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="J155" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-    </row>
-    <row r="157" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-    </row>
-    <row r="158" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
-    </row>
-    <row r="160" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
-    </row>
-    <row r="161" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-    </row>
-    <row r="162" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-    </row>
-    <row r="163" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="L164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5" t="s">
-        <v>190</v>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="I164" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="J164" s="14"/>
+      <c r="K164" s="14"/>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="N164" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="J165" s="14"/>
+      <c r="K165" s="14"/>
+      <c r="L165" s="14"/>
+      <c r="M165" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="N165" s="14" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C166" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>706</v>
+      </c>
       <c r="D166" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
+      <c r="I166" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
       <c r="N166" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -9274,7 +9291,7 @@
     </row>
     <row r="168" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -9292,13 +9309,21 @@
     </row>
     <row r="169" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
@@ -9306,11 +9331,13 @@
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
+      <c r="N169" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="170" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -9328,7 +9355,7 @@
     </row>
     <row r="171" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -9346,35 +9373,25 @@
     </row>
     <row r="172" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>230</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="5" t="s">
-        <v>241</v>
-      </c>
+      <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="5" t="s">
-        <v>242</v>
-      </c>
+      <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
-      <c r="N172" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="N172" s="5"/>
     </row>
     <row r="173" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -9392,73 +9409,105 @@
     </row>
     <row r="174" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
+        <v>217</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
       <c r="N174" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B175" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
+      <c r="F175" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
+      <c r="K175" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
+      <c r="N175" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="176" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
+      <c r="F176" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
+      <c r="H176" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
+      <c r="N176" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="177" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B177" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>229</v>
+      </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -9468,11 +9517,13 @@
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
+      <c r="N177" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="178" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -9490,7 +9541,7 @@
     </row>
     <row r="179" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -9508,7 +9559,7 @@
     </row>
     <row r="180" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -9526,7 +9577,7 @@
     </row>
     <row r="181" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -9544,19 +9595,13 @@
     </row>
     <row r="182" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>182</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="5" t="s">
-        <v>225</v>
-      </c>
+      <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="5" t="s">
-        <v>226</v>
-      </c>
+      <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
@@ -9564,42 +9609,278 @@
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
-      <c r="N182" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="N182" s="5"/>
     </row>
     <row r="183" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
+      <c r="H183" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
       <c r="N183" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+    </row>
+    <row r="185" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+    </row>
+    <row r="187" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+    </row>
+    <row r="188" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+    </row>
+    <row r="189" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+    </row>
+    <row r="190" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+    </row>
+    <row r="191" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+    </row>
+    <row r="192" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+    </row>
+    <row r="193" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N183"/>
+  <autoFilter ref="A1:N194"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="A13:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -3844,8 +3844,8 @@
   <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,7 +7718,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5" t="s">
-        <v>189</v>
+        <v>586</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5" t="s">
-        <v>189</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -3844,8 +3844,8 @@
   <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/recursos/Data.xlsx
+++ b/recursos/Data.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$N$196</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1192">
   <si>
     <t>Alexandrium catenella</t>
   </si>
@@ -706,18 +706,6 @@
   </si>
   <si>
     <t>*No process/spines</t>
-  </si>
-  <si>
-    <t>*Spherical to cruciform.</t>
-  </si>
-  <si>
-    <t>*Subspherical to ovoid.</t>
-  </si>
-  <si>
-    <t>Wall psilate, granulate to scabrate.</t>
-  </si>
-  <si>
-    <t>Wall has muri forming a reticulate pattern. Sub-muri can be present. Wall smooth to finely granulate.</t>
   </si>
   <si>
     <t>*Granulate wall.</t>
@@ -3635,12 +3623,93 @@
   <si>
     <t>*30 to 47 um. (diameter)</t>
   </si>
+  <si>
+    <t>*Subspherical to ovoid. **Subspherical</t>
+  </si>
+  <si>
+    <t>**28 to 40 um. (diameter)</t>
+  </si>
+  <si>
+    <t>*Archeopyle precingular by loss of one plate. **By loss of precingular plate 3".</t>
+  </si>
+  <si>
+    <t>**Corrudinium harlandii appears to be larger (40 to 53 um.) with higher muri up to 5 um.  The morphologies of both species show overlap around the Pliocene/Pleistocene transition. Corrudinium labradori differs from both theses species by being smaller (25 to 31 um.) possesising a 2P archeopyle, adn the clear expression of one cingular margin via a finely undulating crests.</t>
+  </si>
+  <si>
+    <t>*Wall has muri forming a reticulate pattern. Sub-muri can be present. Wall smooth to finely granulate. Wall psilate, granulate to scabrate. **Irregular nontabular reticulation of low muri. Muri are of variable height ranging 1.0 and 2.5 um. Lumem are less than 3 um. in diameter with a microgranulate to finely corrugate/striate surface. When low striations are present they originate from and are mostly perpendicular to the muri.</t>
+  </si>
+  <si>
+    <t>Pyxidinopsis reticulata - Okhotsk morphotype</t>
+  </si>
+  <si>
+    <t>*Irregular, nontabular, reticulation formed by muri. A primar y reticulation is formed by muri that are higher than muri present within the lumina than form a complete to incomplete sub-reticulation. In case of an incomplete sub-reticulation, the appearance of the lumina is striated.</t>
+  </si>
+  <si>
+    <t>*By loss of precingular plate 3".</t>
+  </si>
+  <si>
+    <t>*35 to 40 um. (diameter)</t>
+  </si>
+  <si>
+    <t>*Van Nieuwenhove (2020)</t>
+  </si>
+  <si>
+    <t>*Pyxidinopsis reticulata in possessing a more pronounced and complex inner reticulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Transparent </t>
+  </si>
+  <si>
+    <t>*Spherical to cruciform. **Spherical, rhombic or cruciform.</t>
+  </si>
+  <si>
+    <t>* Wall psilate, granulate to scabrate. **Psilate, minutely punctate or finely scabrate wall surface.</t>
+  </si>
+  <si>
+    <t>*Archeopyle precingular by loss of one plate.  **Precingular</t>
+  </si>
+  <si>
+    <t>*No tabulation **Only indicated by a precingular archeopyle.</t>
+  </si>
+  <si>
+    <t>**37 to 52 um. (diameter of spherical), 46 to 65 um. (length), 37 to 50 um. (width ) (cruciform).</t>
+  </si>
+  <si>
+    <t>**In brackish environments its form becomes  cruciform. Cell wall is much thinner than than of Bitectatodinium tepikiense and Tectatodinium pellitum. And his characteristic precingular archeopyle with the loss of one single plate.</t>
+  </si>
+  <si>
+    <t>Pyxidinopsis braboi</t>
+  </si>
+  <si>
+    <t>*DeSchepper et al., 2004</t>
+  </si>
+  <si>
+    <t>*Not reflected.</t>
+  </si>
+  <si>
+    <t>*Precingular (1P), isdodeltacamerate, formed by loss of plate 3", ornamentation extends to archeopyle borders. Free operculum.</t>
+  </si>
+  <si>
+    <t>*Spherical. Small apical protuberance, involving both pedium and luxuria.</t>
+  </si>
+  <si>
+    <t>*40 um. diameter including luxuria.</t>
+  </si>
+  <si>
+    <t>*Rigid with characteristic high (1.5 to 2) irregular, complete or incomplete microreticulation over surface. Lumina with small (0.3-0.5 ) and large (0.5 -4) diameters on the same cysts. Muri are relatively thick (0.3-0.5 um.) and of event height over all surface. Smooth lumina and muri. Thickness: 1 .5 to 2 um.</t>
+  </si>
+  <si>
+    <t>*P. delicata differs from P. braboi in having a coarser reticulation with crenulate muri, larger overall size (51 to 62 um. for P. delicata and 31 to 40 um. for P. braboi), and thicker wall (2-4 um for delicata and 1.5-2 for braboi).    P. waipawaensis differs in its coarser microreticulation and having a rounded pentagonal to quadrangular archeopyle bordered by a low ridge.     P. reticulata has ornamentation within the reticulum.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3715,6 +3784,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3742,7 +3817,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3765,11 +3840,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3841,6 +3940,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4123,11 +4243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N195"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4160,13 +4280,13 @@
         <v>172</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>173</v>
@@ -4195,20 +4315,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -4216,10 +4336,10 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,22 +4347,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -4250,10 +4370,10 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4261,22 +4381,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -4285,7 +4405,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4293,22 +4413,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -4317,7 +4437,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4325,22 +4445,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4349,7 +4469,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,31 +4477,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4389,22 +4509,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -4412,10 +4532,10 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4423,22 +4543,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>225</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -4447,7 +4567,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,25 +4575,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="F10" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>718</v>
-      </c>
       <c r="H10" s="17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -4481,7 +4601,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4489,25 +4609,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>720</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>723</v>
-      </c>
       <c r="H11" s="17" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -4515,7 +4635,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4523,25 +4643,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="F12" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>729</v>
-      </c>
       <c r="H12" s="17" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -4549,31 +4669,31 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -4581,7 +4701,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4589,25 +4709,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="F14" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>735</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>739</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -4615,89 +4735,89 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>746</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>753</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="I16" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>754</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4708,40 +4828,40 @@
         <v>220</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4749,23 +4869,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="G18" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>760</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>762</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>764</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -4773,7 +4893,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4784,34 +4904,34 @@
         <v>220</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>703</v>
-      </c>
       <c r="F19" s="17" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,20 +4942,20 @@
         <v>220</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>712</v>
-      </c>
       <c r="F20" s="17" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>185</v>
@@ -4845,7 +4965,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4856,22 +4976,22 @@
         <v>181</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17" t="s">
@@ -4880,10 +5000,10 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,22 +5014,22 @@
         <v>181</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17" t="s">
@@ -4919,7 +5039,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4930,22 +5050,22 @@
         <v>181</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17" t="s">
@@ -4955,7 +5075,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,20 +5086,20 @@
         <v>181</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17" t="s">
@@ -4989,7 +5109,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5001,17 +5121,17 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17" t="s">
@@ -5021,7 +5141,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5032,80 +5152,80 @@
         <v>220</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>777</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>776</v>
-      </c>
       <c r="G26" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="N26" s="17" t="s">
         <v>775</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H27" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="K27" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="N27" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>785</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5113,39 +5233,39 @@
         <v>22</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>788</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>792</v>
       </c>
       <c r="I28" s="17" t="s">
         <v>191</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,53 +5277,53 @@
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -5211,7 +5331,7 @@
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5219,25 +5339,25 @@
         <v>24</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="F31" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="H31" s="17" t="s">
         <v>802</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>806</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -5245,7 +5365,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5253,21 +5373,21 @@
         <v>25</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>192</v>
@@ -5276,10 +5396,10 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5290,13 +5410,13 @@
         <v>181</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -5306,10 +5426,10 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,28 +5440,28 @@
         <v>181</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5352,18 +5472,18 @@
         <v>181</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>392</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
@@ -5371,7 +5491,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5382,32 +5502,32 @@
         <v>181</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F36" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>266</v>
-      </c>
       <c r="H36" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,32 +5538,32 @@
         <v>181</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E37" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5454,22 +5574,22 @@
         <v>181</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -5477,7 +5597,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5488,22 +5608,22 @@
         <v>181</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
@@ -5511,7 +5631,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5522,22 +5642,22 @@
         <v>181</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
@@ -5545,7 +5665,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5556,19 +5676,19 @@
         <v>181</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>190</v>
@@ -5579,7 +5699,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5590,32 +5710,32 @@
         <v>181</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5626,32 +5746,32 @@
         <v>181</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
       <c r="M43" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="18" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5659,39 +5779,39 @@
         <v>37</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F44" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>395</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>399</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>193</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5702,28 +5822,28 @@
         <v>181</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
       <c r="M45" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5731,21 +5851,21 @@
         <v>39</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>193</v>
@@ -5756,21 +5876,21 @@
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>182</v>
@@ -5781,7 +5901,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>193</v>
@@ -5793,7 +5913,7 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5801,21 +5921,21 @@
         <v>40</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>193</v>
@@ -5828,10 +5948,10 @@
         <v>197</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5842,36 +5962,36 @@
         <v>220</v>
       </c>
       <c r="C49" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="F49" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H49" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>813</v>
-      </c>
       <c r="I49" s="17" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5882,32 +6002,32 @@
         <v>220</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5918,32 +6038,32 @@
         <v>220</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5951,43 +6071,43 @@
         <v>44</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="K52" s="17" t="s">
         <v>816</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="L52" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="M52" s="17" t="s">
         <v>818</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="M52" s="17" t="s">
-        <v>822</v>
-      </c>
       <c r="N52" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -5998,40 +6118,40 @@
         <v>220</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="M53" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>828</v>
-      </c>
       <c r="N53" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,34 +6162,34 @@
         <v>220</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>833</v>
-      </c>
       <c r="F54" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6080,32 +6200,32 @@
         <v>220</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6116,34 +6236,34 @@
         <v>220</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>843</v>
-      </c>
       <c r="F56" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="18" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,34 +6274,34 @@
         <v>220</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
       <c r="M57" s="17" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6189,41 +6309,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>862</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>860</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>865</v>
-      </c>
       <c r="F58" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I58" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="M58" s="17" t="s">
         <v>863</v>
       </c>
-      <c r="J58" s="17" t="s">
-        <v>866</v>
-      </c>
-      <c r="K58" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="L58" s="17" t="s">
-        <v>864</v>
-      </c>
-      <c r="M58" s="17" t="s">
-        <v>867</v>
-      </c>
       <c r="N58" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6234,19 +6354,19 @@
         <v>181</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H59" s="17" t="s">
         <v>187</v>
@@ -6257,7 +6377,7 @@
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6268,19 +6388,19 @@
         <v>181</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -6289,7 +6409,7 @@
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6300,19 +6420,19 @@
         <v>181</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H61" s="17" t="s">
         <v>187</v>
@@ -6323,7 +6443,7 @@
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6334,68 +6454,68 @@
         <v>181</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>200</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="N63" s="17" t="s">
         <v>878</v>
-      </c>
-      <c r="L63" s="17" t="s">
-        <v>879</v>
-      </c>
-      <c r="M63" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="N63" s="17" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6403,37 +6523,37 @@
         <v>55</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J64" s="17"/>
       <c r="K64" s="17" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="M64" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N64" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6444,66 +6564,66 @@
         <v>220</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>883</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>884</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>887</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J65" s="17"/>
       <c r="K65" s="17" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="M65" s="17" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>461</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
       <c r="M66" s="17" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="18" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -6511,31 +6631,31 @@
         <v>57</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6544,30 +6664,30 @@
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="M68" s="17" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="N68" s="17" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6575,16 +6695,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
@@ -6592,14 +6712,14 @@
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="17" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6607,32 +6727,32 @@
         <v>60</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>445</v>
       </c>
       <c r="F70" s="17"/>
       <c r="H70" s="17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
       <c r="K70" s="17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="18" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6651,10 +6771,10 @@
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
       <c r="M71" s="17" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="22" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6663,32 +6783,32 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I72" s="21" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="21" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="L72" s="21"/>
       <c r="M72" s="17" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="N72" s="21" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6697,32 +6817,32 @@
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>929</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>928</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>933</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="M73" s="17" t="s">
         <v>930</v>
       </c>
-      <c r="L73" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>934</v>
-      </c>
       <c r="N73" s="17" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6731,28 +6851,28 @@
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="18" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6760,37 +6880,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="17" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="M75" s="17" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="N75" s="17" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6799,30 +6919,30 @@
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="17" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D76" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>939</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>943</v>
       </c>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6830,35 +6950,35 @@
         <v>67</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M77" s="17"/>
       <c r="N77" s="17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6869,10 +6989,10 @@
         <v>181</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17" t="s">
@@ -6880,19 +7000,19 @@
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="L78" s="17"/>
       <c r="M78" s="17" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6900,35 +7020,35 @@
         <v>69</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>200</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I79" s="17"/>
       <c r="J79" s="17" t="s">
         <v>204</v>
       </c>
       <c r="K79" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6937,32 +7057,32 @@
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J80" s="17"/>
       <c r="K80" s="17" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="18" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6970,33 +7090,33 @@
         <v>71</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="J81" s="17"/>
       <c r="K81" s="17" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="N81" s="17" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7011,7 +7131,7 @@
         <v>202</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>200</v>
@@ -7037,32 +7157,32 @@
         <v>220</v>
       </c>
       <c r="C83" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="H83" s="17" t="s">
         <v>470</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>474</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
       <c r="M83" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="18" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -7073,34 +7193,34 @@
         <v>220</v>
       </c>
       <c r="C84" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="E84" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="F84" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>959</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>957</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>960</v>
-      </c>
       <c r="H84" s="17" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
       <c r="M84" s="17" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7109,32 +7229,32 @@
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="G85" s="17" t="s">
         <v>479</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>483</v>
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
       <c r="M85" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7145,32 +7265,32 @@
         <v>220</v>
       </c>
       <c r="C86" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="G86" s="17" t="s">
         <v>488</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>492</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
       <c r="M86" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7180,121 +7300,121 @@
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="E87" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="E87" s="17" t="s">
-        <v>497</v>
-      </c>
       <c r="F87" s="17" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
+        <v>960</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>964</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>967</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>968</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
@@ -7302,7 +7422,7 @@
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7313,22 +7433,22 @@
         <v>181</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
@@ -7336,41 +7456,41 @@
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
       <c r="N91" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
+        <v>975</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="E92" s="23" t="s">
         <v>979</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>982</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>980</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>983</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="18" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7381,34 +7501,34 @@
         <v>220</v>
       </c>
       <c r="C93" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="H93" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="G93" s="17" t="s">
+      <c r="I93" s="17" t="s">
         <v>500</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>504</v>
       </c>
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
       <c r="M93" s="17" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7419,32 +7539,32 @@
         <v>220</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F94" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="G94" s="17" t="s">
         <v>984</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>988</v>
-      </c>
       <c r="H94" s="17" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" s="17" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7455,34 +7575,34 @@
         <v>220</v>
       </c>
       <c r="C95" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="G95" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="D95" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>994</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>992</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>995</v>
-      </c>
       <c r="H95" s="17" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
       <c r="M95" s="17" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7493,32 +7613,32 @@
         <v>220</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D96" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="G96" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="E96" s="17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>1001</v>
-      </c>
       <c r="H96" s="17" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
       <c r="L96" s="17"/>
       <c r="M96" s="17" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="18" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7529,34 +7649,34 @@
         <v>220</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
       <c r="M97" s="17" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7565,28 +7685,28 @@
       </c>
       <c r="B98" s="17"/>
       <c r="C98" s="17" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E98" s="17"/>
       <c r="F98" s="17" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="17" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
       <c r="M98" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="N98" s="17" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7595,32 +7715,32 @@
       </c>
       <c r="B99" s="17"/>
       <c r="C99" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="G99" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>520</v>
-      </c>
       <c r="H99" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7629,32 +7749,32 @@
       </c>
       <c r="B100" s="17"/>
       <c r="C100" s="17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
       <c r="N100" s="17" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7662,39 +7782,39 @@
         <v>87</v>
       </c>
       <c r="B101" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="J101" s="17" t="s">
         <v>1016</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>1021</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>1020</v>
       </c>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="N101" s="17" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7705,30 +7825,30 @@
         <v>181</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>188</v>
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="17" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17"/>
       <c r="M102" s="17" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7736,35 +7856,35 @@
         <v>91</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F103" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="G103" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="G103" s="17" t="s">
-        <v>526</v>
-      </c>
       <c r="H103" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17"/>
       <c r="M103" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="N103" s="17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="18" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,33 +7892,33 @@
         <v>89</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="17" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17"/>
       <c r="M104" s="17" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="N104" s="17" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7806,31 +7926,31 @@
         <v>92</v>
       </c>
       <c r="B105" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>1041</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>1045</v>
-      </c>
       <c r="D105" s="17" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
       <c r="M105" s="17" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7838,25 +7958,25 @@
         <v>90</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -7865,10 +7985,10 @@
       </c>
       <c r="L106" s="17"/>
       <c r="M106" s="17" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="N106" s="17" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7879,22 +7999,22 @@
         <v>220</v>
       </c>
       <c r="C107" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G107" s="17" t="s">
         <v>1046</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>1050</v>
-      </c>
       <c r="H107" s="17" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
@@ -7902,51 +8022,51 @@
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" s="17" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K108" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L108" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M108" s="17" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="N108" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7954,87 +8074,87 @@
         <v>94</v>
       </c>
       <c r="B109" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E109" s="17" t="s">
         <v>1070</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="F109" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I109" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J109" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="K109" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="M109" s="17" t="s">
         <v>1071</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F109" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H109" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I109" s="17" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J109" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="K109" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="L109" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="M109" s="17" t="s">
-        <v>1075</v>
-      </c>
       <c r="N109" s="17" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="110" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B110" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H110" s="17" t="s">
         <v>1076</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="I110" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="K110" s="17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L110" s="17" t="s">
         <v>1077</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I110" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="J110" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="K110" s="17" t="s">
+      <c r="M110" s="17" t="s">
         <v>1079</v>
       </c>
-      <c r="L110" s="17" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M110" s="17" t="s">
-        <v>1083</v>
-      </c>
       <c r="N110" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:14" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8042,127 +8162,127 @@
         <v>95</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D111" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E111" s="17" t="s">
         <v>1084</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>1088</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>183</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="J111" s="17" t="s">
         <v>184</v>
       </c>
       <c r="K111" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L111" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M111" s="17" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="N111" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>182</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K112" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L112" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M112" s="17" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="N112" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="I113" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K113" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L113" s="17" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="M113" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N113" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8170,175 +8290,175 @@
         <v>98</v>
       </c>
       <c r="B114" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G114" s="17" t="s">
         <v>1099</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>1103</v>
-      </c>
       <c r="H114" s="17" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K114" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L114" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M114" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N114" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="115" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B115" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E115" s="17" t="s">
         <v>1104</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>1108</v>
-      </c>
       <c r="F115" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K115" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L115" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M115" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N115" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="I116" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K116" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L116" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M116" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N116" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:14" s="24" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>1060</v>
+        